--- a/output_partially_covered_generated.xlsx
+++ b/output_partially_covered_generated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,1170 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;4.4	Medical applications&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>22263.docx</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1711350301733845</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['', '"Medical applications" is a generic concept covering medical devices and applications involved in the delivery of care to patients. ', '', 'Medical applications deployed into operating rooms consume communication services delivered by a 5G system over an NPN. In this document, we’ll deal with hybrid operating rooms which are rooms typically equipped with advanced imaging systems such as e.g. fixed C-arms (x-ray generator and intensifiers), CT scanners (Computer Tomography) and MR scanners (Magnetic Resonance). The whole idea is that advanced imaging enables minimally-invasive surgery that is intended to be less traumatic for the patient as it minimizes incisions and allows to perform surgery procedure through one or several small cuts. This is as an example useful for cardio-vascular surgery or neurosurgery to place deep brain stimulation electrodes. ', '', 'In hybrid rooms, the different type of medical images that can be transmitted by 5G systems and processed by medical applications are e.g.:', '', '-\tUltra-high-resolution video generated by endoscopes where it is expected that some scopes will produce up to 8K uncompressed (or compressed without quality loss) video, with the perspective to support also HDR (High Dynamic Range) for larger colour gamut management (up to 10 bits per channel) as well as HFR (High Frame Rate), i.e.; up to 120 fps. This will allow surgeons to distinguish small details like thin vessels and avoid any artefact that could potentially conduct surgeons to take wrong decisions. ', '', '-\t2D Ultrasound images: A 2D ultrasound typically produces a data stream of uncompressed images of 512x512 pixels with 32 bits per pixel at 20 fps (up to 60 fps in the fastest cases), resulting in a data rate of 160 Mbit/s up to 500 Mbit/s. ', '', '-\t3D Ultrasound volumes: Dedicated 3D probes tend to work at higher data rates, i.e. above 1 Gbit/s of raw data, and are expected to reach multi gigabit data rates in future (e.g. producing 3D Cartesian volumes of 256 x 256 x 256 voxels each encoded with 24 bits at 10 volumes per second or better). ', '', '-\tCT/MR scans: Images can range from a resolution of 1024x2024 to 3000x3000 pixels where higher resolutions are used for diagnosis purpose and lower ones are more suitable to fluoroscopy. In general, the frame rate is variable (5 to 30fps typically) where higher values are used to monitor moving organs in real time. Finally, colour depths of 16bits is considered in general.', '', 'In another deployment option, when specialists and patients are located at different places, medical applications can consume communication services delivered by PLMNs. In this case, the 5G system helps decoupling location from quality of care, and save countless hours for doctors and surgeons, who will be able to “beam” themselves to operating rooms, incident sites and medical houses, rather than having to be physically present. ', '', 'The same type of images as in hybrid rooms is assumed when considering a communication over a PLMN although with different tradeoffs on image resolution, end to end latency and compression algorithms. The key here is to allocate the necessary high priority resources fulfilling SLAs suitable to the transport of medical data (with special care taken on medical data integrity and confidentiality) over a geographical area covering the place where the care is delivered.', '', 'Finally, in all types of deployments, it shall also be noted that each equipment involved in image generation, processing and display shall be synchronized thanks to a common clock either external or provided by the 5G system. The synchronization is often achieved through dedicated protocols such as e.g. PTP version 2 and allows to e.g. guarantee correct recombination of two data streams in a single and accurate A/R image by the A/R application, or enable offline replay of the whole procedure.', '']</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall support the delivery of high-resolution ultra-high-definition video generated by endoscopes, including up to 8K uncompressed or high-quality compressed video, high dynamic range (HDR), and high frame rate (HFR) capabilities, to assist surgeons in distinguishing fine details during minimally-invasive surgeries.
+The system shall transmit 2D ultrasound images with a data stream of uncompressed images at resolutions of 512x512 pixels and 32 bits per pixel at frame rates of up to 60 fps, resulting in data rates of up to 500 Mbit/s.
+The system shall handle 3D ultrasound volumes generated by dedicated 3D probes, which operate at higher data rates above 1 Gbit/s, and are expected to reach multi-gigabit data rates in the future, producing 3D Cartesian volumes with encoded 24 bits at 10 volumes per second or better.
+The system shall facilitate the transmission of CT/MR scan images with variable resolutions ranging from 1024x2024 to 3000x3000 pixels and frame rates between 5 to 30 fps, using color depths of 16 bits, suitable for both diagnosis and fluoroscopy.
+The system shall enable the consumption of communication services delivered by Public Land Mobile Networks (PLMNs) for medical applications, allowing specialists and patients to access quality care remotely, decoupling location from the quality of care.
+The system shall ensure the transport of medical data over geographical areas with allocated high priority resources, fulfilling Service Level Agreements (SLAs) that guarantee medical data integrity, confidentiality, and timely delivery.
+The system shall provide synchronization of all equipment involved in image generation, processing, and display through a common clock, either external or provided by the 5G system, using dedicated protocols such as PTP version 2 to ensure accurate image recombination and enable offline replay of medical procedures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.2.3		Service Flows&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>22843-j00.docx</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1525215067634521</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['', '----media/image3.png----', '', 'Figure 5.2.3-1: Supporting UAV pre-flight preparation', '', '1.\tThe pipeline company plans to use UAV A to provide video inspection of pipelines from X to Y and the logistics company uses UAV B to deliver express from X to Z.', '', '2.\tUAV/UAV-C A and UAV/UAV-C B register in 5G network and can communicate with UTM though 5G network.', '', '3.\tThe UAV-C A provides planned flight path information from X to Y to UTM (e.g. waypoints and required QoS from X to Y). The UAV-C B provides planned flight path on start point X, end point Z and needed QoS.', '', '4.\tUTM checks with 5G system for required and needed QoS information in predictions/statistics (e.g. end-to-end latency, QoE) along required and possible flight paths.', '', '5.\tBased on the available analytics information, the 5G system can provide confirmation that required QoS is available for UAV A flight path or alternatively can reconfigure network resources to be able to provide the required QoS to UAV A along the flight path. As UAV B can take alternative routes, 5G system can provide optimized flight path considering where the QoS is available.', '', '6.\tUTM/UAS determines the final flight paths based on the information from Operator A and sends to UAV/UAV-C A and UAV/UAV-C B separately.', '', '7.\tUAV A and UAV B receive the flight path information from UTM/UAS via the 5G system and start flight mission.', '']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall register UAV A and UAV B in the 5G network to enable communication with UTM.
+The system shall provide planned flight path information from X to Y to UTM for UAV A, and from X to Z for UAV B, including required Quality of Service (QoS).
+The system shall allow UTM to check with the 5G network for required and needed QoS information along the flight paths.
+The system shall confirm the availability of required QoS for UAV A's flight path or reconfigure network resources to provide the required QoS along the flight path.
+The system shall optimize the flight path for UAV B considering the available QoS, allowing for alternative routes if necessary.
+The system shall determine the final flight paths based on information from Operator A and send them to UAV A and UAV B separately.
+The system shall enable UAV A and UAV B to receive flight path information from UTM/UAS via the 5G system and initiate their flight missions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.22.2	Pre-conditions&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.174577832476389</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['', '1) Alex, Bob and Carey are good friends live in different cities, they agree to watch the mobile metaverse live concert together.', '', '2) Alex, Bob and Carey are equipment with XR glasses and tactile, the equipment can capture their voice, facial expression, pose information to generate avatars and interact with the whole live concert.', '', '3) Enough computing resources can be provided to the mobile metaverse live concert service and the 5G network is capable of providing sufficiently high throughput and low latency network transmission. ', '']</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall provide a synchronized live concert experience for Alex, Bob, and Carey, despite living in different cities. The system shall equip Alex, Bob, and Carey with XR glasses and tactile devices capable of capturing their voice, facial expressions, and pose information. This equipment shall be used to generate avatars that interact with the live concert in real-time. The system shall ensure that there are enough computing resources to support the mobile metaverse live concert service. Additionally, the system shall leverage a 5G network to guarantee sufficiently high throughput and low latency for network transmission, ensuring a seamless and immersive concert experience for all participants.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.7.3	Service Flows&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>22865-j00.docx</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1614671610267564</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['', '1. Ed is hiking along the planned route in the Amazon Rainforest, with good connection to ground network through satellite access.', '', '2. Suddenly, Ed is knocked by a piece of deadwood and his left arm is wounded.', '', '3. Ed can not go on his ride with poor medical measures, so he dials the rescue phone number for help.', '', '4. Based on the position information of Ed provided by SatA and TerrB, the rescue center finds Bell is the nearest rescuer and transfers the call to Bell.', '', '5. Bell answers the phone call with satellite access and tries to find Ed based on the real-time position information of Ed. For lower communication latency, this phone call is routed by only one satellite without going through the ground network of TerrA and TerrB.', '']</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall:
+1. Maintain a robust satellite connection for Ed while he is hiking along the planned route in the Amazon Rainforest.
+2. Support emergency communication capabilities for Ed in the event of an injury, such as when he is knocked by a piece of deadwood and sustains a wound to his left arm.
+3. Enable Ed to initiate a rescue call by dialing the provided rescue phone number when he is unable to continue his hike due to inadequate medical measures.
+4. Utilize real-time position information from Satellite A (SatA) and Terrestrial Base (TerrB) to identify the nearest rescuer, in this case, Bell, and facilitate the transfer of the rescue call to Bell.
+5. Ensure low communication latency for Bell when receiving the rescue call by routing the call through only one satellite, bypassing the ground networks of TerrA and TerrB, to expedite the rescue process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.1.3	Service Flows&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>22876-j00.docx</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1519712435218333</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['', '1.\tJurassic Park provides panorama AR tour guide services in a commercial area and a tropical rainforest area. AR headsets need to download Model A and B (both are VGG-16, 552MByte) respectively.', '', '2.\tTo provide high quality user experience, Jurassic Park company indicates to the operator that AR headsets require to download model A in area A and model B in area B. ', '', '3.\tThe Jurassic Park company signs a high-quality plan for tour guide Alice and Bob’s AR Headsets for providing better service to the tour group using direct device connection. ', '', '4.\tWhen Bob and his tour group enter area A, their headsets request for the Model A. The operator network finds they requested the same model and Bob is a signed volunteer UE, then triggers to establish a QoS acceleration for Bob’s model downloading timely within 1 second. Meanwhile, Jurassic Park requests the operator network to inform Bob to help transfer the model to all other UE near Bob. Also, the operator network informs all other UE near Bob that Bob can provide the model as well. The UE which is a little far from Bob (e.g. out of Bob’s coverage) will still download the model through the base station directly.', '', '5.\tAlice and her group are 10 meters far from Bob and also move towards to area A. Jurassic Park predicts their desire model based on their movement and finds Bob has already downloaded it based on the model transferring records. Jurassic Park requests operator network to inform Alice that she can request model from Bob. Meanwhile, the operator network indicates all other UE near Alice to download the model from Alice.', '', '6.\tFor Alice and Bob, they can see the status of all direct device connections to themselves through network exposures providing by operators (e.g. monitored bandwidth and latency of each direct device connection)', '', '7.\tWhen Alice and Bob notice that their groups have a poor QoS of model transfer through direct device connection, they can send a request to the park company for promoting the performance of their direct device connections and the park company will send a similar message to the operator through network exposure to active a temporary acceleration of these direct device connections (e.g. expand the bandwidth of each direct device connection).', '']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall provide panorama AR tour guide services in both commercial and tropical rainforest areas.
+The system shall ensure AR headsets download Model A (VGG-16, 552MB) in area A and Model B in area B to maintain high-quality user experience.
+The system shall facilitate direct device connections for tour guide Alice and Bob's AR headsets, enabling better service delivery to their respective tour groups.
+The system shall establish Quality of Service (QoS) acceleration for model downloads within 1 second for signed volunteer User Equipment (UE) like Bob, when requested by the operator network.
+The system shall enable the operator network to inform nearby User Equipment (UE) about the availability of models for download, as requested by a user like Bob.
+The system shall predict and manage model downloads for users like Alice based on movement and previous model transferring records, allowing for efficient model requests.
+The system shall provide network exposures that allow users like Alice and Bob to monitor the status of direct device connections, including bandwidth and latency.
+The system shall allow users to request performance enhancements for direct device connections when experiencing poor QoS, with the park company sending a message to the operator to temporarily accelerate these connections.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;A.2.2.1	Motion control&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1663480021957285</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['', 'A motion control system is responsible for controlling moving and/or rotating parts of machines in a well-defined manner, for example in printing machines, machine tools or packaging machines.', '', 'A schematic representation of a motion control system is depicted in Figure A.2.2.1-1. A motion controller periodically sends desired set points to one or several actuators (e.g., a linear actuator or a drive) which thereupon perform a corresponding action on one or several processes (in this case usually a movement or rotation of a certain component). At the same time, sensors determine the current state of the process(es), e.g. the current position and/or rotation of one or multiple components, and send the actual values back to the motion controller. This is done in a strictly cyclic and deterministic manner, such that during one application cycle the motion controller sends updated set points to all actuators, and all sensors send their actual values back to the motion controller. Nowadays, typically Industrial Ethernet technologies are used for motion control systems. ', '', '', '', '----media/image4.emf----', '', 'Figure A.2.2.1-1: Schematic representation of a motion control system', '', 'Table A.2.2.1-1: Service performance requirements for motion control', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: lower bound', '', 'Transfer interval: upper bound', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note)', '', '1', '', '99.999 to 99.999\xa099', '', '~ 10 years', '', '', '', '&amp;lt; transfer interval value', '', '–', '', '50', '', '500\xa0μs – 500\xa0ns', '', '500\xa0μs + 500\xa0ns', '', '500\xa0μs', '', '≤ 72\xa0km/h', '', '≤ 20', '', '50 m x 10 m x 10 m', '', '2', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '–', '', '40', '', '1 ms – 500\xa0ns', '', '1 ms + 500\xa0ns', '', '1 ms', '', '≤ 72\xa0km/h', '', '≤ 50', '', '50 m x 10 m x 10 m', '', '3', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '–', '', '&lt;span style="color:000000;font-size:22pt"&gt;20&lt;/span&gt;', '', '', '', '2 ms – 500\xa0ns', '', '2 ms + 500\xa0ns', '', '2 ms', '', '≤ 72\xa0km/h', '', '≤\xa0100', '', '50 m x 10 m x 10 m', '', 'NOTE:\tLength x width x height.', '', '', '', '&lt;i&gt;Use cases one to three&lt;/i&gt;', '', 'Characteristic parameters and influence quantities for a communication service supporting the cyclic interaction described above.', '']</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall provide a communication service with a target availability of 99.999% to 99.9999% for use cases one to three, ensuring a mean time between failures of approximately 10 years. The service must maintain an end-to-end latency of less than the transfer interval value, with a user experienced data rate that matches the service bitrate. The communication service should support message sizes ranging from 500 microseconds to 500 nanoseconds, transfer intervals between 1 millisecond and 500 nanoseconds, and accommodate a survival time of up to 72 km/h. It must also cater to a maximum of 50 user equipment (UEs) within a service area of 50 meters by 10 meters by 10 meters, or 2 user equipment (UEs) within a service area of 50 meters by 10 meters by 10 meters, or 40 user equipment (UEs) within a service area of 50 meters by 10 meters by 10 meters.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;A.4.4.1	Distributed automated switching for isolation and service restoration&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1573190313395603</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['', 'A power distribution grid fault is a stressful situation. There are self-healing solutions for automated switching, fault isolation, and service restoration. Furthermore, these solutions are ideally suited to handle outages that affect critical power consumers, such as industrial plants or data centres. Supply interruptions must be fixed within less than a second for critical power consumers. Automated solutions are able to restore power supply within a few hundred milliseconds.', '', '----media/image8.png----', '', 'Figure A&lt;b&gt;.&lt;/b&gt;4.4.1-1: Depiction of a distribution ring and a failure (flash of lighting) ', '', 'The FLISR (Fault Location, Isolation &amp;amp; Service Restoration) solution consists of switch controller devices which are especially designed for feeder automation applications that support the self-healing of power distribution grids with overhead lines. They serve as control units for reclosers and disconnectors in overhead line distribution grids.', '', 'The system is designed for using fully distributed, independent automated devices. The logic resides in each individual feeder automation controller located at the poles in the feeder level. Each feeder section has a controller device. Using peer-to-peer communication among the controller devices, the system operates autonomously without the need of a regional controller or control centre. However, all self-healing steps carried out will be reported immediately to the control centre to keep the grid status up to date. The controllers conduct self-healing of the distribution line in typically 500 ms by isolating the faults.', '', 'Peer-to-peer communication via IEC 61850 GOOSE (Generic Object Oriented Substation Event) messages provides data as fast as possible (Layer 2 multicast message). They are sent periodically (in steady state, with changing interval time in fault case) by each controller to several or all other controllers of the same feeder and are not acknowledged. ', '', 'The service bit rate per controller is low in steady state, but GOOSE bursts with high service bit rate do occur, especially during fault situations. GOOSE messages are sent by several or all controller units of the feeder nearly at the same point in time during the fault location, isolation and service restoration procedure with a low end-to-end latency. ', '', 'The associated (a)periodic communication KPIs are provided in Table A4.4.1-1. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;4.4-1.1: Service performance requirements for distributed automated switching for isolation and service restoration ', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note 1)', '', '1 (note\xa02)', '', '99.999\xa09', '', '–', '', '&amp;lt; 5 ms', '', '1 kbit/s (steady state)', '1.5 Mbit/s (fault case)', '', '&amp;lt; 1,500', '', '&amp;lt; 60 s (steady state)', '≥ 1 ms (fault case)', '', ' transfer interval (one frame loss)', '', 'stationary', '', '20', '', '30 km x 20\xa0km', '', '2', '', '&amp;gt; 99.999\xa0%', '', '-', '', '20 ms (note\xa02)', '', '-', '', '&amp;lt; 100', '', '-', '', '-', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', 'NOTE 1:\tLength x width', '', 'NOTE 2:\tUE to UE communication (two wireless links)', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'GOOSE (a)periodic deterministic communication service supporting bursty message exchange for fault location, isolation, and service restoration.', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Typically event-driven, aperiodic deterministic communication service supporting fault detection and isolation.', '']</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall provide self-healing solutions for automated switching fault isolation and service restoration in power distribution grids. These solutions must be capable of handling outages affecting critical power consumers, such as industrial plants or data centers, with the objective of restoring power supply within less than a second.
+The Fault Location, Isolation, and Service Restoration (FLISR) solution shall consist of switch controller devices designed for feeder automation applications. These devices will serve as control units for reclosers and disconnectors in overhead line distribution grids.
+The system shall be designed using fully distributed independent automated devices, with logic residing in individual feeder automation controllers located at the poles in the feeder level. The system shall operate autonomously through peer-to-peer communication among the controller devices, without the need for a regional controller or control center.
+The controllers shall conduct self-healing of the distribution line in typically 500 milliseconds by isolating faults. All self-healing steps carried out shall be reported immediately to the control center to keep the grid status up to date.
+Peer-to-peer communication shall be facilitated via IEC 61850 GOOSE messages, providing data as fast as possible with low end-to-end latency. The system shall meet the following service performance requirements for distributed automated switching for isolation and service restoration:
+- Communication service availability target value of 99.99999%
+- Communication service reliability with a mean time between failures greater than 99.99999%
+- End-to-end latency with a maximum of less than 5 milliseconds
+- Service bitrate with a user experienced data rate of less than 5 Mbit/s during fault cases
+- Message size not exceeding 1.5 Mbit/s
+- Transfer interval target value of less than 1500 milliseconds
+- Survival time of at least 60 seconds in steady state
+- UE speed and number of UEs not exceeding 60 seconds and 20 respectively in steady state
+- Service area of 99.99999% availability for a 30 km x 20 km area with a population density</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;7.3.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1560101939556342</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['', 'Adaptability and flexibility are among the key features of the 5G system to serve a wide diversity of verticals and services, in different environments (e.g. rural, urban, indoor). This applies to high-accuracy positioning and translates into the ability to satisfy different levels of services and requirements, for instance on performance (e.g. accuracy, positioning service availability, positioning service latency) and on functionality (e.g. security).', '']</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall demonstrate adaptability and flexibility to effectively cater to a wide diversity of verticals and services across various environments such as rural, urban, and indoor settings. It shall ensure high-accuracy positioning to meet different levels of service requirements, including but not limited to performance aspects like accuracy, service availability, and positioning service latency. Furthermore, the system shall provide enhanced functionality, including robust security measures, to satisfy the specific needs of the services and verticals it supports.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.29.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>22837-j00.docx</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1803180134375404</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['', 'As a new way of human-device interface, gesture recognition enables a more intuitive interaction between humans and machines, compared to the conventional text or GUI-based interfaces. Common applications of gesture recognition include touchless control of mobile devices, such as smartphones, laptops, and smart watches. Compared to other use cases, such as sports monitoring or sleep monitoring, gesture recognition requires higher resolution, higher update rate, and lower latency, which makes it more challenging in terms of resource utilization and processing complexity. ', '', 'Gesture recognition identifies motions and postures of human body parts, such as head, hands, and fingers. As shown in Figure\xa05.29.1-1, gesture recognition can be applied to various applications such as human motion recognition, keystroke detection, sign language recognition and touchless control.', '', '', '', '----media/image37.png--------media/image39.png--------media/image41.png--------media/image42.png--------media/image43.png--------media/image44.png----', '', '', '', 'Gesture/motion/posture recognition', '', '--\tHuman motion recognition', '', '--\tKeystroke detection', '', '--\tTouchless control', '', '--\tSign language recognition', '', 'Figure\xa05.29.1-1 Gesture Recognition', '', 'In this use case, we focus on application of gesture recognition for touchless control and immersive (i.e. XR) application.', '', 'For touchless control, the identified gestures are then interpreted to specific behaviours or operations of the device, including locking/unlocking a screen, increasing/decreasing volume, and navigating forward/backward web pages.', '', 'For XR application, the position tracking and mapping of the human body is a basic requirement that permeates XR application to provide the immersive experience [55]. Hereby a variety of sensors are integrated in the XR devices to measure the movement of the human body (e.g., head, eye, hand, arm, etc) in order to simulate normal human mimicry. Besides, the hand tracking goes beyond the simulation and enables a natural and intuitive way of the interaction between the human and the machine compared with the use of the physical controller. The gesture recognition and hand tracking becomes a vital function in XR applications, especially when the human and the controlled object stay in physical and virtual world separately.', '', 'For both touchless control and XR application, NR-based RF sensing is suitable for gesture recognition because certain RF signals can detect small body movements and the RF signals are not susceptible to the ambient illumination condition and occlusions in the environment. In addition, NR-based RF sensing allows for finger and hand tracking in a lower-complexity and economic manner.', '']</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall enable intuitive human-device interaction through gesture recognition, surpassing conventional text or GUI-based interfaces. It shall facilitate touchless control of mobile devices, including smartphones, laptops, and smartwatches, with high-resolution, high-update-rate, and low-latency requirements to ensure accurate and responsive gesture detection.
+The system shall accurately identify motions and postures of human body parts such as the head, hands, and fingers for applications like human motion recognition, keystroke detection, sign language recognition, and touchless control.
+For touchless control applications, the system shall interpret identified gestures to specific device behaviors or operations, including screen lock/unlock, volume adjustment, and web page navigation.
+For immersive (XR) applications, the system shall integrate position tracking and mapping of the human body to provide a natural and intuitive interaction between the human and the machine. It shall support hand tracking beyond simulation, enabling interaction with the machine in both physical and virtual worlds separately.
+The system shall employ Near-field (NR) based RF sensing for gesture recognition, as it can detect small body movements, is not affected by ambient lighting conditions, and can handle occlusions in the environment. Additionally, NR-based RF sensing shall enable finger and hand tracking in a cost-effective and less complex manner.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.20.2	Pre-conditions&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1533146617883736</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['', 'Bob works in a seaport; he operates a lifting device. The place in which he is operating is surrounded by cranes, machines, containers, pipes, and barrels containing hazardous substances. ', '', 'A new mobile metaverse service is available: instead of locally controlling the device, Bob is installed in a safe remote location from which he is working. The surrounding information is available through a digital twin of the seaport and can come from various sources (IoT sensors, CCTV cameras, connected machines, and other vehicles). ', '', 'In order to maximize Bob’s efficiency, the metaverse service experience delivered by the system is real-time with non-noticeable latency. This use case includes both location related and location agnostic service experience examples.', '', 'The mobile metaverse service Bob uses for teleoperation is running on a mobile metaverse server. In addition, Bob is equipped with a head-mounted display and haptic gloves to remotely control the vehicle.', '']</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall provide a real-time, high-fidelity teleoperation experience for Bob, enabling him to effectively operate the lifting device in a hazardous seaport environment. The system shall ensure non-noticeable latency to maximize Bob's efficiency and safety. It shall integrate a digital twin of the seaport, utilizing data from IoT sensors, CCTV cameras, connected machinery, and other vehicles to offer a comprehensive situational awareness. Additionally, the system shall support location-agnostic service experiences, allowing Bob to be seamlessly connected to the metaverse server from a safe remote location. The system shall deliver this experience through a head-mounted display and haptic gloves, ensuring intuitive and precise control over the lifting device.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.1.6.2	Potential KPI Requirements&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>22876-j00.docx</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.154900322563745</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['', 'Considering the widely-used AlexNet and VGG-16 model for proximity-based work task offloading, the following KPIs need to be supported:', '', 'Table 5.1-2\tKPI requirements for proximity-based work task offloading', '', '', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;UL data size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;(for sidelink)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;UL data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;(for sidelink)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Intermediate data uploading latency (including sidelink+Uu)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Image recognition latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;AlexNet model with 30FPS (NOTE 1)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0.15 - 0.02&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; &lt;/b&gt;&lt;/span&gt;&lt;span style="font-size:18pt"&gt;Mbyte for each frame&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;4.8 – 65 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-  2ms for Remote driving, AR displaying/gaming, and remote-controlled robotics;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-  10ms for video recognition;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-  100ms for One-shot object recognition, Person identification, or photo enhancement in smart phone&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;VGG-16 model with 30FPS&lt;/span&gt;', '', '\t1)\t&lt;span style="font-size:18pt"&gt;- 1.5&lt;/span&gt; &lt;span style="font-size:18pt"&gt;Mbyte for each frame&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;24 - 720 Mbit/s&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;1s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;NOTE 1: FPS stands for Frame Per Second&lt;/b&gt;&lt;/span&gt;', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall support the following Key Performance Indicators (KPIs) for proximity-based work task offloading using the AlexNet and VGG-16 models at 30 frames per second (FPS):
+1. The system shall handle UL data size for sidelink with a range of 0.15 to 0.02 Mbytes for each frame.
+2. The system shall manage UL data rate for sidelink within the range of 4.8 to 65 Mbit/s.
+3. The system shall ensure intermediate data uploading latency, including sidelink and Uu, is less than or equal to 2 milliseconds (ms) for applications such as remote driving, AR displaying/gaming, and remote-controlled robotics.
+4. The system shall provide image recognition latency of less than or equal to 10 milliseconds (ms) for video recognition tasks.
+5. The system shall guarantee a latency of 1 second (s) for One-shot object recognition, Person identification, or photo enhancement in smartphones.
+6. The system shall support the AlexNet model with a UL data size of 1.5 Mbytes for each frame and a UL data rate of 24 to 720 Mbit/s.
+7. The system shall also support the VGG-16 model with a UL data size of 1.5 Mbytes for each frame and a UL data rate of 24 to 720 Mbit/s, with a latency of 1 second (s).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.15.2	Pre-conditions&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>22882-j00.docx</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1502372202327839</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['', 'Eva watches videos during the commute. She receives 5G service from the mobile network operator A.', '', 'The 5G system operated by operator A is powered by both of renewable energy (e.g., solar energy) and non-renewable energy (e.g., coal). The ratio of renewable energy measures the ratio of the power that is used from renewable energy sources as a percentage of total power usage in a given time unit. Calculation of ratio of renewable energy is done by means of averaging or applying a statistical model.', '', 'The operator A offers a “green communication service option”, in which the service has adaptable QoS levels considering the ratio of renewable energy and the subscriber’s preferences, e.g., the operator A can provide a communication service with bit rate of 30Mbps and low ratio of renewable energy, which can be adapted to the service with bit rate is 10Mbps when high ratio of renewable energy is more desirable to the subscriber.', '', 'The operator A monitors the supply of renewables for its 5G system and adjust the operation of communication services. Following the pre-agreed QoS requirements with a subscriber, the operator A adjusts the communication services based on the supply of renewable energy. ', '', 'Eva loves our planet, so she subscribes the optional green communication service. Therefore, the operator can determine to use a higher latency but greener network function entities (e.g., located in a faraway but powered by 80%+ renewable energy large scale computing/communication center) to provide services to Eva. ', '', 'NOTE: This green service ensures that QoS level criteria continues to be met (i.e., there is no trade-off between energy efficiency and service quality) since all the adapted QoS levels are satisfied by the subscriber based on the pre-agreement.', '']</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall dynamically adjust the Quality of Service (QoS) levels for Eva's green communication service based on the real-time ratio of renewable energy supply. This adjustment should align with Eva's subscribed preferences, ensuring that the service maintains the pre-agreed QoS criteria without compromising on energy efficiency or service quality. Specifically, the system shall:
+1. Monitor the supply of renewable energy for the 5G network operated by operator A.
+2. Adapt the communication service parameters, such as bit rate, to match the availability of renewable energy, transitioning between lower and higher bit rates as necessary.
+3. Utilize network function entities powered by a high percentage of renewable energy (e.g., 80%+) for providing services to Eva, even if these entities are located further away, to meet the green communication service option's requirements.
+4. Ensure that any adjustments made to the QoS levels, including latency and bit rate, continue to satisfy the pre-agreed service quality standards as per the subscriber's preferences.
+5. Maintain a transparent and user-friendly interface for Eva to understand and manage her green communication service settings, including the impact of renewable energy supply on her service experience.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;C.1.1	Area of consideration&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1707627659838373</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['', 'For our discussion of communication in automation we apply a definition of the area of consideration for industrial radio communication that is found elsewhere in the literature [4]. This definition is illustrated in Figure C.1.1-1. ', '', '----media/image14.emf----', '', 'NOTE:\tBlue objects: communication system; other objects: automation application system.', '', 'Figure\xa0C&lt;b&gt;.&lt;/b&gt;1.1-1: Abstract diagram of the area of consideration for industrial radio communication ', '', 'Here, a distributed automation application system is depicted. This system includes a distributed automation application, which is the aggregation of several automation functions. These can be functions in sensors, measurement devices, drives, switches, I/O devices, encoders etc. All of these functions contribute toward the control of physical objects. Field bus systems, industrial Ethernet systems, or wireless communication systems can be used for connecting the distributed functions. The essential function of these communication systems is the distribution of messages among the distributed automation functions. For cyber-physical control applications, the dependability of the entire communication system and/or of its devices or its links is essential. Communication functions are realised by the respective hardware and software implementation.', '', 'In order for the automation application system to operate, messages need to be exchanged between spatially distributed application functions. For that process, messages are exchanged at an interface between the automation application system and the communication system. This interface is termed the reference interface. Required and guaranteed values for characteristic parameters, which describe the behavioural properties of the radio communication system, as well as some influence quantities refer to that interface.', '', 'The conditions that influence the behaviour of wireless communication are framed by the communication requirements of the application (e.g., end-to-end latency), the characteristics of the communication system (e.g., output power of a transmitter), and the transmission conditions of the media (e.g., signal fluctuations caused by multipath propagation). ', '', 'General requirements from the application point of view for the time and failure behaviour of a communication system are mostly related to an end-to-end link. It is assumed in the present document that the behaviour of the link is representative of the communication system as a whole and of the entire scope of the application. ', '']</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall ensure dependable communication functions by realizing essential hardware and software implementations for distributed automation application systems. It shall provide interfaces, termed reference interfaces, for exchanging messages between spatially distributed application functions and the communication system. The system shall meet communication requirements, such as end-to-end latency, and consider characteristics of the communication system, like transmitter output power, as well as transmission conditions of the media, including signal fluctuations due to multipath propagation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.14.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>22882-j00.docx</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1940318099147854</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['', 'Global warming caused by excessive emissions of GHG (e.g., carbon dioxide) due to human activity (e.g., burning fossil fuels for electricity generation) is the main driver to climate change, which poses a significant threat to society and the environment. &lt;span style="color:000000"&gt;To achieve carbon neutrality, it is important to reduce the GHG incl. carbon emissions in the first place rather than offset them later. Recent advancements in communication and computing capabilities of networks (e.g., 5GS, cloud services) enables offloading tasks to networked and distributed computing nodes (e.g., edge computing, cloud computing) for a wide range of services. However, the rising demand for such services in turn triggers a rising demand for energy and a greater risk of an even higher resulting GHG footprint. 3GPP plays a crucial role in the ICT sector to enable the deployment of these technologies on a global scale and therefore must also play a central role in enabling a sustainable future.&lt;/span&gt;', '', 'The adoption of alternative sustainable sources of energy incl. renewable energy (e.g., solar, wind, hydropower, geothermy) could help offset the GHG footprint of energy generation based on fossil fuels, even though their corresponding environmental impact also need to be considered. From an ICT standpoint and, 3GPP system in particular, the energy used by computing nodes in networks can be from varied energy with different related levels of environmental impact incl. GHG emissions. Due to the highly variable and unpredictable nature of renewable energy sources, the supply of renewable energy varies substantially by time and location. Hence, it is critical to take temporal and spatial dimensions of energy sources into account to accomplish compute tasks not only for a better traceability of the energy sources used but in turn for enabling a more sustainable energy use to achieve those tasks.', '', 'Up until now usually a system is designed to finish compute tasks as soon as possible (high throughput) and indicate results to the requester as soon as possible (low latency). However, some compute tasks have flexibility in both when and where they are executed, i.e., such type of workload could be executed in any computing node and tolerate some delays if the workload gets completed within certain given deadline. For example, some of AI/ML training, simulation, and video processing tasks might not require a quick response, which would &lt;span style="color:000000"&gt;allow flexibility to delay the execution of the related workloads in a computing node until, e.g., the utilized energy is deemed satisfactory in terms of GHG emissions. Such flexibility further allows to route workloads to a computing node using the (most) sustainable energy sources at that moment. As part of service, 3GPP system is able to execute compute tasks in a sustainable way by leveraging such flexibility.&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;In addition, consuming the renewable energy immediately when they are available, instead of storing them for the future use (e.g., in a big battery system), can also bring some economic benefits to operators or service providers, because this can reduce the cost and investment for scaling the energy storage system needed by the overall system. &lt;/span&gt;', '', 'In the following use case, by considering the temporal and spatial information of sustainable energy source and availability, the possibility of reduction of the GHG footprint for application services is explored.', '']</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall:
+1. Enable the deployment of communication and computing technologies on a global scale by 3GPP to facilitate a sustainable future.
+2. Reduce greenhouse gas (GHG) emissions, including carbon emissions, by prioritizing the reduction of GHGs at the source rather than relying on offsets.
+3. Leverage advancements in network capabilities, such as 5G cloud services, for offloading tasks to distributed computing nodes, while minimizing the associated energy demand and GHG footprint.
+4. Integrate alternative sustainable energy sources, including solar, wind, hydropower, and geothermal, to offset the GHG footprint of energy generation from fossil fuels, considering the environmental impact of each energy source.
+5. Account for the temporal and spatial variability of renewable energy sources to optimize compute task execution, ensuring energy use is sustainable and traceable in terms of GHG emissions.
+6. Provide flexibility in compute task execution timing and location, allowing for the deferral of workloads until the utilized energy meets satisfactory GHG emissions criteria.
+7. Route compute tasks to computing nodes using the most sustainable energy sources available at the moment of execution.
+8. Explore the economic benefits of consuming renewable energy immediately rather than storing it for future use, reducing the need for large-scale energy storage systems and associated costs.
+9. Support the execution of compute tasks in a sustainable manner as part of a service system, such as a 3GPP system, by leveraging the flexibility and sustainable energy routing capabilities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;A.4.4.2	Distributed automation without GOOSE&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1527095020068013</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['', 'If the control of electrical power distribution components is performed from a central system entity, the controlled entities can be operated in a way that a controlled service restoration is possible without the use of GOOSE. Though this is not as effective as the communication has less strict requirements, this form of distribution automation is nevertheless effective, and it is also compliant with IEC standards and widely deployed in energy systems. The associated KPI is provided in Table A.4.4.2-1.', '', 'Table A.4.4.2-1: KPI for distributed automation without use of GOOSE', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area ', '', '1', '', '99.999', '', '–', '', '100 ms to 2\xa0s', '', '9.6 to100', '', '–', '', '–', '', '–', '', '–', '', 'Concentrated rural: 70.8;', '', 'Dispersed rural and semi-urban: 7.6;', '', 'rural support: 0.048;', '', 'urban: 11.0', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Distributed automation without use of GOOSE using a centralized architecture.', '']</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall ensure a communication service availability target value of 99.999% for distributed automation without the use of GOOSE, maintaining an end-to-end latency between 9.6 to 100 milliseconds and a user experienced data rate ranging from 9.6 to 100 Mbps. It shall support a message size of unspecified bytes, with a transfer interval target value not explicitly defined, and operate effectively within a service area spanning several square kilometers. The system shall comply with IEC standards and be capable of handling a specified number of User Equipments (UEs) across concentrated rural, dispersed rural and semi-urban, rural support, and urban environments, as detailed in Table A.4.4.2-1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.12.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>22865-j00.docx</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1691475627719486</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['', 'In Mediterranean climate regions, forest fires are quite common in summer months due to temperature rise [14]. The early detection and monitoring of forest fire is important for fire suppression quickly and reducing the loss of human and property. Therefore, how to detect the forest fire in real time and accurately is an urgent problem to be solved. Another problem is that due to extremely low population density and complex geography, these regions are often not covered by terrestrial networks. ', '', 'UAV equipped with satellite access capabilities is a feasible method, mainly through the following steps:', '', '--\tThe UAV collects real-time information (including high-precision three-dimensional surface topographic data, real-time pictures, real-time video, etc.);', '', '--\tThis real-time information is transmitted to the forest fire monitoring centre via the 5G network with satellite access;', '', '--\tThe forest fire monitoring centre monitors whether there is a fire, and may request the position of the UAV and adjust its route;', '', '--\tThe positioning services request and adjustment command are sent to the UAV via the 5G network with satellite access.', '', 'Forest fire monitoring centre with AI system can optimize the route through real-time information collected by UAV. In addition, the 5G system provides high-precision positioning of the UAV, which has been specified in 3GPP TS 22.261 [2].  But for UAVs using only satellites access, 5G system is difficult to provide high-precision positioning service under low latency. The end-to-end delay of LEO based satellite access can reach 35 ms [2]. After 5G system gets the real-time location data of flying UAV, it sends them to a trusted third party (e.g., The forest fire monitoring centre equipped with AI system) for UAVs to assist flying.', '']</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall:
+1. Equip UAVs with capabilities to collect real-time information, including high-precision three-dimensional surface topographic data, real-time images, and video.
+2. Transmit the collected real-time information to the forest fire monitoring center via a 5G network with satellite access capabilities.
+3. Enable the forest fire monitoring center, equipped with an AI system, to analyze the real-time data for early detection and monitoring of forest fires.
+4. Allow the forest fire monitoring center to request the UAV's position and adjust its flight path in real-time, in response to detected fire locations.
+5. Provide high-precision positioning services for UAVs through the 5G network with satellite access, as specified in 3GPP TS 22.261.
+6. Optimize UAV flight routes in real-time using AI systems at the forest fire monitoring center, based on the real-time information collected by the UAVs.
+7. Ensure the end-to-end delay of LEO-based satellite access does not hinder the high-precision positioning service, despite potential latencies up to 35 ms.
+8. Send real-time location data of UAVs to a trusted third party, such as the forest fire monitoring center, for further assistance and coordination in fire suppression efforts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;A.2.2.5	Cooperative carrying&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1592461210723559</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['', 'In a smart factory, large or heavy work pieces will be carried from one place to another by multiple mobile robots or AGVs. These mobile robots / AGVs need to work together in order to carry the large or heavy work piece safely. This cooperation is achieved with a cyber-physical control application that controls the drives and movements of the mobile robots / AGVs in a coordinated way, so that large or heavy work pieces are carried smoothly and safely from one place to another (see Figure 5.11.1-1).', '', '----media/image6.emf----', '', 'Figure A.2.2.5-1: Mobile robots / AGVs carrying a large work piece cooperatively', '', 'The communication between the collaborating mobile robots / AGVs requires high communication service availability and ultra-low latency. The exchange of control commands and control feedback is done with periodic deterministic communication and using time-sensitive networking.', '', 'There are two distinct use case variants of cooperative carrying: (1) carrying of rigid or fragile work pieces that require very precise coordination between the collaborating mobile robots, and (2) carrying of more flexible or elastic work pieces that allow some tolerance in the coordinated movements of the collaborative mobile robots. The higher tolerance in the coordinated movements allows for either faster movement of the work piece or longer transfer intervals (trade-off between UE speed and transfer interval).', '', 'Table A&lt;b&gt;.&lt;/b&gt;2.2.5-1: Service performance requirements for cooperative carrying', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', '(note 1)', '', 'Survival time', '', '(note 1)', '', 'UE ', '', 'speed', '', '# of UEs', '', 'Service area', '', '(note 2)', '', '1', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; 0.5 x transfer interval', '', '2.5 Mbit/s', '', '250;', '', '500 with localisation information', '', '&amp;gt; 5\xa0ms', '', '&amp;gt; 2.5\xa0ms', '', '&amp;gt; 1.7\xa0ms', '', '0', '', 'transfer interval', '', '2 x transfer interval', '', '≤\xa06\xa0km/h', '', '2 to 8', '', '10\xa0m x 10\xa0m x 5\xa0m;', '50\xa0m x 5\xa0m x 5\xa0m', '', '2', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; 0.5 x transfer interval', '', '2.5 Mbit/s', '', '250;', '', '500 with localisation information', '', '&amp;gt; 5\xa0ms', '', '&amp;gt; 2.5\xa0ms', '', '&amp;gt; 1.7\xa0ms', '', '0', '', 'transfer interval', '', '2 x transfer interval', '', '≤\xa012\xa0km/h', '', '2 to 8', '', '10\xa0m x 10\xa0m x 5\xa0m;', '50\xa0m x 5\xa0m x 5\xa0m', '', 'NOTE 1:\tThe first value is the application requirement, the other values are the requirement with multiple transmission of the same information (two or three times respectively).', '', 'NOTE 2:\tService Area for direct communication between UEs (length x width x height). The group of UEs with direct communication might move throughout the whole factory site (up to several km²)', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic deterministic communication for cooperative carrying of fragile work pieces (UE to UE / ProSe communication).', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Periodic deterministic communication for cooperative carrying of elastic work pieces (UE to UE / ProSe communication).', '']</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall ensure high communication service availability and ultra-low latency for the exchange of control commands and control feedback between collaborating mobile robots/AGVs in a cooperative carrying scenario. The communication service reliability should have a mean time between failures of approximately 10 years. The end-to-end latency must not exceed 5 milliseconds. The service bitrate should be user experienced at a rate of 2.5 Mbit/s. The message size should be within the specified byte range. The transfer interval should be targeted at a value of 2 times the transfer interval, with a maximum speed limit of 6 to 8 km/h. The system shall support both use case variants of cooperative carrying, with precise coordination for fragile work pieces and tolerance for elastic work pieces, while maintaining the specified service performance requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.2.1	Overview&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>22289.docx</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1543093411475042</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['', 'In future, for example trains will simultaneously exchange control information and status information with the responsible traffic management system on the ground. This procedure is a key factor for automated operation without a driver. Nonetheless, also traditional voice communication is needed to allow train staff to communicate with the ground staff.', '', 'Trains are operated at speeds up to 500\xa0km/h. Under these conditions voice, video and data communication are to be provided. Especially train control communication is of extreme importance to ensure passengers safety.', '', 'In normal rail operation and in the context of Grade of Automation (GoA3 and GoA4) video/radar/lidar sensors on trains and on ground will be used to:', '', '--\tdetect hazards on tracks, and', '', '--\tensure a safe passenger (dis-)embarkation (e.g., ensure that passengers are not stuck in doors, or between platform and train, when trains depart, and trigger emergency braking or postpone train departure if any hazardous situation is detected).', '', 'The relative braking distance of a rail vehicle is an important indicator of the safety, which is significantly influenced by the transmission reliability between train and controller at low speeds up to 40\xa0km/h. This mainly applies to the entry and exit of trains in the station area or displacement manoeuvres within marshalling yards. The reliability and &lt;span style="background-color:green"&gt;latency&lt;/span&gt; of the transmission of the control command signalling of speeds up to 40\xa0km/h has a direct impact on the braking distance.', '']</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall simultaneously exchange control and status information with the traffic management system for automated operation without a driver. It shall also provide traditional voice communication to facilitate interaction between train and ground staff.
+The system shall offer voice, video, and data communication services to support train operations at speeds up to 500 km/h, with a particular emphasis on train control communication to ensure passenger safety.
+The system shall utilize video/radar/lidar sensors for hazard detection on tracks and to ensure safe passenger embarkation and disembarkation, including emergency braking or postponement of train departure in case of hazardous situations.
+The system shall ensure the reliability and low latency of control command signaling for speeds up to 40 km/h, as this is crucial for determining the relative braking distance of rail vehicles, especially during station entry and exit, and within marshalling yards.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;A.4.3	Distributed voltage control&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1675812985626639</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['', 'In the evolution towards 100\xa0% renewable electric power production, the objective of voltage control is to balance the voltage in future low voltage distribution grids connecting local loads and prosumers, as well as energy storage facilities. The aim is to stabilise the voltage as locally as possible, so that decisions and control commands can be issued as quickly as possible. Distributed voltage control is a challenging and demanding control application. Consumer devices rely on having stable voltage levels to operate successfully. When future energy networks rely on thousands of local energy generation units relying mostly on solar and wind power, then it is crucial to stabilise the voltage levels in all segments of the distribution grid. Inverters, or electronic power converters, measure the voltage and power and change the amount of power injected into the grid, and they connect and disconnect end points from the distribution network.', '', 'Distributed control means that the automated voltage control shall be performed by the local voltage control units based on local &lt;i&gt;and neighbouring&lt;/i&gt; voltage and impedance values. Statistics and other information shall be communicated to the central distribution management system, though. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;4.3-1: Service performance requirements for distributed voltage control', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', '# of UEs', '', 'Service area', '', '1', '', '99.999', '', 'TBD', '', '~ 100 ms', '', '~ 100', '', '~\xa0200\xa0ms', '', 'TBD', '', '≤\xa0100,000', '', 'several km&lt;sup&gt;2&lt;/sup&gt; up to 100,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication service supporting message exchange for distributed voltage control.', '']</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall ensure a communication service availability target value of 99.999% for distributed voltage control. It shall also provide a communication service reliability with a mean time between failures to be determined (TBD). The end-to-end latency of the communication service shall not exceed approximately 100 milliseconds. The message size for communication shall be determined (TBD), and the transfer interval shall target a value of approximately 100 milliseconds. The system shall support communication between several thousand end-user equipment (UEs) and shall be capable of operating within a service area ranging from several kilometers squared up to 100,000 kilometers squared.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.2.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>22882-j00.docx</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1703785336044747</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['', 'Industrial campuses are very typical scenarios of edge computing and local traffic offload. Dedicated network facilities are usually deployed near the campus for lower latency and local data protection. This brings a problem that these network facilities are used only for the campus, so while the manufacturing load is light or during vacation, these network facilities will be in very light load or even no load. Under this scenario, the energy consumption of these network facilities will be unnecessary.', '']</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall deploy dedicated network facilities near industrial campuses to ensure lower latency and local data protection. These facilities are specifically designed to cater to edge computing and local traffic offload requirements. The system shall optimize the use of these network resources to minimize energy consumption during periods of light or no manufacturing load, such as during vacations. This optimization should prevent unnecessary energy usage while maintaining the readiness and responsiveness of the network infrastructure for the campus's operational needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;A.4.7	Advanced metering&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1636699940712761</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['', 'Instead of recording and sending metering data from a wired electricity meter unit, electricity metering collecting can be executed by a UE-integrated smart meter unit. Smart meter units can send real-time metering data to a server in the utility through mobile networks. In this way, the power enterprise―based on the analysis of the user’s power consumption behavior―gives the user power consumption suggestions, which fosters the user’s power consumption and energy saving habits. ', '', 'The electric smart meters monitor relevant user energy status and deliver the status data to a measurement data management system (MDMS). The MDMS sends control commands according to its policy and the status of the data collected from the smart meters. The MDMS commands include tripping, closing permission, alarm, alarm release, power protection, and power protection release. Accurate-fee control is one of the basic services of advanced metering. When the electric power user doesn’t pay her electric fee on time, the MDMS can cut off the power supply. And when there is a need for temporary power supply for this user, the MDMS can recover the power supply. This operation requires real-time interaction between the electric smart meter and the MDMS. Due to massive number of electricity meters, it is estimated that in the near future, the amount of this kind of interaction will increase 5 to 10 times. The associated KPIs are provided in Table A.4.7-1.', '', 'Table A.4.7-1: Communication KPI for advanced metering', '', 'Use case#', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value ', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum ', '', 'Service bit rate: user experienced data rate&lt;b&gt; &lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; &lt;/b&gt;', '', 'Transfer interval: target value&lt;b&gt; &lt;/b&gt;', '', 'Survival time&lt;b&gt; &lt;/b&gt;', '', 'UE ', 'speed&lt;b&gt; &lt;/b&gt;', '', '# of UEs', '', 'Service area ', '', '', '&lt;span style="font-size:18pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;gt; 99.99&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;Accuracy fee control: &amp;lt; 100 (note 1);&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;General information data collection: &amp;lt; 3000&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;UL: &amp;lt; 2 M&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;DL: &amp;lt; 1 M&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;stationary&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 10\xa0000/km2 (note2)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', 'NOTE 1: \tOne-way delay from 5G IoT device to backend system. The distance between the two is below 40\xa0km (city range).', '', 'NOTE 2: \tIt is the typical connection density in today city environment. With the evolution from centralised meters to socket meters in the home, the connection density is expected to increase 5 to 10 times.', '', '&lt;b&gt;&lt;i&gt;Use case#1:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; Advanced metering&lt;/b&gt;&lt;/span&gt;', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall execute electricity metering by integrating with UE-based smart meter units, allowing real-time data transmission to utility servers via mobile networks. It shall analyze user power consumption behavior to provide power consumption suggestions, thereby promoting energy-saving habits among users.
+The system shall monitor user energy status through electric smart meters and deliver status data to a measurement data management system (MDMS). It shall enable the MDMS to send control commands based on policy and data status, including tripping, closing permission, alarm, alarm release, power protection, and power protection release.
+The system shall support accurate-fee control as a fundamental service of advanced metering. It shall automatically cut off power supply when users fail to pay their electric fees on time and recover power supply for temporary needs when necessary. This operation requires real-time interaction between the electric smart meter and the MDMS.
+Considering the anticipated increase in the number of electricity meters, the system shall ensure that the communication service availability meets a target value of greater than 99.99%. The system shall maintain a communication service reliability with a mean time between failures that meets the specified requirements.
+The system shall guarantee end-to-end latency with a maximum value that meets the specified requirements. It shall provide a user experienced data rate that is less than the specified bit rate. The system shall manage message sizes, ensuring they do not exceed the specified maximum size in bytes.
+The system shall adhere to the target transfer interval and ensure the survival time of the communication service meets the specified requirements. It shall support a specified number of user equipment (UE) devices within a stationary service area, with a connection density that does not exceed the specified values.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;D.5.0 	General&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.176201085926757</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['', 'Intelligent Transport Systems (ITS) embrace a wide variety of communications-related applications that are intended to increase travel safety, minimize environmental impact, improve traffic management, and maximize the benefits of transportation to both commercial users and the general public. Over recent years, the emphasis in intelligent vehicle research has turned to co-operative systems, in which the traffic participants (vehicles, bicycles, pedestrians, etc.) communicate with each other and/or with the infrastructure.', '', 'Cooperative ITS is the term used to describe technology that allows vehicles to become connected to each other, and to the infrastructure and other parts of the transport network. In addition to what drivers can immediately see around them, and what vehicle sensors can detect, all parts of the transport system will increasingly be able to share information to improve decision making. Thus, this technology can improve road safety through avoiding collisions, but also assist in reducing congestion and improving traffic flows, and reduce environmental impacts. Once the basic technology is in place as a platform, an array of applications can be developed.', '', 'Cooperative ITS can greatly increase the quality and reliability of information available about vehicles, their location and the road environment. In the future, cars will know the location of road works and the switching phases of traffic lights ahead, and they will be able to react accordingly. This will make for safer and more convenient travel and faster arrival at the destination. &lt;span style="color:000000"&gt;On-board driver assistance, coupled with two-way communication between vehicles and between vehicles and road infrastructure, can help drivers to better control their vehicle and hence have positive effects in terms of safety and traffic efficiency. An important role in this plays the so-called road side units (RSUs). Vehicles can also function as sensors reporting weather and road conditions including incidents. In this way, cars can be used as information sources for high-quality information services.&lt;/span&gt;', '', 'RSUs are connected to the traffic control centre for management and control purposes. They broadcast, e.g., traffic light information (RSU &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; vehicle) and traffic information from the traffic-control centre (TCC) via the RSU to the vehicles (TCC &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; RSU &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; vehicle). RSUs also collect vehicle probe data for the traffic control centre (vehicle &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; RSU &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; TCC). For reliable distribution of data, low-latency and high-capacity connections between RSUs (e.g. traffic lights, traffic signs, etc.) and the TCC are required. This type of application comes with rather tight end-to-end latency requirements for the communication service between RSU and TCC (10 ms), since relayed data needs to be processed in the TCC and, if needed, the results are forwarded to neighbouring RSUs. Also, the availability of the communication service has to be very high (99,9999%) in order to compete with existing wired technology and in order to justify the costly deployment and maintenance of RSUs. Furthermore, due to considerably large aggregation areas (see clause D.5.1), considerable amounts of data need to be backhauled to the TCC (up to 10 Mbit/s per RSU).', '']</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall provide Intelligent Transport Systems (ITS) that enhance travel safety, minimize environmental impact, improve traffic management, and maximize transportation benefits for both commercial users and the general public.
+The system shall implement cooperative ITS technology, enabling vehicles, bicycles, and pedestrians to communicate with each other and with the infrastructure, thereby improving decision-making processes on the road.
+The system shall ensure that on-board driver assistance is coupled with two-way communication between vehicles and between vehicles and road infrastructure to enhance vehicle control, safety, and traffic efficiency.
+The system shall deploy Road Side Units (RSUs) that are connected to the Traffic Control Centre (TCC) for management and control purposes, broadcasting traffic light information and traffic information to vehicles.
+The system shall guarantee low-latency and high-capacity connections between RSUs and the TCC for reliable data distribution, with an end-to-end latency requirement of 10 ms and an availability of 99.9999%.
+The system shall handle the backhaul of considerable amounts of data (up to 10 Mbit/s per RSU) to the TCC, considering the large aggregation areas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;A.2.4.2	Augmented reality&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1933840770985852</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['', 'It is envisioned that in future smart factories and production facilities, people will continue to play an important and substantial role. However, due to the envisaged high flexibility and versatility of the Factories of the Future, shop floor workers should be optimally supported in getting quickly prepared for new tasks and activities and in ensuring smooth operations in an efficient and ergonomic manner. To this end, augmented reality may play a crucial role, for example for the following applications:', '', '-\tmonitoring of processes and production flows;', '', '-\tstep-by-step instructions for specific tasks, for example in manual assembly workplaces;', '', '-\tad hoc support from a remote expert, for example for maintenance or service tasks.', '', 'In this respect, especially head-mounted augmented-reality devices with see-through display are very attractive since they allow for a maximum degree of ergonomics, flexibility and mobility and leave the hands of workers free for other tasks. However, if such augmented-reality devices are worn for a longer period (e.g., one work shift), these devices have to be lightweight and highly energy-efficient while at the same time they should not become very warm. A very promising approach is to offload complex (e.g., video) processing tasks to the network (e.g., an edge cloud) and to reduce the augmented-reality head-mounted device’s functionality. This has the additional benefit that the augmented-reality application may have easy access to different context information (e.g., information about the environment, production machinery, the current link state, etc.) if executed in the network. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;2.4.2-1: Service performance requirements for augmented reality in human-machine interfaces', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'UE ', 'speed', '', 'Service area (note)', '', '1', '', '&amp;gt; 99.9', '', '~ 1 month', '', '&amp;lt; 10 ms', '', '&amp;lt; 8 km/h', '', '20 m x 20 m x 4\xa0m', '', 'NOTE:\tLength x width x height.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Bi-directional message transmission between an augmented-reality device and an image processing server.', '']</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall support bi-directional message transmission between an augmented-reality device and an image processing server with a communication service availability target value of greater than 99.9%, a mean time between failures of less than 1 month, and an end-to-end latency of less than 10 milliseconds. Additionally, the system shall ensure that the augmented reality device operates within a service area of 20 meters by 20 meters with a height of 4 meters, while maintaining a user speed of less than 8 kilometers per hour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.22.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1501339373021877</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['', 'Mobile metaverse services allow people to enjoy an online digital concert with their avatars beyond the limitation of time and space. In order to provide immersive interactive location agnostic service experience to mobile metaverse service customers, large amount of computing resouces is needed to perform real-time processing for audio, video, and interactive data, etc. The thing to realise here is that different customers will use terminals e.g. XR glasess with different brands and different processing capabilities, some of the glasses will not have enough computing resources to perform the real-time rendering. Through split rendering, most of the computing work task can offload to the network, the high speed and low latency transmission provided by 5G system can cooperate with the edge cloud side for real-time rendering, and combine with the local optimized rendering of the XR terminal side to provide the immersive and unbounded XR experience. In addition to this, similar to the real world, people are more likely to watch a concert together with their friends, further, the mobile metaverse live concert service is also provides private boxs for group of avatars to enjoy the concert privately, and different types of social authority can be provided in the private box on demand.', '']</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall provide immersive interactive location-agnostic service experiences for mobile metaverse service customers by performing real-time processing for audio, video, and interactive data. It shall accommodate terminals with varying brands and processing capabilities, including those with limited computing resources. The system shall implement split rendering to offload most computing tasks to the network, leveraging the high-speed and low-latency transmission capabilities of 5G systems in cooperation with edge cloud services. This approach shall ensure seamless and optimized real-time rendering for an unbounded XR experience. Additionally, the system shall offer private boxes for groups of avatars to enjoy concerts privately, with the capability to provide different types of social authority on demand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>&lt;h1&gt;4	Overview&lt;/h1&gt;</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1598235305451882</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['', 'Mobile metaverse services are discussed in this technical report both in the abstract and concrete. Specific services mentioned in the TR include:', '', '-\tSituational awareness for drivers, pedestrians, cyclists, to increase safety and efficiency of transport (see 5.2).', '', '-\tXR enabled collaborative and concurrent engineering, to enable local and remote collaboration (see 5.3).', '', '-\tParticipatory in and passive observation of virtual reality events, e.g. basketball (see 5.6).', '', '-\tPresentation of AR content, e.g. a feature length movie, on a virtual screen (see 5.7).', '', '-\tRemote critical health care, including surgery and treatment (see 5.10).', '', 'The study also considers a number of use cases that feature new service enablers, including:', '', '-\tProviding users with information and services that are of local relevance (see 5.1).', '', '-\tEnhancements to IMS to support multiple users and multi-modal XR communication (see 5.3).', '', '-\tSupport for spatial anchors to link service information to specific locations (see 5.4).', '', '-\tSupport for spatial localization and mapping services, and enablers for them in the 5GS (see 5.5).', '', '-\tSupport for multi-service coordination for different input and output devices and diverse services (see 5.8).', '', '-\tSupport for synchronization of different data streams and predicted network conditions (especially latency) to enable immersive remote collaboration despite significant distance and therefore communication delay between participants (see 5.9).', '']</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall provide situational awareness for drivers, pedestrians, and cyclists to enhance the safety and efficiency of transportation.
+The system shall enable XR-enabled collaborative and concurrent engineering for both local and remote teamwork.
+The system shall allow participatory involvement and passive observation of virtual reality events, such as basketball games.
+The system shall facilitate the presentation of AR content, including feature-length movies, on virtual screens.
+The system shall support remote critical healthcare services, encompassing surgery and treatment.
+The system shall provide users with locally relevant information and services.
+The system shall enhance IMS to accommodate multiple users and multi-modal XR communication.
+The system shall support spatial anchors to associate service information with specific geographic locations.
+The system shall offer support for spatial localization and mapping services, along with enablers for these services in the 5G era.
+The system shall provide multi-service coordination for various input and output devices and a range of services.
+The system shall ensure synchronization of different data streams and predict network conditions, particularly latency, to enable immersive remote collaboration over long distances.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.1.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>22261-j30.docx</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1607669733586694</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['', 'Network slicing allows the operator to provide customised networks. For example, there can be different requirements on functionality (e.g. priority, charging, policy control, security, and mobility), differences in performance requirements (e.g. latency, mobility, availability, reliability and data rates), or they can serve only specific users (e.g. MPS users, Public Safety users, corporate customers, roamers, or hosting an MVNO).', '', 'A network slice can provide the functionality of a complete network, including radio access network functions, core network functions (e.g. potentially from different vendors) and IMS functions. One network can support one or several network slices.', '']</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall provide customizable network slices to cater to diverse requirements and user segments, including but not limited to priority charging policy control, security, mobility, and specific functionalities for MPS users, Public Safety users, corporate customers, roamers, or hosting an MVNO. It shall support the integration of radio access network functions, core network functions potentially from different vendors, and IMS functions within each network slice. Furthermore, the system shall enable the support of one or several network slices within a single network infrastructure, ensuring flexibility and scalability in service provision.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;A.4.2	Primary frequency control&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1613772770999106</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>['', 'Primary frequency control is among the most challenging and demanding control applications in the utility sector. A primary frequency control system is responsible for controlling the energy supply injected and withheld to ensure that the frequency is not deviating more than 0.02\xa0% from the nominal value (e.g., 50 Hz in Europe). Frequency control is based on having sensors for measuring the features in all parts of the network at all points where energy generation or storage units are connected to the grid. At these points, electronic power converters, also known as inverters, are equipped with communication units to send measurement values to other points in the grid such as a frequency control unit, or receive control commands to inject more, or less, energy into the local network. ', '', 'With the widespread deployment of local generation units, i.e. solar power units, or wind turbines, hundreds of thousands of such units, and their inverters, may have to be connected in a larger power distribution network. ', '', 'Primary frequency control is carried out in one of three ways: ', '', '1)\tCentralised control, all data analysis and corrective actions are determined by a central frequency control unit.', '', '2)\tDecentralised control, the automatic routine frequency control is performed by the individual local inverter based on local frequency values. Statistics and other information is communicated to the central frequency control unit. ', '', '3)\tDistributed control, the automatic routine frequency control is performed by the individual local inverter based on local and neighbouring frequency values. Statistics and other information are communicated to the central frequency control unit. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;4.2-1: Service performance requirements for primary frequency control', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', '# of UEs', '', 'Service area', '', '1', '', '99.999', '', 'TBD', '', '~ 50 ms ', '', '~ 100', '', '~ 50 ms', '', 'TBD', '', '≤\xa0100,000', '', 'several km&lt;sup&gt;2&lt;/sup&gt; up to 100,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication service supporting message exchange for primary frequency control.', '']</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall ensure primary frequency control with a service performance requirement of 99.999% availability. The communication service end-to-end latency shall not exceed approximately 50 milliseconds, and the message size shall be around 100 bytes. The transfer interval target value shall be determined based on the specific use case requirements. The system shall support periodic communication service for message exchange among several thousand units (≤100,000 UEs) within a service area ranging from several square kilometers up to 100,000 square kilometers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;12.14.2.5	Potential requirements and gap analysis&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>22989-j30.docx</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1554249035588534</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['', 'Reference Number', '', 'Requirement text', '', 'Application / Transport', '', 'SA1 spec covering', '', 'Comments', '', '[R-12.14.2-001]', '', 'The consolidated positioning information i.e. the location information resulting from the combination of all positioning sources available to the FRMCS System shall support following absolute positioning accuracy based on the train speed at &amp;gt;= 90% of the occasions:', '', '0 - 40km/h\t\tLongitudinal: ≤1 m\tlateral: 1 - 3 m', '', 'Up to 120km/h\t\tLongitudinal: ≤34m\tlateral: 1 - 3 m', '', 'Up to 160km/h\t\tLongitudinal: ≤45m\tlateral: 1 - 3 m', '', 'Up to 320km/h\t\tLongitudinal: ≤89m\tlateral: 1 - 3 m', '', 'Up to 500km/h\t\tLongitudinal: ≤200m \tlateral: 1 - 3 m', '', 'See [9]', '', 'A/T', '', 'TS 22.261', '', 'TS 22.261 sub-clause 6.27.2', '', 'TS 22.261 sub-clause 7.3.2 – refer to positioning service level 3 (only one speed limit supported – up to 500 km/h – with horizontal accuracy of 1m)', '', '', '', 'TS 22.278 does not consider this requirement. ', '', '[R-12.14.2-002]', '', 'FRMCS System shall be able to support an initial positioning fix time of ≤5s.', '', 'A/T', '', 'TS 22.261', '', 'TS 22.261 sub-clause 7.3.2', '', '', '', 'TS 22.278 does not consider this requirement. ', '', '[R-12.14.2-003]', '', 'To avoid large offsets between adjacent hazard areas due to limited track space in a railway station, FRMCS System shall be able to support a sampling interval between two positioning cycles of &amp;lt;1s.', '', 'A/T', '', 'Not covered', '', 'TS 22.261', '', 'TS 22.261 sub-clause 7.3.2 (Positioning service latency = 1 s)', '', '', '', 'TS 22.278 does not consider this requirement. ', '', '[R-12.14.2-004]', '', 'FRMCS Equipment power consumption due to the use of positioning capabilities shall be minimised.', '', 'A/T', '', 'TS 22.261', '', 'TS 22.261 sub-clause 6.27.2 and 7.3.2.3 (location power saving mode with restriction in update rate)', '', '', '', 'TS 22.278 does not consider this requirement. ', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall support consolidated positioning information with absolute positioning accuracy based on train speed, ensuring longitudinal and lateral distances are within specified limits for various speed categories. Additionally, the system shall provide an initial positioning fix time of less than or equal to 5 seconds, and minimize FRMCS equipment power consumption when utilizing positioning capabilities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;12.20.6	Potential requirements and gap analysis&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>22989-j30.docx</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1554744507878271</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>['', 'Reference Number', '', 'Requirement text', '', 'Application / Transport', '', 'SA1 spec covering', '', 'Comments', '', '[R-12.20.6-001]', '', 'Multiple FRMCS Users in the vehicle/train shall be able to use one FRMCS Equipment simultaneously.', '', 'A/T', '', 'TS 22.280', '', 'TS 22.280 sub-clause 5.15', '', '5.15-001 ', '', '[R-12.20.6-002]', '', 'The service capabilities of an FRMCS Equipment shall be attributable individually to multiple FRMCS Users.', '', 'A/T', '', 'TS 22.280', '', 'TS 22.280 [R-5.15-002] &amp;amp; [R-5.15-003] ', '', '[R-12.20.6-003]', '', 'When an FRMCS Equipment is simultaneously used by multiple FRMCS Users, the communication for each of the FRMCS Users shall receive its required priority and QoS (latency and reliability) within the FRMCS System.', '', 'T', '', 'TS 22.280', '', 'TS 22.280 [R-5.15-003] [', '', '[R-12.20.6-004]', '', 'When an FRMCS Equipment is simultaneously used by multiple FRMCS Users, each of the FRMCS Users shall be individually addressable.', '', 'A', '', 'TS 22.280', '', 'TS 22.280 [R-5.15-002] ', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall allow multiple FRMCS users in a vehicle or train to utilize a single FRMCS equipment simultaneously.
+The system shall attribute the service capabilities of an FRMCS equipment individually to multiple FRMCS users.
+The system shall ensure that when an FRMCS equipment is used simultaneously by multiple FRMCS users, each user's communication receives the required priority and Quality of Service (QoS), including latency and reliability, within the FRMCS system.
+The system shall make each of the FRMCS users individually addressable when the FRMCS equipment is simultaneously used by multiple users.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.8.1		Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>22843-j00.docx</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1504122175801706</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>['', 'Reliability of UAV traffic is a very important challenge and target for the aviation industry, e.g., for command and control (C2) or other critical data. One scenario of interest includes UAVs, provided with dual SIM/subscription, able to connect simultaneously via two networks for transferring different type of traffic, e.g., using the most reliable network for C2 or other critical data, while other type of traffic is transmitted over the second network. ', '', 'As an example, let us assume the case of a UAV company (“SafeSky”) that offers monitoring and surveillance services for specific venues (e.g., stadiums) or public events. Their drones are 5G-capable and configurable with dual subscription, one for nationwide PLMN connectivity (with MNO-A), one for ad-hoc UAV coverage using networks deployed in specific public safety venues/locations (can be a PLMN or NPN, managed by MNO-A or other MNO).', '', 'In such scenario, when there is available coverage from both NWs, SafeSky can configure their UAVs to transfer C2 traffic with a local UAV-Controller (UAV-C) via the ad-hoc PLMN1/NPN (most suitable for low volume/data rate, but very stringent real-time latency and reliability), while less critical user data is exchanged with the UAV Supplier Service (USS) and UTM via the wide-area PLMN2 coverage. This is illustrated, at high level, in Figure 5.8.1-1, where PLMN1/NPN is the local NW and PLMN2 is the wide area network.', '', '----media/image9.png----', '', 'Figure 5.8.1-1: Example of separating UAV traffic over two PLMNs', '', 'In other examples, different traffic differentiation configurations are possible (in a similar venue scenario), e.g., UAVs may transfer real-time critical payload traffic (e.g., streaming a 4K video of a sport event) with a local endpoint via the ad-hoc PLMN1/NPN, while C2 and UAV monitoring data via the wide-area PLMN2 network.', '']</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall support the reliable transfer of UAV traffic over dual subscriptions, utilizing two distinct networks to prioritize and manage different types of data traffic. Specifically, the system shall:
+1. Enable UAVs to connect simultaneously to two separate networks, one for nationwide coverage (e.g., PLMN1/NPN) and another for ad-hoc UAV coverage in specific venues (e.g., PLMN2).
+2. Prioritize critical command and control (C2) traffic by transferring it over the most stringent real-time latency and reliability network (e.g., PLMN1/NPN) to ensure uninterrupted and secure communication between the UAV and its local controller (UAV-C).
+3. Allow for the exchange of less critical user data, such as monitoring and surveillance information, with the UAV Supplier Service (USS) and Unmanned Traffic Management (UTM) systems over the wider area network (PLMN2) to facilitate broader data sharing and management.
+4. Provide configurability for UAVs to dynamically switch between the two networks based on the type of traffic being transmitted, ensuring optimal network utilization and enhanced overall system reliability.
+5. Illustrate and support the separation of UAV traffic over two different networks in a high-level scenario, as depicted in Figure 5.8.1-1, to demonstrate the practical application and benefits of this dual-network configuration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;A.6.3	Robotic Aided Diagnosis&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1838350968131492</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>['', 'Robotic aided diagnosis involves a remote expert in a large central hospital who controls a diagnosis robotic system deployed in a local medical facility. Such robotic systems can be e.g.:', '', '-\tHaptic feedback tool used for palpating and deployed in e.g. a Mobile Specialist Practise facility', '', '-\tUltrasound probe deployed in an ambulance or a medical facility ', '', '&lt;span style="color:000000"&gt;A typical robotic setup for tele diagnosis can be depicted as follows:&lt;/span&gt;', '', '----media/image13.png----', '', 'Figure A.6.3-1: Typical Robotic Surgery System Setup', '', 'Specialists and patients are far from each other (typically dozens of kilometres) and can exchange data through communication services delivered by PLMNs. The depicted medical application can be instantiated at either side or in the Cloud. Its role consists in: ', '', '--\tGenerating appropriate haptic feedback based on instrument location, velocity, effort measurements data and images issued by instruments.', '', '--\tFiltering motion control commands for better closed loop stability', '', '', '', '', '', 'Table A.6.3-1: Service performance requirements for motion control and haptic feedback', '', 'Use case # ', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: Mean Time Between Failure', '', 'End-to-end latency: maximum', '', 'Bit rate', '', 'Direction', '', 'Message', '', 'Size', '', '[byte]', '', 'Transfer Interval', '', 'Survival time', '', 'UE speed', '', '# of active UEs', '', 'Service Area', '', '1', '', '&amp;gt;\xa099.999', '', '&lt;span style="color:000000"&gt;&amp;gt;&amp;gt; 1 month (&amp;lt; 1 year)&lt;/span&gt;', '', '&amp;lt;\xa020 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', 'network to UE; UE to network', '', '~80', '', '&amp;lt;\xa020\xa0ms per 100\xa0km&lt;sup&gt;2&lt;/sup&gt; ', '', 'transfer interval', '', 'stationary', '', '&amp;lt; 20 per 100\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', 'regional', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication for the support of precise cooperative robotic motion control and haptic feedback in case of robotic aided diagnosis where the expert and the patient are not collocated and communicate with each other through a connection established over a PLMN.', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall generate appropriate haptic feedback based on instrument location, velocity, effort measurements data, and images issued by instruments. Additionally, the system is required to filter motion control commands to enhance closed loop stability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.2.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1570955369287644</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>['', 'Smart transport is a very important area for 5G system as well as an important mobile metaverse service. To reduce traffic jam and minimize traffic accident, 5G, including cellular based V2X technologies becomes more and more essential. The 5G system can be utilized to support real-time information &amp;amp; data delivery for the traffic participants including pedestrians, bicycle riders, and vehicles with or without autonomous driving mode. As shown in Figure 5.2.1-1, the physical objects including road infrastructure and vehicles including cars and trucks in each lanes, will have a corresponding digital twin in the virtual world, and the virtual and physical objects form the mobile metaverse. In this use case, there are virtual objects which actually represent the physical objects including vehicle, road and also pedestrians. This is the basis to enable smart transport applications like traffic flow simulation and situational awareness.', '', '----Image alt text----&gt;公路上的汽车', '', '描述已自动生成&lt;----media/image5.png----', '', 'Figure 5.2.1-1 Example of Smart Transport Metaverse', '', 'With the support of 5GS, real-time information and data about the physical objects can be delivered and the virtual objects of the road infrastructure and traffic participants including vulnerable road users can form a smart transport mobile metaverse service as shown in Figure 5.2.1-2. Then real-time processing&amp;amp; computing can be conducted to support traffic simulation, situational awareness, and real time path guidance. Real-time safety or security alerts can be generated for vehicles as well as the driver and passengers.', '', '----media/image6.png----', '', 'Figure 5.2.1-2 Scenario of 5G-enabled Traffic Flow Simulation and Situational Awareness', '', 'In order to support traffic flow simulation and situational awareness service, the 5G network need to provide low latency, high data rate and high reliability transmission, handover procedures that minimize service disruptions, and in addition, the 5G network may also need to be further enhanced to meet the service requirements for 5G-enabled traffic flow simulation and situation awareness. Meanwhile, in addition to the physical objects which may use UEs for telecommunication services, their corresponding virtual objects are also capable of interacting with each other and also interact with physical objects via 5GS.', '', 'This use case employs terminology defined in Table 5.2.1-1.', '', 'Table 5.2.1-1: Traffic Flow Simulation and Situational Awareness Terminology', '', 'Situational Awareness', '', 'The ability to know and understand what is going on in the surroundings, e.g. the perception of environmental elements and events', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall provide low latency, high data rate, and high reliability transmission capabilities to support real-time information and data delivery for traffic participants, including pedestrians, bicycle riders, and vehicles with or without autonomous driving mode.
+The system shall enable the creation of corresponding digital twins for physical objects such as vehicles and road infrastructure in the virtual world, forming a smart transport mobile metaverse service.
+The system shall support real-time processing and computing to facilitate traffic flow simulation, situational awareness, and real-time path guidance.
+The system shall generate real-time safety or security alerts for vehicles and their drivers and passengers.
+The system shall ensure seamless handover procedures to minimize service disruptions during 5G network usage.
+The system shall be capable of enhancing the 5G network to meet the specific service requirements for traffic flow simulation and situational awareness.
+The system shall allow virtual objects to interact with each other and with physical objects via 5G technology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;7.3	Performance &lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>22890-j00.docx</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1698623739410946</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>['', 'Table 7.3-1: KPIs for Railway Smart Station Services', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Scenario&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(Note 5)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;End-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(Note 1)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;UE speed&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;UE Relative&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Speed&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;User experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Payload&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(Note 2)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Area traffic density&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Overall UE density&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service area dimension', '(Note 3)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Multiple trains\' stops at the same platform (Korea, urban railway)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤10 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9999%&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;≤100\xa0km/h&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤50km/h&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤1Mb/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Small to large&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 1 Mb/s/km&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 5 (100m)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 15 km&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;along rail tracks including bad weather conditions&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(Note 4)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;NOTE 1:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Reliability as defined in TS 22.289 sub-clause 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Small: payload ≤ 256 octets, Medium: payload ≤512 octets; Large: payload 513 -1500 octets.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 3:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Estimates of maximum dimensions.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 4:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Non-Line-of-Sight (NLOS) between UEs shall be supported&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 5:    Off-network traffic characteristics are not addressed in this table since it can be covered by TR22.990.&lt;/span&gt;', '', 'Note:\tThis table is intended to be included in clause 6.2 of TS 22.289 [9].', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall ensure end-to-end latency is maintained at ≤10 ms, achieve a reliability of 99.9999%, support user equipment (UE) speeds of ≤100 km/h, and maintain a user experienced data rate of ≤1 Mb/s. Additionally, the system shall accommodate varying payload sizes as defined by small (≤256 octets), medium (≤512 octets), and large (513 - 1500 octets) categories. It shall also consider service area dimensions, including maximum estimates and support for non-line-of-sight (NLOS) conditions between UEs. Furthermore, the system shall account for area traffic density and overall UE density, ensuring performance along rail tracks even under bad weather conditions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.9.3	Service Flows&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.1629682496785526</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>['', 'The following service flows need to be provided for each of the users:', '', '1.\tEach of the users, e.g., Bob, decide to join the immersive mobile metaverse service activity and give consent to the deployment of their avatars.', '', '2.\tSensors at each user sample the current representation of each of the users where sampling is done as required by the sensing modalities. The sampled representation of each of the users is distributed to the metaverse edge computing servers of the other users in the metaverse activity.', '', '3. \tEach of the edge computing servers applies the incoming data stream representing each of the far located users to the corresponding digital representation (e.g. avatar) predictive models – taking into account the current communication parameters/performance, e.g., latency – to create a combined, synchronized, and current digital representation of the remote users that is provided as input to rendering devices in the local environment.', '', 'The service flows for the other users (i.e., Yong in China and Lukas in Germany) are the mirrored equivalent. For instance, even if not shown in Figure 5.9.1-1, the local edge computing server associated to Lukas will run the digital representation (e.g. avatar) predictive models of Yong and Bob and consume the data streams coming from those users. ', '']</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall:
+1. Enable each user, such as Bob, to autonomously decide to participate in the immersive mobile metaverse service and provide explicit consent for the deployment of their avatars.
+2. Facilitate the collection of user data by sensors at each user's location, ensuring that the sampling of user representations aligns with the specific requirements of the sensing modalities. This data should be efficiently distributed to the metaverse edge computing servers associated with other users actively engaged in the metaverse activity.
+3. Ensure that each edge computing server processes the incoming data streams from remote users, applying the respective digital representation predictive models (e.g., avatars) while considering the current communication parameters and performance metrics, such as latency. This processing should result in a synchronized and up-to-date digital representation of the remote users, which is then delivered to the rendering devices within the local environment.
+4. Guarantee that the service flows for all users, including Yong in China and Lukas in Germany, are functionally equivalent and mirrored. This means that the local edge computing server associated with any given user will execute the predictive models for the digital representations of all other users in the metaverse activity, regardless of geographical location, and will utilize the data streams from these users for processing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.25.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.1593037906372267</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>['', 'The metaverse enables immersive virtual media, 3D avatar and holographic communications for realizing use cases such as interactive gaming, virtualized shared workspaces, and immersive conference rooms for remote collaboration, etc. The goal is to create a virtual world we can work in, interact with, and even escape to. Many mobile metaverse use cases are applicable to indoor and/or localized areas such as home, offices, stadiums, shopping malls, movie theatres, theme parks, hospitals, universities, concert halls, etc. Even though metaverse services go beyond virtual reality media presenting virtual worlds that seem to be distant, the scenarios that this use case focusses on are tied to a single physical location which is mostly indoors and serving a localized area. Such physical locations may prefer non-3GPP (trusted, untrusted or wireline) access. ', '', 'Some mobile metaverse services require more bandwidth and lower latencies which can be challenging to meet. Major improvements to satisfy these requirements of uninterrupted, lag-free, immersive mobile metaverse service experience using non-3GPP access have been made such as:', '', '-\tincorporation of 1200 MHz of new spectrum in the 6 GHz band with Wi-Fi 6E enabling bigger channel sizes up to 160 MHz', '', '-\tsupport up to 1024 QAM with Wi-Fi 6 and 6E and Wi-Fi 7 aiming to support up to 4096 QAM', '', '-\tdoubling maximum channel bandwidth available to each device to 320MHz in the 6GHz band with Wi-Fi 7', '', '-\tincorporation of High Band Simultaneous (HBS) Multi-Link Operation (MLO) in 802.11be that aggregates two simultaneous 160 MHz channels (four streams) in 5 GHz and 6 GHz bands reducing latency to &amp;lt; 2msec', '', 'In case of converged or hybrid network architecture, a single mobile metaverse user can access mobile metaverse services via 5GS using both 3GPP and non-3GPP accesses simultaneously. In such scenario, the metaverse traffic would need to be synchronized as it may be subject to varying latencies when routed over both 3GPP and non-3GPP access. Alternatively, a single mobile metaverse service can be accessed by multiple users across multiple access networks from a network operator.', '']</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall incorporate 1200 MHz of new spectrum in the 6 GHz band with Wi-Fi 6E to enable larger channel sizes up to 160 MHz, thereby supporting enhanced mobile metaverse services that require increased bandwidth and lower latencies.
+The system shall support up to 1024 QAM with Wi-Fi 6 and 6E and Wi-Fi 7, aiming to facilitate higher data rates and improved performance for immersive mobile metaverse experiences.
+The system shall double the maximum channel bandwidth available to each device to 320 MHz in the 6 GHz band with Wi-Fi 7, ensuring robust connectivity and data throughput for demanding metaverse applications.
+The system shall integrate High Band Simultaneous (HBS) Multi-Link Operation (MLO) in 802.11be, aggregating two simultaneous 160 MHz channels (four streams) in both 5 GHz and 6 GHz bands, to reduce latency to less than 2 milliseconds, thereby enhancing real-time metaverse interactions.
+In a converged or hybrid network architecture, the system shall enable a single mobile metaverse user to access services via 5G using both 3GPP and non-3GPP accesses simultaneously, with the capability to synchronize metaverse traffic to accommodate varying latencies across different access networks.
+Alternatively, the system shall allow a single mobile metaverse service to be accessed by multiple users across multiple access networks from a network operator, ensuring seamless and efficient metaverse service delivery.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;A.6.1	Overview&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>22104-j00.docx</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.1939857850124849</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>['', 'The traditional value chain for the medical device industry, which historically has been driven by innovation and research and development, is currently witnessing a shift in the landscape. As governments and health insurers worldwide implement measures to control costs, public hospitals are operating on tighter budgets, while private facilities are receiving lower reimbursements. In the developed world, decisions that used to be the sole preserve of doctors are now also made by regulators, hospital administrators, and other non-clinicians. This broader set of influencers comes with different objectives, e.g. the prioritization of cost effectiveness or even just costs. ', '', 'This shift in focus from volume-based healthcare to value-based healthcare has led medical devices companies to move to business models based on providing clinical value with cost efficiency.', '', 'Technological progress and better infrastructures, in particular high-quality wireless networks, have fed this business model transformation, allowing coordinated therapies, services, and health analytics and enabling efficient outcome measurement solutions. ', '', 'On this matter, 5G enables shifting care location from hospitals to homes and others lower cost facilities which mechanically translates into more savings. Additionally, another example showing that 5G can enable cost savings required by the medical industry can be found inside hospitals where wireless transmission of low latency data streams improves operating room planning, enable streamlining equipment usage and simplifies operating theater implementation.', '']</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall facilitate the transition of medical device companies to value-based healthcare business models by providing clinical value with cost efficiency. It shall leverage technological advancements, including high-quality wireless networks, to enable coordinated therapies, services, health analytics, and efficient outcome measurement solutions. The system shall support the shift from volume-based to value-based healthcare, ensuring that decisions are made considering cost-effectiveness and overall costs. Additionally, the system shall utilize 5G technology to enable the relocation of care from high-cost hospital settings to more affordable home and community-based facilities, resulting in significant cost savings. Furthermore, the system shall enhance hospital operations by using 5G for low latency data transmission, which will improve operating room planning, streamline equipment usage, and simplify the implementation of operating theaters.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.23.2	Pre-conditions&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.1740668523939153</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>['', 'There are about 12,000 players sign up for a popular game and appear simultaneously in a specific setting, such as Eve Online in 2021. Due to the limitations of the existing server processing, it is not possible to support such a large number of high concurrency, so the network and application server need to cooperate to support the distribution of visitors to other servers while ensuring low latency requirement by XR applications.', '']</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall cooperate with the network and application server to distribute visitors across multiple servers efficiently. It shall ensure low latency requirements are met for XR applications, despite the high concurrency of approximately 12,000 players simultaneously engaging in the game setting, such as Eve Online in 2021.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.19.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>22856-j00.docx</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.1678743688964306</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>['', 'With the proliferation of APIs in existing mobile applications already creating an extensive market for application exposure, API integration in emerging Metaverse applications and features is likely to emerge as a major functionality for enhancing experiences across extended reality functions that builds upon already-existing API development. Given the importance of consistent, reliable network access and the low-latency connections necessary to generate and maintain immersive experiences in Metaverse immersive experiences, one could reasonably expect the development of APIs supporting network exposure for configuring and optimizing network features for a diverse array of emerging functions in extended reality interactions. As 5G begins to support VR, AR, and MR interactions through the cellular network, questions surrounding the efficiency and trustworthiness of network exposure to application developers abound. ', '', 'In particular, the exposure of network characteristics through and the development of network-focused applications raises important questions around the privacy of user data with respect to the use of sensitive data around their internet usage, which could potentially reveal personally identifiable information about their location, environment, behaviour, or specific activities through such exposure. This concern extends beyond industry best practices and into emerging requirements from regulations such as the GDPR [52], CCPA [53], and other emerging national and international privacy regulation frameworks which specify the right of individuals to privacy across the lifecycle of data that could reveal personally identifiable information across a broad specification of contexts. It is thus incumbent on this body to proactively standardize the privacy features of the emerging 5GS in the context of APIs to ensure that such network exposure in application contexts does not expose providers or users to undue risks or liability. ', '']</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall proactively standardize privacy features for emerging 5G APIs in the context of application exposure to ensure protection against undue risks or liability for providers and users.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.1.5.2	Requirements&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>22281.docx</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.157742595808085</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>['', '[R-5.1.5.2-001] A robot may be equipped with an MCVideo UE and provide functions of an MCVideo UE, such as remote control of video parameters.', '', '[R-5.1.5.2-002] The MCVideo service shall provide a mechanism to control the video settings of a robot.', '', '[R-5.1.5.2-003] The MCVideo service shall support aerial unmanned vehicles at an altitude of up to 150 meter above the floor.', '', '[R-5.1.5.2-004] The MCVideo service, in coordination with the MCData Service, shall be able to give different priorities to the communication for controlling the MCVideo UEs, the communication for controlling/driving the robot, the communication for controlling the video transmission from the robot and the video transmitted by the robot, depending also on who it is transmitted to (e.g. pilot, a dispatcher or a group).', '', '[R-5.1.5.2-005] The MCVideo service shall provide a minimum of four levels of latencies for controlling video:', '', '-\tWhen the MCVideo UE is in an aerial unmanned vehicle, during take-off and landing, the video control latency shall remain under 100\xa0ms.', '', '-\tWhen the MCVideo UE is in an aerial unmanned vehicle, while flying, the video control latency shall remain under 300\xa0ms.', '', '-\tWhen the MCVideo UE is in an aquatic or submarine unmanned vehicle, the video control latency shall remain under 500\xa0ms.', '', '-\tWhen the MCVideo UE is in a terrestrial unmanned vehicle moving at less than 120km/h, the video control latency shall remain under 400\xa0ms.', '', 'NOTE: \tAt this stage of the work, the latency is an end-to-end latency. The split between network latency and robot latency is left for stage 2.', '', '[R-5.1.5.2-006] The MCVideo service shall provide a latency of the video transmission less than 500\xa0ms when the video is used by the pilot.', '', '[R-5.1.5.2-007] Void.', '']</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall be equipped with an MCVideo UE to provide functions of an MCVideo UE, such as remote control of video parameters.
+The system shall provide an MCVideo service that offers a mechanism to control the video settings of a robot.
+The system shall support aerial unmanned vehicles at an altitude of up to 150 meters above the ground for video control.
+The system shall prioritize communication for controlling the MCVideo UE, robot control, and video transmission based on the context of use, such as pilot, dispatcher, or group.
+The system shall ensure a minimum of four levels of latencies for controlling video: under 100ms during aerial vehicle take-off and landing, under 300ms while flying, under 500ms in aquatic or submarine vehicles, and under 400ms for terrestrial vehicles moving at less than 120km/h.
+The system shall provide a video transmission latency of less than 500ms when the video is utilized by the pilot.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.2.2	Decentralized UAS traffic management&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>22125.docx</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.154902656285102</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>['', '[R-5.2.2-001] The 3GPP system shall enable a UAV to broadcast the following data for identifying UAV(s) in a short-range area for collision avoidance: e.g. UAV identities if needed based on different regulation requirements, UAV type, current location and time, flight route information, current speed, operating status.', '', '[R-5.2.2-002] The 3GPP system shall be able to support a UAV to transmit a message via network connection for identifying itself as an UAV to the other UAV(s).', '', '[R-5.2.2-003] The 3GPP system shall enable UAV to preserve the privacy of the owner of the UAV, UAV pilot, and the UAV operator in its broadcast of identity information.', '', '[R-5.2.2-004] The 3GPP system shall enable a UAV to receive local broadcast communication transport service from other UAV in short range.', '', '[R-5.2.2-005] A UAV shall be able to use a direct UAV to UAV local broadcast communication transport service in the coverage or out of coverage of a 3GPP network.', '', '[R-5.2.2-006] A UAV shall be able to use a direct UAV to UAV local broadcast communication transport service when the sending and receiving UAVs are served by the same or different PLMNs.', '', '[R-5.2.2-007] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service at relative speeds of up to 320kmph.', '', '[R-5.2.2-008] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service with variable message payloads of 50-1500 bytes, not including security-related message component(s).', '', '[R-5.2.2-009] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service which supports a range of up to 600m.', '', '[R-5.2.2-010] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service which can transmit messages at a frequency of at least 10 messages per second.', '', '[R-5.2.2-011] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service which can transmit messages with an end-to-end latency of at most 100ms.', '']</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall enable a UAV to broadcast identity information, including UAV identities, types, current location, time, flight route, current speed, and operating status, for collision avoidance in a short-range area.
+The system shall support a UAV's ability to transmit an identification message via network connection to other UAVs.
+The system shall ensure the privacy of UAV owners, pilots, and operators by preserving the confidentiality of broadcasted identity information.
+The system shall enable a UAV to receive local broadcast communication services from other UAVs within a short range.
+The system shall allow a UAV to use direct UAV-to-UAV local broadcast communication services, both within and outside the coverage of a 3GPP network.
+The system shall support direct UAV-to-UAV local broadcast communication services at high relative speeds, up to 320 km/h.
+The system shall support direct UAV-to-UAV local broadcast communication services with variable message payloads ranging from 50 to 1500 bytes, excluding security-related components.
+The system shall support direct UAV-to-UAV local broadcast communication services with a range of up to 600 meters.
+The system shall support direct UAV-to-UAV local broadcast communication services capable of transmitting messages at a minimum frequency of 10 messages per second.
+The system shall support direct UAV-to-UAV local broadcast communication services with an end-to-end latency of no more than 100 milliseconds.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.2.2	Decentralized UAS traffic management&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>22125[1].docx</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.154902656285102</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>['', '[R-5.2.2-001] The 3GPP system shall enable a UAV to broadcast the following data for identifying UAV(s) in a short-range area for collision avoidance: e.g. UAV identities if needed based on different regulation requirements, UAV type, current location and time, flight route information, current speed, operating status.', '', '[R-5.2.2-002] The 3GPP system shall be able to support a UAV to transmit a message via network connection for identifying itself as an UAV to the other UAV(s).', '', '[R-5.2.2-003] The 3GPP system shall enable UAV to preserve the privacy of the owner of the UAV, UAV pilot, and the UAV operator in its broadcast of identity information.', '', '[R-5.2.2-004] The 3GPP system shall enable a UAV to receive local broadcast communication transport service from other UAV in short range.', '', '[R-5.2.2-005] A UAV shall be able to use a direct UAV to UAV local broadcast communication transport service in the coverage or out of coverage of a 3GPP network.', '', '[R-5.2.2-006] A UAV shall be able to use a direct UAV to UAV local broadcast communication transport service when the sending and receiving UAVs are served by the same or different PLMNs.', '', '[R-5.2.2-007] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service at relative speeds of up to 320kmph.', '', '[R-5.2.2-008] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service with variable message payloads of 50-1500 bytes, not including security-related message component(s).', '', '[R-5.2.2-009] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service which supports a range of up to 600m.', '', '[R-5.2.2-010] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service which can transmit messages at a frequency of at least 10 messages per second.', '', '[R-5.2.2-011] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service which can transmit messages with an end-to-end latency of at most 100ms.', '']</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall enable a UAV to broadcast identity information, including UAV identities, types, current location, time, flight route, current speed, and operating status, for collision avoidance in a short-range area.
+The system shall support a UAV's ability to transmit an identification message via network connection to other UAVs.
+The system shall ensure the privacy of UAV owners, pilots, and operators by preserving the confidentiality of broadcasted identity information.
+The system shall enable a UAV to receive local broadcast communication services from other UAVs within a short range.
+The system shall allow a UAV to use direct UAV-to-UAV local broadcast communication services, both within and outside the coverage of a 3GPP network.
+The system shall support direct UAV-to-UAV local broadcast communication services at high relative speeds, up to 320 km/h.
+The system shall support direct UAV-to-UAV local broadcast communication services with variable message payloads ranging from 50 to 1500 bytes, excluding security-related components.
+The system shall support direct UAV-to-UAV local broadcast communication services with a range of up to 600 meters.
+The system shall support direct UAV-to-UAV local broadcast communication services capable of transmitting messages at a minimum frequency of 10 messages per second.
+The system shall support direct UAV-to-UAV local broadcast communication services with an end-to-end latency of no more than 100 milliseconds.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output_partially_covered_generated.xlsx
+++ b/output_partially_covered_generated.xlsx
@@ -446,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Content</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Distance</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">

--- a/output_partially_covered_generated.xlsx
+++ b/output_partially_covered_generated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,156 +463,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;4.4	Medical applications&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;5.23.3	Service Flows&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22263.docx</t>
+          <t>22856-j00.docx</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1711350301733845</v>
+        <v>0.1880145882722118</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['', '"Medical applications" is a generic concept covering medical devices and applications involved in the delivery of care to patients. ', '', 'Medical applications deployed into operating rooms consume communication services delivered by a 5G system over an NPN. In this document, we’ll deal with hybrid operating rooms which are rooms typically equipped with advanced imaging systems such as e.g. fixed C-arms (x-ray generator and intensifiers), CT scanners (Computer Tomography) and MR scanners (Magnetic Resonance). The whole idea is that advanced imaging enables minimally-invasive surgery that is intended to be less traumatic for the patient as it minimizes incisions and allows to perform surgery procedure through one or several small cuts. This is as an example useful for cardio-vascular surgery or neurosurgery to place deep brain stimulation electrodes. ', '', 'In hybrid rooms, the different type of medical images that can be transmitted by 5G systems and processed by medical applications are e.g.:', '', '-\tUltra-high-resolution video generated by endoscopes where it is expected that some scopes will produce up to 8K uncompressed (or compressed without quality loss) video, with the perspective to support also HDR (High Dynamic Range) for larger colour gamut management (up to 10 bits per channel) as well as HFR (High Frame Rate), i.e.; up to 120 fps. This will allow surgeons to distinguish small details like thin vessels and avoid any artefact that could potentially conduct surgeons to take wrong decisions. ', '', '-\t2D Ultrasound images: A 2D ultrasound typically produces a data stream of uncompressed images of 512x512 pixels with 32 bits per pixel at 20 fps (up to 60 fps in the fastest cases), resulting in a data rate of 160 Mbit/s up to 500 Mbit/s. ', '', '-\t3D Ultrasound volumes: Dedicated 3D probes tend to work at higher data rates, i.e. above 1 Gbit/s of raw data, and are expected to reach multi gigabit data rates in future (e.g. producing 3D Cartesian volumes of 256 x 256 x 256 voxels each encoded with 24 bits at 10 volumes per second or better). ', '', '-\tCT/MR scans: Images can range from a resolution of 1024x2024 to 3000x3000 pixels where higher resolutions are used for diagnosis purpose and lower ones are more suitable to fluoroscopy. In general, the frame rate is variable (5 to 30fps typically) where higher values are used to monitor moving organs in real time. Finally, colour depths of 16bits is considered in general.', '', 'In another deployment option, when specialists and patients are located at different places, medical applications can consume communication services delivered by PLMNs. In this case, the 5G system helps decoupling location from quality of care, and save countless hours for doctors and surgeons, who will be able to “beam” themselves to operating rooms, incident sites and medical houses, rather than having to be physically present. ', '', 'The same type of images as in hybrid rooms is assumed when considering a communication over a PLMN although with different tradeoffs on image resolution, end to end latency and compression algorithms. The key here is to allocate the necessary high priority resources fulfilling SLAs suitable to the transport of medical data (with special care taken on medical data integrity and confidentiality) over a geographical area covering the place where the care is delivered.', '', 'Finally, in all types of deployments, it shall also be noted that each equipment involved in image generation, processing and display shall be synchronized thanks to a common clock either external or provided by the 5G system. The synchronization is often achieved through dedicated protocols such as e.g. PTP version 2 and allows to e.g. guarantee correct recombination of two data streams in a single and accurate A/R image by the A/R application, or enable offline replay of the whole procedure.', '']</t>
+          <t>['', '1. Bob is a player who attends a popular AR interactive game and gathers with others in a shared environment, they are aware of each other’s action so that they need high synchronization.', '', '2. The service provider will provide deployment information of each server to the 5G network, and request the Bob’s physical location and transmission delay in 5G network.', '', '3. According to the cooperation agreement with application, 5G network will expose information to service providers, including the physical location and network delay of specific terminals or a group of terminals. The network delay includes the delay inside 5G system (UE to PSA UPF) and the latency information between PSA UPF and some potential servers.', '', '4. The new server is selected by the service provider according to the UE location, network delay, business requirements, computation resource and storage resource of application servers. The decision result will be sent back to 5G network. Then the 5G network can then formulate corresponding policies for the service flows.', '', '5. The content information will be synchronized to the new server in real time. 5G network should support the ultra-low latency data transmission, potentially among multiple operators.', '']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall support the delivery of high-resolution ultra-high-definition video generated by endoscopes, including up to 8K uncompressed or high-quality compressed video, high dynamic range (HDR), and high frame rate (HFR) capabilities, to assist surgeons in distinguishing fine details during minimally-invasive surgeries.
-The system shall transmit 2D ultrasound images with a data stream of uncompressed images at resolutions of 512x512 pixels and 32 bits per pixel at frame rates of up to 60 fps, resulting in data rates of up to 500 Mbit/s.
-The system shall handle 3D ultrasound volumes generated by dedicated 3D probes, which operate at higher data rates above 1 Gbit/s, and are expected to reach multi-gigabit data rates in the future, producing 3D Cartesian volumes with encoded 24 bits at 10 volumes per second or better.
-The system shall facilitate the transmission of CT/MR scan images with variable resolutions ranging from 1024x2024 to 3000x3000 pixels and frame rates between 5 to 30 fps, using color depths of 16 bits, suitable for both diagnosis and fluoroscopy.
-The system shall enable the consumption of communication services delivered by Public Land Mobile Networks (PLMNs) for medical applications, allowing specialists and patients to access quality care remotely, decoupling location from the quality of care.
-The system shall ensure the transport of medical data over geographical areas with allocated high priority resources, fulfilling Service Level Agreements (SLAs) that guarantee medical data integrity, confidentiality, and timely delivery.
-The system shall provide synchronization of all equipment involved in image generation, processing, and display through a common clock, either external or provided by the 5G system, using dedicated protocols such as PTP version 2 to ensure accurate image recombination and enable offline replay of medical procedures.</t>
+          <t xml:space="preserve"> The system shall provide deployment information of each server to the 5G network, ensuring that the service provider can request Bob's physical location and transmission delay in the 5G network.
+The system shall facilitate a cooperation agreement with the 5G network to expose necessary information, including the physical location and network delay of specific terminals or groups of terminals, while adhering to the agreed-upon privacy and security standards.
+The system shall enable the 5G network to select new servers based on user equipment (UE) location, network delay, business requirements, and the computational and storage resources of application servers. The system shall ensure that the decision result is communicated back to the 5G network to formulate corresponding policies for service flows.
+The system shall support real-time synchronization of content information to new servers. It shall also ensure that the 5G network can support ultra-low latency data transmission, potentially among multiple operators, to maintain a seamless and interactive user experience.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.2.3		Service Flows&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;7.1.5	Existing features partly or fully covering the use case functionality&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22843-j00.docx</t>
+          <t>22876-j00.docx</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1525215067634521</v>
+        <v>0.1822923361298773</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['', '----media/image3.png----', '', 'Figure 5.2.3-1: Supporting UAV pre-flight preparation', '', '1.\tThe pipeline company plans to use UAV A to provide video inspection of pipelines from X to Y and the logistics company uses UAV B to deliver express from X to Z.', '', '2.\tUAV/UAV-C A and UAV/UAV-C B register in 5G network and can communicate with UTM though 5G network.', '', '3.\tThe UAV-C A provides planned flight path information from X to Y to UTM (e.g. waypoints and required QoS from X to Y). The UAV-C B provides planned flight path on start point X, end point Z and needed QoS.', '', '4.\tUTM checks with 5G system for required and needed QoS information in predictions/statistics (e.g. end-to-end latency, QoE) along required and possible flight paths.', '', '5.\tBased on the available analytics information, the 5G system can provide confirmation that required QoS is available for UAV A flight path or alternatively can reconfigure network resources to be able to provide the required QoS to UAV A along the flight path. As UAV B can take alternative routes, 5G system can provide optimized flight path considering where the QoS is available.', '', '6.\tUTM/UAS determines the final flight paths based on the information from Operator A and sends to UAV/UAV-C A and UAV/UAV-C B separately.', '', '7.\tUAV A and UAV B receive the flight path information from UTM/UAS via the 5G system and start flight mission.', '']</t>
+          <t>['', '&lt;b&gt;In 3GPP TS 22.261 [8] v18.6.1 clause 6.40.2&lt;/b&gt;', '', 'Based on operator policy, the 5G system shall be able to provide means to allow an authorized third-party to monitor the resource utilisation of the network service that is associated with the third-party.', '', 'NOTE 1:\tResource utilization in the preceding requirement refers to measurements relevant to the UE’s performance such as the data throughput provided to the UE.', '', 'Based on operator policy, the 5G system shall be able to provide an indication about a planned change of bitrate, latency, or reliability for a QoS flow to an authorized 3rd party so that the 3&lt;sup&gt;rd&lt;/sup&gt; party AI/ML application is able to adjust the application layer behaviour if time allows. The indication shall provide the anticipated time and location of the change, as well as the target QoS parameters.', '', 'Based on operator policy, 5G system shall be able to provide means to predict and expose predicted network condition changes (i.e. bitrate, latency, reliability) per UE, to an authorized third party.', '', 'Subject to user consent, operator policy and regulatory constraints, the 5G system shall be able to support a mechanism to expose monitoring and status information of an AI-ML session to a 3&lt;sup&gt;rd&lt;/sup&gt; party AI/ML application. ', '', 'NOTE 2:\tSuch mechanism is needed for AI/ML application to determine an in-time transfer of AI/ML model.', '', 'Subject to user consent, operator policy and regulatory requirements, the 5G system shall be able to expose information (e.g. candidate UEs) to an authorized 3&lt;sup&gt;rd&lt;/sup&gt; party to assist the 3&lt;sup&gt;rd&lt;/sup&gt; party to determine member(s) of a group of UEs (e.g. UEs of a FL group).', '']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall register UAV A and UAV B in the 5G network to enable communication with UTM.
-The system shall provide planned flight path information from X to Y to UTM for UAV A, and from X to Z for UAV B, including required Quality of Service (QoS).
-The system shall allow UTM to check with the 5G network for required and needed QoS information along the flight paths.
-The system shall confirm the availability of required QoS for UAV A's flight path or reconfigure network resources to provide the required QoS along the flight path.
-The system shall optimize the flight path for UAV B considering the available QoS, allowing for alternative routes if necessary.
-The system shall determine the final flight paths based on information from Operator A and send them to UAV A and UAV B separately.
-The system shall enable UAV A and UAV B to receive flight path information from UTM/UAS via the 5G system and initiate their flight missions.</t>
+          <t xml:space="preserve"> The system shall provide means to allow an authorized third-party to monitor the resource utilization of the network service associated with the third-party, based on operator policy. This includes the ability to provide an indication about planned changes in bitrate, latency, or reliability for Quality of Service (QoS) flows to the third-party, enabling adjustments to application layer behavior if possible.
+The system shall also be capable of predicting and exposing predicted network condition changes, such as bitrate, latency, and reliability per User Equipment (UE), to an authorized third party, again in compliance with operator policy and regulatory constraints.
+Furthermore, the system shall support a mechanism to expose monitoring and status information of an Artificial Intelligence/Machine Learning (AI/ML) session to an authorized third-party AI/ML application, subject to user consent, operator policy, and regulatory requirements.
+Lastly, the system shall facilitate the exposure of information, such as candidate User Equipments (UEs), to an authorized third party to assist in determining members of a group of UEs, for example, those belonging to a Federated Learning (FL) group. This feature is also subject to user consent, operator policy, and regulatory requirements.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.22.2	Pre-conditions&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;6.40.2	Requirements &lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.174577832476389</v>
+        <v>0.1758187261926143</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['', '1) Alex, Bob and Carey are good friends live in different cities, they agree to watch the mobile metaverse live concert together.', '', '2) Alex, Bob and Carey are equipment with XR glasses and tactile, the equipment can capture their voice, facial expression, pose information to generate avatars and interact with the whole live concert.', '', '3) Enough computing resources can be provided to the mobile metaverse live concert service and the 5G network is capable of providing sufficiently high throughput and low latency network transmission. ', '']</t>
+          <t>['', 'Based on operator policy, the 5G system shall be able to provide means to allow an authorized third-party to monitor the resource utilisation of the network service that is associated with the third-party.', '', 'NOTE 1:\tResource utilization in the preceding requirement refers to measurements relevant to the UE’s performance such as the data throughput provided to the UE.', '', 'Based on operator policy, the 5G system shall be able to provide an indication about a planned change of bitrate, latency, or reliability for a QoS flow to an authorized 3rd party so that the 3&lt;sup&gt;rd&lt;/sup&gt; party AI/ML application is able to adjust the application layer behaviour if time allows. The indication shall provide the anticipated time and location of the change, as well as the target QoS parameters.', '', 'Based on operator policy, 5G system shall be able to provide means to predict and expose predicted network condition changes (i.e. bitrate, latency, reliability) per UE, to an authorized third party.', '', 'Subject to user consent, operator policy and regulatory constraints, the 5G system shall be able to support a mechanism to expose monitoring and status information of an AI-ML session to a 3&lt;sup&gt;rd&lt;/sup&gt; party AI/ML application. ', '', 'NOTE 2:\tSuch mechanism is needed for AI/ML application to determine an in-time transfer of AI/ML model.', '', '5G system shall be able to provide event alerting to an authorized 3rd party, together with a predicted time of the event (e.g., alerting about traffic congestion or UE moving into/out of a different geographical area). ', '', 'NOTE 3:\tA 3rd party AI/ML application may use the prediction information to minimize disturbance in the transfer of learning data and AI/ML model data.', '', 'The 5G system shall be able to expose aggregated QoS parameter values for a group of UEs to an authorized service provider.', '', 'The 5G system shall be able to support an authorised 3rd party to change aggregated QoS parameter values associated with a group of UEs, e.g. UEs of a FL group.', '', 'Subject to user consent, operator policy and regulatory requirements, the 5G system shall be able to expose information (e.g. candidate UEs) to an authorized 3&lt;sup&gt;rd&lt;/sup&gt; party to assist the 3&lt;sup&gt;rd&lt;/sup&gt; party to determine member(s) of a group of UEs (e.g. UEs of a FL group).', '']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall provide a synchronized live concert experience for Alex, Bob, and Carey, despite living in different cities. The system shall equip Alex, Bob, and Carey with XR glasses and tactile devices capable of capturing their voice, facial expressions, and pose information. This equipment shall be used to generate avatars that interact with the live concert in real-time. The system shall ensure that there are enough computing resources to support the mobile metaverse live concert service. Additionally, the system shall leverage a 5G network to guarantee sufficiently high throughput and low latency for network transmission, ensuring a seamless and immersive concert experience for all participants.</t>
+          <t xml:space="preserve"> The system shall provide means to allow an authorized third-party to monitor the resource utilization of the network service associated with the third-party, specifically focusing on measurements relevant to the User Equipment's (UE's) performance such as data throughput.
+The system shall offer an indication of planned changes in bitrate, latency, or reliability for Quality of Service (QoS) flows to an authorized third party, enabling the third-party AI/ML application to adjust application layer behavior if possible, including details on the anticipated time and location of the change, as well as the target QoS parameters.
+The system shall provide mechanisms to predict and expose predicted network condition changes, such as bitrate, latency, and reliability per UE, to an authorized third party, subject to user consent, operator policy, and regulatory constraints.
+The system shall support a mechanism to expose monitoring and status information of an AI/ML session to an authorized third-party AI/ML application, needed for determining an in-time transfer of AI/ML models, again subject to user consent, operator policy, and regulatory requirements.
+The system shall provide event alerting to an authorized third party, together with a predicted time of the event, such as alerting about traffic congestion or UE geographical movement, to enable proactive measures.
+The system shall be capable of exposing aggregated Quality of Service (QoS) parameter values for a group of UEs to an authorized service provider, and support an authorized third party to change these aggregated QoS parameter values associated with a group of UEs, for example, UEs of a Federated Learning (FL) group, in compliance with user consent, operator policy, and regulatory requirements.
+The system shall expose information, such as candidate UEs, to an authorized third party to assist in determining members of a group of UEs, for example, UEs of a FL group, subject to user consent, operator policy, and regulatory requirements.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.7.3	Service Flows&lt;/h3&gt;</t>
+          <t>&lt;h4&gt;5.1.6.2	Potential KPI Requirements&lt;/h4&gt;</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22865-j00.docx</t>
+          <t>22876-j00.docx</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1614671610267564</v>
+        <v>0.1969866748929524</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['', '1. Ed is hiking along the planned route in the Amazon Rainforest, with good connection to ground network through satellite access.', '', '2. Suddenly, Ed is knocked by a piece of deadwood and his left arm is wounded.', '', '3. Ed can not go on his ride with poor medical measures, so he dials the rescue phone number for help.', '', '4. Based on the position information of Ed provided by SatA and TerrB, the rescue center finds Bell is the nearest rescuer and transfers the call to Bell.', '', '5. Bell answers the phone call with satellite access and tries to find Ed based on the real-time position information of Ed. For lower communication latency, this phone call is routed by only one satellite without going through the ground network of TerrA and TerrB.', '']</t>
+          <t>['', 'Considering the widely-used AlexNet and VGG-16 model for proximity-based work task offloading, the following KPIs need to be supported:', '', 'Table 5.1-2\tKPI requirements for proximity-based work task offloading', '', '', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;UL data size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;(for sidelink)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;UL data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;(for sidelink)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Intermediate data uploading latency (including sidelink+Uu)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Image recognition latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;AlexNet model with 30FPS (NOTE 1)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0.15 - 0.02&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; &lt;/b&gt;&lt;/span&gt;&lt;span style="font-size:18pt"&gt;Mbyte for each frame&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;4.8 – 65 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-  2ms for Remote driving, AR displaying/gaming, and remote-controlled robotics;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-  10ms for video recognition;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-  100ms for One-shot object recognition, Person identification, or photo enhancement in smart phone&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;VGG-16 model with 30FPS&lt;/span&gt;', '', '\t1)\t&lt;span style="font-size:18pt"&gt;- 1.5&lt;/span&gt; &lt;span style="font-size:18pt"&gt;Mbyte for each frame&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;24 - 720 Mbit/s&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;1s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;NOTE 1: FPS stands for Frame Per Second&lt;/b&gt;&lt;/span&gt;', '', '', '']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall:
-1. Maintain a robust satellite connection for Ed while he is hiking along the planned route in the Amazon Rainforest.
-2. Support emergency communication capabilities for Ed in the event of an injury, such as when he is knocked by a piece of deadwood and sustains a wound to his left arm.
-3. Enable Ed to initiate a rescue call by dialing the provided rescue phone number when he is unable to continue his hike due to inadequate medical measures.
-4. Utilize real-time position information from Satellite A (SatA) and Terrestrial Base (TerrB) to identify the nearest rescuer, in this case, Bell, and facilitate the transfer of the rescue call to Bell.
-5. Ensure low communication latency for Bell when receiving the rescue call by routing the call through only one satellite, bypassing the ground networks of TerrA and TerrB, to expedite the rescue process.</t>
+          <t xml:space="preserve"> The system shall support the following Key Performance Indicators (KPIs) for proximity-based work task offloading using the AlexNet and VGG-16 models at 30 frames per second (FPS):
+1. UL data size for sidelink shall be within the range of 0.15 to 0.02 Mbytes for each frame.
+2. UL data rate for sidelink shall be between 4.8 to 65 Mbit/s.
+3. Intermediate data uploading latency, including sidelink and Uu, shall not exceed 2 milliseconds (ms).
+4. Image recognition latency shall be as follows:
+   - For AlexNet model: 1 second (s)
+   - For VGG-16 model: 1 second (s)
+5. The system shall ensure that the image recognition latency for specific applications is within the following time frames:
+   - Remote driving, AR displaying/gaming, and remote-controlled robotics: 1 second (s) or less
+   - Video recognition: 10 milliseconds (ms) or less
+   - One-shot object recognition, person identification, or photo enhancement in smartphones: 100 milliseconds (ms) or less</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.1.3	Service Flows&lt;/h3&gt;</t>
+          <t>&lt;h4&gt;7.11.1.1	General overview&lt;/h4&gt;</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22876-j00.docx</t>
+          <t>22179-j00.docx</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1519712435218333</v>
+        <v>0.176500124239393</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['', '1.\tJurassic Park provides panorama AR tour guide services in a commercial area and a tropical rainforest area. AR headsets need to download Model A and B (both are VGG-16, 552MByte) respectively.', '', '2.\tTo provide high quality user experience, Jurassic Park company indicates to the operator that AR headsets require to download model A in area A and model B in area B. ', '', '3.\tThe Jurassic Park company signs a high-quality plan for tour guide Alice and Bob’s AR Headsets for providing better service to the tour group using direct device connection. ', '', '4.\tWhen Bob and his tour group enter area A, their headsets request for the Model A. The operator network finds they requested the same model and Bob is a signed volunteer UE, then triggers to establish a QoS acceleration for Bob’s model downloading timely within 1 second. Meanwhile, Jurassic Park requests the operator network to inform Bob to help transfer the model to all other UE near Bob. Also, the operator network informs all other UE near Bob that Bob can provide the model as well. The UE which is a little far from Bob (e.g. out of Bob’s coverage) will still download the model through the base station directly.', '', '5.\tAlice and her group are 10 meters far from Bob and also move towards to area A. Jurassic Park predicts their desire model based on their movement and finds Bob has already downloaded it based on the model transferring records. Jurassic Park requests operator network to inform Alice that she can request model from Bob. Meanwhile, the operator network indicates all other UE near Alice to download the model from Alice.', '', '6.\tFor Alice and Bob, they can see the status of all direct device connections to themselves through network exposures providing by operators (e.g. monitored bandwidth and latency of each direct device connection)', '', '7.\tWhen Alice and Bob notice that their groups have a poor QoS of model transfer through direct device connection, they can send a request to the park company for promoting the performance of their direct device connections and the park company will send a similar message to the operator through network exposure to active a temporary acceleration of these direct device connections (e.g. expand the bandwidth of each direct device connection).', '']</t>
+          <t>['', 'For MCPTT Users, one of the most important performance criteria is the MCPTT Access time (KPI 1). The MCPTT Access time is defined as the time between when an MCPTT User requests to speak (normally by pressing the MCPTT control on the UE) and when this user gets a signal to start speaking. This time does not include confirmations from receiving users.', '', "The Mouth-to-ear latency (KPI 3) is the time between an utterance by the transmitting user, and the playback of the utterance at the receiving user's speaker. Figure 7.11.1.1.1 illustrates the MCPTT Access time and Mouth-to-ear latency.", '', '----media/image9.png----', '', 'Figure 7.11.1.1-1: Illustration of MCPTT Access time and Mouth-to-ear latency', '']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall provide panorama AR tour guide services in both commercial and tropical rainforest areas.
-The system shall ensure AR headsets download Model A (VGG-16, 552MB) in area A and Model B in area B to maintain high-quality user experience.
-The system shall facilitate direct device connections for tour guide Alice and Bob's AR headsets, enabling better service delivery to their respective tour groups.
-The system shall establish Quality of Service (QoS) acceleration for model downloads within 1 second for signed volunteer User Equipment (UE) like Bob, when requested by the operator network.
-The system shall enable the operator network to inform nearby User Equipment (UE) about the availability of models for download, as requested by a user like Bob.
-The system shall predict and manage model downloads for users like Alice based on movement and previous model transferring records, allowing for efficient model requests.
-The system shall provide network exposures that allow users like Alice and Bob to monitor the status of direct device connections, including bandwidth and latency.
-The system shall allow users to request performance enhancements for direct device connections when experiencing poor QoS, with the park company sending a message to the operator to temporarily accelerate these connections.</t>
+          <t xml:space="preserve"> The system shall provide a minimal MCPTT Access time, ensuring that when an MCPTT user requests to speak, the signal to start speaking is delivered as quickly as possible, excluding any confirmations from receiving users. Additionally, the system shall minimize the Mouth-to-ear latency, guaranteeing that the playback of an utterance at the receiving user's speaker occurs with the shortest delay possible after the transmitting user's utterance.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.2.1	Motion control&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;A.4.4.4	High-speed current differential protection&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -621,23 +619,23 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1663480021957285</v>
+        <v>0.1615639182590952</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['', 'A motion control system is responsible for controlling moving and/or rotating parts of machines in a well-defined manner, for example in printing machines, machine tools or packaging machines.', '', 'A schematic representation of a motion control system is depicted in Figure A.2.2.1-1. A motion controller periodically sends desired set points to one or several actuators (e.g., a linear actuator or a drive) which thereupon perform a corresponding action on one or several processes (in this case usually a movement or rotation of a certain component). At the same time, sensors determine the current state of the process(es), e.g. the current position and/or rotation of one or multiple components, and send the actual values back to the motion controller. This is done in a strictly cyclic and deterministic manner, such that during one application cycle the motion controller sends updated set points to all actuators, and all sensors send their actual values back to the motion controller. Nowadays, typically Industrial Ethernet technologies are used for motion control systems. ', '', '', '', '----media/image4.emf----', '', 'Figure A.2.2.1-1: Schematic representation of a motion control system', '', 'Table A.2.2.1-1: Service performance requirements for motion control', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: lower bound', '', 'Transfer interval: upper bound', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note)', '', '1', '', '99.999 to 99.999\xa099', '', '~ 10 years', '', '', '', '&amp;lt; transfer interval value', '', '–', '', '50', '', '500\xa0μs – 500\xa0ns', '', '500\xa0μs + 500\xa0ns', '', '500\xa0μs', '', '≤ 72\xa0km/h', '', '≤ 20', '', '50 m x 10 m x 10 m', '', '2', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '–', '', '40', '', '1 ms – 500\xa0ns', '', '1 ms + 500\xa0ns', '', '1 ms', '', '≤ 72\xa0km/h', '', '≤ 50', '', '50 m x 10 m x 10 m', '', '3', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '–', '', '&lt;span style="color:000000;font-size:22pt"&gt;20&lt;/span&gt;', '', '', '', '2 ms – 500\xa0ns', '', '2 ms + 500\xa0ns', '', '2 ms', '', '≤ 72\xa0km/h', '', '≤\xa0100', '', '50 m x 10 m x 10 m', '', 'NOTE:\tLength x width x height.', '', '', '', '&lt;i&gt;Use cases one to three&lt;/i&gt;', '', 'Characteristic parameters and influence quantities for a communication service supporting the cyclic interaction described above.', '']</t>
+          <t>['', 'High-speed current differential protection, which is required for sub-millisecond fault detection, is another typical use case of power distribution automation. The approach utilises differential current measurements to significantly reduce fault detection time. The protection relays exchange the current samples via the 5G system. Each relay then compares the sent and received samples to determine if a fault has occurred in a protected area. This is done in order to identify and isolate a fault in the grid. The sampling rate varies and is dependent on the algorithms designed by the manufacturers. A protection relay collects the current samples (with the typical message size of up to 245 bytes) at a frequency of 600 Hz, 1200 Hz, 1600 Hz, or 3000 Hz. The exchange of measurement samples is done in a strictly cyclic and deterministic manner. With the sampling rate of 600 Hz, the transfer interval is 1.7 ms and the required bandwidth 1.2 Mbit/s; for 1200 Hz, the transfer interval is 0.83 ms and the required bandwidth 2.4 Mbit/s. The maximum allowed end-to-end delay between two protection relays is between 5 ms and 10 ms, depending on the voltage (see  IEC 61850-90-1 for more details [28]). For some legacy systems, the latency usually is set to 15 ms. The associated KPIs are provided in Table A.4.4.4-1.', '', 'Table A.4.4.4-1: KPIs for high speed current differential protection', '', 'Use case #', '', 'Communication service availability', '', 'End-to-end latency: maximum', '', '(note)', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', 'UE density [#/km&lt;sup&gt;2&lt;/sup&gt;)]', '', 'Service area', '', '1', '', '&amp;gt; 99.999\xa0%', '', '15 ms', '', '2.5 Mbit/s', '', '&amp;lt; 245', '', '≤ 1 ms', '', ' transfer interval (one frame loss)', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '2', '', '&amp;gt; 99.999\xa0%', '', '15 ms', '', '1.2 Mbit/s', '', '&amp;lt; 245', '', '≤ 2 ms', '', ' transfer interval (one frame loss)', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '3', '', '&amp;gt; 99.999\xa0%', '', '10 ms', '', '2.5 Mbit/s', '', '&amp;lt; 245', '', '≤ 1 ms', '', ' transfer interval (one frame loss)', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '4', '', '&amp;gt; 99.999\xa0%', '', '10 ms', '', '1.2 Mbit/s', '', '&amp;lt; 245', '', '≤ 2 ms', '', ' transfer interval (one frame loss)', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '5', '', '&amp;gt; 99.999\xa0%', '', '5 ms', '', '2.5 Mbit/s', '', '&amp;lt; 245', '', '≤ 1 ms', '', ' transfer interval (one frame loss)', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '6', '', '&amp;gt; 99.999\xa0%', '', '5 ms', '', '1.2 Mbit/s', '', '&amp;lt; 245', '', '≤ 2 ms', '', ' transfer interval (one frame loss)', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', 'NOTE :\tUE-to-UE communication.', '', '', '', '&lt;i&gt;Use case #1: &lt;/i&gt;High-speed current differential protection with a sampling rate of 1200 Hz for legacy systems.', '', '&lt;i&gt;Use case #2: &lt;/i&gt;High-speed current differential protection with a sampling rate of 600 Hz for legacy systems.', '', '&lt;i&gt;Use case #3: &lt;/i&gt;High-speed current differential protection with a sampling rate of 1200 Hz under voltage condition 1 (see  IEC 61850-90-1[28] for more details).', '', '&lt;i&gt;Use case #4: &lt;/i&gt;High-speed current differential protection with a sampling rate of 600 Hz under voltage condition 1 (see  IEC 61850-90-1[28] for more details).', '', '&lt;i&gt;Use case #5: &lt;/i&gt;High-speed current differential protection with a sampling rate of 1200 Hz under voltage condition 2 (see  IEC 61850-90-1[28] for more details).', '', '&lt;i&gt;Use case #6: High-speed current differential protection with a sampling rat&lt;/i&gt;', '']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall provide a communication service with a target availability of 99.999% to 99.9999% for use cases one to three, ensuring a mean time between failures of approximately 10 years. The service must maintain an end-to-end latency of less than the transfer interval value, with a user experienced data rate that matches the service bitrate. The communication service should support message sizes ranging from 500 microseconds to 500 nanoseconds, transfer intervals between 1 millisecond and 500 nanoseconds, and accommodate a survival time of up to 72 km/h. It must also cater to a maximum of 50 user equipment (UEs) within a service area of 50 meters by 10 meters by 10 meters, or 2 user equipment (UEs) within a service area of 50 meters by 10 meters by 10 meters, or 40 user equipment (UEs) within a service area of 50 meters by 10 meters by 10 meters.</t>
+          <t xml:space="preserve"> The system shall provide high-speed current differential protection with a sampling rate of 1200 Hz for legacy systems, ensuring communication service availability greater than 99.999%, end-to-end latency not exceeding 15 ms, and a user experienced data rate of at least 1.2 Mbit/s with a message size of less than 245 bytes. The transfer interval should be less than or equal to 2 ms, accommodating one frame loss, and the system should support a UE density of up to 100 devices per square kilometer. The protection relay shall identify and isolate faults in the grid within a survival time of ≤ 2 ms.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.4.4.1	Distributed automated switching for isolation and service restoration&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;C.4.2	Network latency requirement formulated by use of timeliness&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -646,397 +644,383 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1573190313395603</v>
+        <v>0.171296397547423</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['', 'A power distribution grid fault is a stressful situation. There are self-healing solutions for automated switching, fault isolation, and service restoration. Furthermore, these solutions are ideally suited to handle outages that affect critical power consumers, such as industrial plants or data centres. Supply interruptions must be fixed within less than a second for critical power consumers. Automated solutions are able to restore power supply within a few hundred milliseconds.', '', '----media/image8.png----', '', 'Figure A&lt;b&gt;.&lt;/b&gt;4.4.1-1: Depiction of a distribution ring and a failure (flash of lighting) ', '', 'The FLISR (Fault Location, Isolation &amp;amp; Service Restoration) solution consists of switch controller devices which are especially designed for feeder automation applications that support the self-healing of power distribution grids with overhead lines. They serve as control units for reclosers and disconnectors in overhead line distribution grids.', '', 'The system is designed for using fully distributed, independent automated devices. The logic resides in each individual feeder automation controller located at the poles in the feeder level. Each feeder section has a controller device. Using peer-to-peer communication among the controller devices, the system operates autonomously without the need of a regional controller or control centre. However, all self-healing steps carried out will be reported immediately to the control centre to keep the grid status up to date. The controllers conduct self-healing of the distribution line in typically 500 ms by isolating the faults.', '', 'Peer-to-peer communication via IEC 61850 GOOSE (Generic Object Oriented Substation Event) messages provides data as fast as possible (Layer 2 multicast message). They are sent periodically (in steady state, with changing interval time in fault case) by each controller to several or all other controllers of the same feeder and are not acknowledged. ', '', 'The service bit rate per controller is low in steady state, but GOOSE bursts with high service bit rate do occur, especially during fault situations. GOOSE messages are sent by several or all controller units of the feeder nearly at the same point in time during the fault location, isolation and service restoration procedure with a low end-to-end latency. ', '', 'The associated (a)periodic communication KPIs are provided in Table A4.4.1-1. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;4.4-1.1: Service performance requirements for distributed automated switching for isolation and service restoration ', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note 1)', '', '1 (note\xa02)', '', '99.999\xa09', '', '–', '', '&amp;lt; 5 ms', '', '1 kbit/s (steady state)', '1.5 Mbit/s (fault case)', '', '&amp;lt; 1,500', '', '&amp;lt; 60 s (steady state)', '≥ 1 ms (fault case)', '', ' transfer interval (one frame loss)', '', 'stationary', '', '20', '', '30 km x 20\xa0km', '', '2', '', '&amp;gt; 99.999\xa0%', '', '-', '', '20 ms (note\xa02)', '', '-', '', '&amp;lt; 100', '', '-', '', '-', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', 'NOTE 1:\tLength x width', '', 'NOTE 2:\tUE to UE communication (two wireless links)', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'GOOSE (a)periodic deterministic communication service supporting bursty message exchange for fault location, isolation, and service restoration.', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Typically event-driven, aperiodic deterministic communication service supporting fault detection and isolation.', '']</t>
+          <t>['', 'In 5G networks, the end-to-end latency KPI is a critical KPI in order to ensure that the network can deliver the packet within a time limit specified by an application: not too early and not too late. ', '', 'In cyber-physical automation, the arrival time of a specific packet should be strictly inside a prescribed time window. In other words, a strict time boundary applies: [minimum end-to-end latency, maximum end-to-end latency]. Otherwise, the transmission is erroneous. Although most use cases that require timely delivery only specify the maximum end-to-end latency, the minimum latency is also sometimes prescribed. In the latter case, a communication error occurs if the packet is delivered earlier than the minimum end-to-end latency. An example for a related application is putting labels at a specific location on moving objects, and the arrival of a message is interpreted as a trigger for this action. In other words, the application does not keep its own time, but interprets the message arrival as clock signal. Maximum and minimum end-to-end latency alone do not disclose which value is preferred, i.e. target value. The next three subclauses introduce concepts help with relating maximum end-to-end latency, minimum end-to-end latency, and target vale to each other. ', '']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall provide self-healing solutions for automated switching fault isolation and service restoration in power distribution grids. These solutions must be capable of handling outages affecting critical power consumers, such as industrial plants or data centers, with the objective of restoring power supply within less than a second.
-The Fault Location, Isolation, and Service Restoration (FLISR) solution shall consist of switch controller devices designed for feeder automation applications. These devices will serve as control units for reclosers and disconnectors in overhead line distribution grids.
-The system shall be designed using fully distributed independent automated devices, with logic residing in individual feeder automation controllers located at the poles in the feeder level. The system shall operate autonomously through peer-to-peer communication among the controller devices, without the need for a regional controller or control center.
-The controllers shall conduct self-healing of the distribution line in typically 500 milliseconds by isolating faults. All self-healing steps carried out shall be reported immediately to the control center to keep the grid status up to date.
-Peer-to-peer communication shall be facilitated via IEC 61850 GOOSE messages, providing data as fast as possible with low end-to-end latency. The system shall meet the following service performance requirements for distributed automated switching for isolation and service restoration:
-- Communication service availability target value of 99.99999%
-- Communication service reliability with a mean time between failures greater than 99.99999%
-- End-to-end latency with a maximum of less than 5 milliseconds
-- Service bitrate with a user experienced data rate of less than 5 Mbit/s during fault cases
-- Message size not exceeding 1.5 Mbit/s
-- Transfer interval target value of less than 1500 milliseconds
-- Survival time of at least 60 seconds in steady state
-- UE speed and number of UEs not exceeding 60 seconds and 20 respectively in steady state
-- Service area of 99.99999% availability for a 30 km x 20 km area with a population density</t>
+          <t xml:space="preserve"> The system shall ensure end-to-end latency adherence within specified time windows for critical packet transmissions in 5G networks and cyber-physical automation systems. Specifically, the system must:
+1. Guarantee that the end-to-end latency of a packet delivery falls strictly within the predefined time window, defined by a minimum and maximum end-to-end latency value.
+2. Deliver packets strictly within the maximum end-to-end latency specified by the application, ensuring timely delivery without premature arrival.
+3. Prevent packet transmission if the end-to-end latency is below the minimum threshold, as this constitutes a communication error in scenarios where early packet delivery is not permissible.
+4. Support applications that interpret message arrival as a trigger for actions, such as labeling moving objects, by aligning the system's packet delivery timing with the application's internal clock, rather than the system's own time.
+5. Provide mechanisms to identify and prioritize the target value of end-to-end latency, whether it is the minimum, maximum, or a specific target value, to meet the application's requirements for timely and accurate data transmission.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;7.3.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;A.2.3.1	Closed-loop control&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22261-j30.docx</t>
+          <t>22104-j00.docx</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1560101939556342</v>
+        <v>0.1758414979850031</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['', 'Adaptability and flexibility are among the key features of the 5G system to serve a wide diversity of verticals and services, in different environments (e.g. rural, urban, indoor). This applies to high-accuracy positioning and translates into the ability to satisfy different levels of services and requirements, for instance on performance (e.g. accuracy, positioning service availability, positioning service latency) and on functionality (e.g. security).', '']</t>
+          <t>['', 'In the closed-loop control use case for process automation, several sensors are installed in a plant and each sensor performs continuous measurements. The measurement data are transported to a controller, which takes decision to set actuators. The latency and determinism in this use case are crucial. This use case has very stringent requirements in terms of latency and service availability. The required service area is usually bigger than for motion control use cases. Interaction with the public network (e.g., service continuity, roaming) is not required.', '', 'Table A.2.3.1-1: Service performance requirements for closed-loop control in process automation', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval: lower bound', '', 'Transfer interval: target value', '', 'Transfer interval: upper bound', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note)', '', '1', '', '99.999\xa09 to 99.999\xa0999', '', '≥ 1 year', '', '&amp;lt; target transfer interval value', '', '20', '', '-5\xa0% of target transfer interval value', '', '≥\xa010\xa0ms', '', '+5\xa0% of target transfer interval value', '', '0', '', 'typically stationary', '', 'typically 10 to 20', '', 'typically ≤\xa0100 m x 100 m x 50 m', '', 'NOTE:\tLength x width x height.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Several sensors are installed in a plant and each sensor performs continuous measurements. The measurement data are transported to a controller, which takes decision to set actuators. ', '']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall demonstrate adaptability and flexibility to effectively cater to a wide diversity of verticals and services across various environments such as rural, urban, and indoor settings. It shall ensure high-accuracy positioning to meet different levels of service requirements, including but not limited to performance aspects like accuracy, service availability, and positioning service latency. Furthermore, the system shall provide enhanced functionality, including robust security measures, to satisfy the specific needs of the services and verticals it supports.</t>
+          <t xml:space="preserve"> The system shall ensure a communication service availability of at least 99.999% (9 to 999), with a mean time between failures of 1 year or more. It must also maintain an end-to-end latency of less than the target transfer interval value, with a maximum latency of 5% above the target transfer interval value. The system should handle a message size of 20 bytes and support a transfer interval with a lower bound of -5% of the target transfer interval value and an upper bound of +5% of the target transfer interval value. The system is designed for typically stationary use with 20 to 200 connected User Equipments (UEs) within a service area typically measuring 100 to 200 meters in length, 100 meters in width, and 50 meters in height.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.29.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.2.1	General&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>22837-j00.docx</t>
+          <t>22125.docx</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1803180134375404</v>
+        <v>0.1972734130419899</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['', 'As a new way of human-device interface, gesture recognition enables a more intuitive interaction between humans and machines, compared to the conventional text or GUI-based interfaces. Common applications of gesture recognition include touchless control of mobile devices, such as smartphones, laptops, and smart watches. Compared to other use cases, such as sports monitoring or sleep monitoring, gesture recognition requires higher resolution, higher update rate, and lower latency, which makes it more challenging in terms of resource utilization and processing complexity. ', '', 'Gesture recognition identifies motions and postures of human body parts, such as head, hands, and fingers. As shown in Figure\xa05.29.1-1, gesture recognition can be applied to various applications such as human motion recognition, keystroke detection, sign language recognition and touchless control.', '', '', '', '----media/image37.png--------media/image39.png--------media/image41.png--------media/image42.png--------media/image43.png--------media/image44.png----', '', '', '', 'Gesture/motion/posture recognition', '', '--\tHuman motion recognition', '', '--\tKeystroke detection', '', '--\tTouchless control', '', '--\tSign language recognition', '', 'Figure\xa05.29.1-1 Gesture Recognition', '', 'In this use case, we focus on application of gesture recognition for touchless control and immersive (i.e. XR) application.', '', 'For touchless control, the identified gestures are then interpreted to specific behaviours or operations of the device, including locking/unlocking a screen, increasing/decreasing volume, and navigating forward/backward web pages.', '', 'For XR application, the position tracking and mapping of the human body is a basic requirement that permeates XR application to provide the immersive experience [55]. Hereby a variety of sensors are integrated in the XR devices to measure the movement of the human body (e.g., head, eye, hand, arm, etc) in order to simulate normal human mimicry. Besides, the hand tracking goes beyond the simulation and enables a natural and intuitive way of the interaction between the human and the machine compared with the use of the physical controller. The gesture recognition and hand tracking becomes a vital function in XR applications, especially when the human and the controlled object stay in physical and virtual world separately.', '', 'For both touchless control and XR application, NR-based RF sensing is suitable for gesture recognition because certain RF signals can detect small body movements and the RF signals are not susceptible to the ambient illumination condition and occlusions in the environment. In addition, NR-based RF sensing allows for finger and hand tracking in a lower-complexity and economic manner.', '']</t>
+          <t>['', 'NOTE: \tThe following requirements are valid for both centralized and decentralized UTM.', '', '[R-5.2.1-001] The 3GPP system shall provide a mechanism for a UTM to provide route data, along with flight clearance, to a UAV.', '', '[R-5.2.1-002] The 3GPP system shall be able to deliver route modification information received from a UTM to a UAS with a latency of less than 500ms.', '', '[R-5.2.1-003] The 3GPP system shall be able to deliver the notifications received from a UTM to a UAV controller with a latency of less than 500ms.', '', '[R-5.2.1-004] Based on MNO policies and/or regulatory requirements, the 3GPP system shall enable the UTM to take over the communication used to control the UAV.', '']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall enable intuitive human-device interaction through gesture recognition, surpassing conventional text or GUI-based interfaces. It shall facilitate touchless control of mobile devices, including smartphones, laptops, and smartwatches, with high-resolution, high-update-rate, and low-latency requirements to ensure accurate and responsive gesture detection.
-The system shall accurately identify motions and postures of human body parts such as the head, hands, and fingers for applications like human motion recognition, keystroke detection, sign language recognition, and touchless control.
-For touchless control applications, the system shall interpret identified gestures to specific device behaviors or operations, including screen lock/unlock, volume adjustment, and web page navigation.
-For immersive (XR) applications, the system shall integrate position tracking and mapping of the human body to provide a natural and intuitive interaction between the human and the machine. It shall support hand tracking beyond simulation, enabling interaction with the machine in both physical and virtual worlds separately.
-The system shall employ Near-field (NR) based RF sensing for gesture recognition, as it can detect small body movements, is not affected by ambient lighting conditions, and can handle occlusions in the environment. Additionally, NR-based RF sensing shall enable finger and hand tracking in a cost-effective and less complex manner.</t>
+          <t xml:space="preserve"> The system shall provide a mechanism for a UTM to offer route data along with flight clearance to a UAV, irrespective of whether the UTM operates in a centralized or decentralized manner. The system shall ensure the delivery of route modification information from a UTM to a UAS with a latency of less than 500 milliseconds. Additionally, the system shall guarantee the timely delivery of notifications received from a UTM to a UAV controller, also with a latency of less than 500 milliseconds. Furthermore, based on Mobile Network Operator (MNO) policies and/or regulatory requirements, the system shall enable the UTM to assume control of the communication channels used for UAV management.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.20.2	Pre-conditions&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.2.1	General&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22125[1].docx</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1533146617883736</v>
+        <v>0.1972734130419899</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['', 'Bob works in a seaport; he operates a lifting device. The place in which he is operating is surrounded by cranes, machines, containers, pipes, and barrels containing hazardous substances. ', '', 'A new mobile metaverse service is available: instead of locally controlling the device, Bob is installed in a safe remote location from which he is working. The surrounding information is available through a digital twin of the seaport and can come from various sources (IoT sensors, CCTV cameras, connected machines, and other vehicles). ', '', 'In order to maximize Bob’s efficiency, the metaverse service experience delivered by the system is real-time with non-noticeable latency. This use case includes both location related and location agnostic service experience examples.', '', 'The mobile metaverse service Bob uses for teleoperation is running on a mobile metaverse server. In addition, Bob is equipped with a head-mounted display and haptic gloves to remotely control the vehicle.', '']</t>
+          <t>['', 'NOTE: \tThe following requirements are valid for both centralized and decentralized UTM.', '', '[R-5.2.1-001] The 3GPP system shall provide a mechanism for a UTM to provide route data, along with flight clearance, to a UAV.', '', '[R-5.2.1-002] The 3GPP system shall be able to deliver route modification information received from a UTM to a UAS with a latency of less than 500ms.', '', '[R-5.2.1-003] The 3GPP system shall be able to deliver the notifications received from a UTM to a UAV controller with a latency of less than 500ms.', '', '[R-5.2.1-004] Based on MNO policies and/or regulatory requirements, the 3GPP system shall enable the UTM to take over the communication used to control the UAV.', '']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall provide a real-time, high-fidelity teleoperation experience for Bob, enabling him to effectively operate the lifting device in a hazardous seaport environment. The system shall ensure non-noticeable latency to maximize Bob's efficiency and safety. It shall integrate a digital twin of the seaport, utilizing data from IoT sensors, CCTV cameras, connected machinery, and other vehicles to offer a comprehensive situational awareness. Additionally, the system shall support location-agnostic service experiences, allowing Bob to be seamlessly connected to the metaverse server from a safe remote location. The system shall deliver this experience through a head-mounted display and haptic gloves, ensuring intuitive and precise control over the lifting device.</t>
+          <t xml:space="preserve"> The system shall provide a mechanism for a UTM to offer route data along with flight clearance to a UAV, irrespective of whether the UTM operates in a centralized or decentralized manner. The system shall ensure the delivery of route modification information from a UTM to a UAS with a latency of less than 500 milliseconds. Additionally, the system shall guarantee the timely delivery of notifications received from a UTM to a UAV controller, also with a latency of less than 500 milliseconds. Furthermore, based on Mobile Network Operator (MNO) policies and/or regulatory requirements, the system shall enable the UTM to assume control of the communication channels used for UAV management.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;5.1.6.2	Potential KPI Requirements&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;5.9.5	Existing features partly or fully covering the use case functionality&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22876-j00.docx</t>
+          <t>22856-j00.docx</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.154900322563745</v>
+        <v>0.1955509695980222</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['', 'Considering the widely-used AlexNet and VGG-16 model for proximity-based work task offloading, the following KPIs need to be supported:', '', 'Table 5.1-2\tKPI requirements for proximity-based work task offloading', '', '', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;UL data size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;(for sidelink)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;UL data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;(for sidelink)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Intermediate data uploading latency (including sidelink+Uu)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Image recognition latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;AlexNet model with 30FPS (NOTE 1)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0.15 - 0.02&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; &lt;/b&gt;&lt;/span&gt;&lt;span style="font-size:18pt"&gt;Mbyte for each frame&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;4.8 – 65 Mbit/s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-  2ms for Remote driving, AR displaying/gaming, and remote-controlled robotics;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-  10ms for video recognition;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;-  100ms for One-shot object recognition, Person identification, or photo enhancement in smart phone&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;VGG-16 model with 30FPS&lt;/span&gt;', '', '\t1)\t&lt;span style="font-size:18pt"&gt;- 1.5&lt;/span&gt; &lt;span style="font-size:18pt"&gt;Mbyte for each frame&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;24 - 720 Mbit/s&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;1s&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;NOTE 1: FPS stands for Frame Per Second&lt;/b&gt;&lt;/span&gt;', '', '', '']</t>
+          <t>['', 'TS 22.261 includes in Clause 6.40.2 the following requirement related to AI/ML model transfer in 5GS: ', '', '&lt;i&gt;“Based on operator policy, 5G system shall be able to provide means to predict and expose predicted network condition changes (i.e. bitrate, latency, reliability) per UE, to an authorized third party.” &lt;/i&gt;', '', 'This requirement is related to requirement [PR 5.9.6.2], but not exactly the same since the usage of predictive digital representation (e.g. avatar) models requires the knowledge of the end-to-end network conditions, in particular, latency. ', '']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall support the following Key Performance Indicators (KPIs) for proximity-based work task offloading using the AlexNet and VGG-16 models at 30 frames per second (FPS):
-1. The system shall handle UL data size for sidelink with a range of 0.15 to 0.02 Mbytes for each frame.
-2. The system shall manage UL data rate for sidelink within the range of 4.8 to 65 Mbit/s.
-3. The system shall ensure intermediate data uploading latency, including sidelink and Uu, is less than or equal to 2 milliseconds (ms) for applications such as remote driving, AR displaying/gaming, and remote-controlled robotics.
-4. The system shall provide image recognition latency of less than or equal to 10 milliseconds (ms) for video recognition tasks.
-5. The system shall guarantee a latency of 1 second (s) for One-shot object recognition, Person identification, or photo enhancement in smartphones.
-6. The system shall support the AlexNet model with a UL data size of 1.5 Mbytes for each frame and a UL data rate of 24 to 720 Mbit/s.
-7. The system shall also support the VGG-16 model with a UL data size of 1.5 Mbytes for each frame and a UL data rate of 24 to 720 Mbit/s, with a latency of 1 second (s).</t>
+          <t xml:space="preserve"> The system shall provide means to predict and expose predicted network condition changes, including bitrate, latency, and reliability, per User Equipment (UE) to an authorized third party, in accordance with operator policy, as part of the AI/ML model transfer process in 5G systems.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.15.2	Pre-conditions&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;6.2.2	Medical applications&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>22882-j00.docx</t>
+          <t>22263.docx</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1502372202327839</v>
+        <v>0.1817197944727994</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['', 'Eva watches videos during the commute. She receives 5G service from the mobile network operator A.', '', 'The 5G system operated by operator A is powered by both of renewable energy (e.g., solar energy) and non-renewable energy (e.g., coal). The ratio of renewable energy measures the ratio of the power that is used from renewable energy sources as a percentage of total power usage in a given time unit. Calculation of ratio of renewable energy is done by means of averaging or applying a statistical model.', '', 'The operator A offers a “green communication service option”, in which the service has adaptable QoS levels considering the ratio of renewable energy and the subscriber’s preferences, e.g., the operator A can provide a communication service with bit rate of 30Mbps and low ratio of renewable energy, which can be adapted to the service with bit rate is 10Mbps when high ratio of renewable energy is more desirable to the subscriber.', '', 'The operator A monitors the supply of renewables for its 5G system and adjust the operation of communication services. Following the pre-agreed QoS requirements with a subscriber, the operator A adjusts the communication services based on the supply of renewable energy. ', '', 'Eva loves our planet, so she subscribes the optional green communication service. Therefore, the operator can determine to use a higher latency but greener network function entities (e.g., located in a faraway but powered by 80%+ renewable energy large scale computing/communication center) to provide services to Eva. ', '', 'NOTE: This green service ensures that QoS level criteria continues to be met (i.e., there is no trade-off between energy efficiency and service quality) since all the adapted QoS levels are satisfied by the subscriber based on the pre-agreement.', '']</t>
+          <t>['', 'Table 6.2.21: Performance requirements for low latency ultra-reliable imaging/video traffic for medical applications', '', 'Profile', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value in %', '', 'Communication service reliability: Mean Time Between Failure', '', 'End-to-end latency: maximum', '', 'Bit rate', '', 'Direction', '', 'Message', '', 'Size', '', '[byte]', '', 'Survival time', '', 'UE speed', '', '(km/h)', '', '# of active UEs', '', 'connection', '', 'Service Area', '', '', '', 'UHD medical video over NPNs', '', '&amp;gt;99.99999', '', '&amp;gt;1 year', '', '&amp;lt;1 ms', '', '&amp;lt; 50 Gbit/s', '', 'UL; DL', '', '~1500 - ~9000 (note 1)', '', '~8ms', '', 'stationary', '', '1', '', '100 m2', '', 'Ultrasound images over NPNs', '', '&amp;gt;99.9999', '', '&amp;gt;1 year', '', '&amp;lt;10ms', '', '500 Mbit/s - 4 Gbit/s (note 2)', '', 'UL; DL', '', '~1500', '', '20-100 ms (note 2)', '', 'stationary', '', '1', '', '100 m2', '', 'UHD video for telesurgery over PLMNs', '', '&amp;gt;99.9999', '', '&amp;gt;1 year', '', '&amp;lt; 20 ms', '', '&amp;lt; 6 Gbit/s', '', 'UL; DL', '', '~1500 - ~9000 (note 1)', '', '~16 ms', '', 'stationary', '', '&amp;lt;2 per 1000 km&lt;sup&gt;2&lt;/sup&gt;', '', '&amp;lt;400 km (note 3)', '', 'UHD video for medical examination over PLMNs', '', '&amp;gt;99.99', '', '&amp;gt;1 month', '', '&amp;lt;20 ms ', '', '&amp;lt;4 Gbit/s ', '', 'UL; DL', '', '~1500 -9000 ', '', '~16 ms ', '', 'stationary', '', '&amp;lt;20 per 100 km2 ', '', '&amp;lt;50 km (note 3)', '', 'Ultrasound images over PLMNs', '', '&amp;gt;99.999', '', '&amp;gt;&amp;gt;1 month (&amp;lt;1 year)', '', '&amp;lt;20 ms', '', '&amp;lt;200 Mbit/s', '', 'UL; DL', '', '~1500', '', '~16 ms', '', 'stationary', '', '&amp;lt;20 per 100 km2', '', '&amp;lt;50 km (note 3)', '', 'CT/MR real time scan over PLMNs', '', '&amp;gt;99.999', '', '&amp;gt;&amp;gt;1 month (&amp;lt;1 year)', '', '&amp;lt; 100ms', '', '&amp;lt;670 Mbit/s', '', 'UL, DL', '', '~1500', '', '&amp;lt;100 ms', '', '&amp;lt;150', '', '&amp;lt;20 per 100 km&lt;sup&gt;2&lt;/sup&gt;', '', '&amp;lt;50 km (note 3)', '', 'NOTE 1: \tMTU size of 1500 bytes is not generally suitable to gigabits connections as it induces many interruptions and loads on CPUs. On the other hand, Ethernet jumbo frames of up to 9000 bytes require all equipment on the forwarding path to support that size in order to avoid fragmentation.', '', 'NOTE 2: \tlower values considered for 2D ultrasounds images and higher values for 3D ultrasound images', '', 'NOTE 3:\tMaximum straight-line distance between UEs.', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall dynamically adjust the Quality of Service (QoS) levels for Eva's green communication service based on the real-time ratio of renewable energy supply. This adjustment should align with Eva's subscribed preferences, ensuring that the service maintains the pre-agreed QoS criteria without compromising on energy efficiency or service quality. Specifically, the system shall:
-1. Monitor the supply of renewable energy for the 5G network operated by operator A.
-2. Adapt the communication service parameters, such as bit rate, to match the availability of renewable energy, transitioning between lower and higher bit rates as necessary.
-3. Utilize network function entities powered by a high percentage of renewable energy (e.g., 80%+) for providing services to Eva, even if these entities are located further away, to meet the green communication service option's requirements.
-4. Ensure that any adjustments made to the QoS levels, including latency and bit rate, continue to satisfy the pre-agreed service quality standards as per the subscriber's preferences.
-5. Maintain a transparent and user-friendly interface for Eva to understand and manage her green communication service settings, including the impact of renewable energy supply on her service experience.</t>
+          <t xml:space="preserve"> The system shall support low latency ultra-reliable imaging/video traffic for medical applications with a target service availability of greater than 99.99999%, a mean time between failures exceeding 1 year, and an end-to-end latency of less than 1 millisecond. It must also provide data transmission rates below 50 Gbit/s in both directions, handle message sizes ranging from approximately 1500 to 9000 bytes, and support a survival time of over 100 meters squared for UHD medical video over NPNs, ultrasound images over PLMNs, and CT/MR real-time scans over PLMNs with specified maximum straight-line distances between UEs.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;C.1.1	Area of consideration&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;8.2.1			Split AI/ML operation between AI/ML endpoints &lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22876-j00.docx</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1707627659838373</v>
+        <v>0.179197761536658</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['', 'For our discussion of communication in automation we apply a definition of the area of consideration for industrial radio communication that is found elsewhere in the literature [4]. This definition is illustrated in Figure C.1.1-1. ', '', '----media/image14.emf----', '', 'NOTE:\tBlue objects: communication system; other objects: automation application system.', '', 'Figure\xa0C&lt;b&gt;.&lt;/b&gt;1.1-1: Abstract diagram of the area of consideration for industrial radio communication ', '', 'Here, a distributed automation application system is depicted. This system includes a distributed automation application, which is the aggregation of several automation functions. These can be functions in sensors, measurement devices, drives, switches, I/O devices, encoders etc. All of these functions contribute toward the control of physical objects. Field bus systems, industrial Ethernet systems, or wireless communication systems can be used for connecting the distributed functions. The essential function of these communication systems is the distribution of messages among the distributed automation functions. For cyber-physical control applications, the dependability of the entire communication system and/or of its devices or its links is essential. Communication functions are realised by the respective hardware and software implementation.', '', 'In order for the automation application system to operate, messages need to be exchanged between spatially distributed application functions. For that process, messages are exchanged at an interface between the automation application system and the communication system. This interface is termed the reference interface. Required and guaranteed values for characteristic parameters, which describe the behavioural properties of the radio communication system, as well as some influence quantities refer to that interface.', '', 'The conditions that influence the behaviour of wireless communication are framed by the communication requirements of the application (e.g., end-to-end latency), the characteristics of the communication system (e.g., output power of a transmitter), and the transmission conditions of the media (e.g., signal fluctuations caused by multipath propagation). ', '', 'General requirements from the application point of view for the time and failure behaviour of a communication system are mostly related to an end-to-end link. It is assumed in the present document that the behaviour of the link is representative of the communication system as a whole and of the entire scope of the application. ', '']</t>
+          <t>['', 'Table 8.1-1 KPI Table of Split AI/ML operation between AI/ML endpoints for AI inference by leveraging direct device connection', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Max allowed UL end-to-end latency (NOTE 1)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;UL Payload size (Intermediate data size)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;UL Experienced data rate &lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Service area dimension&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Communication service availability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Remarks&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;2–100 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0.1-1.5 Mbyte for each frame &lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;4.8-720 Mbps &lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:18pt"&gt;Proximity-based work task offloading for Remote driving, AR displaying/gaming, remote-controlled robotics, video recognition and One-shot object recognition&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0.000016 – 1.6 MByte&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(8 bits data format)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0.128 - 1.28 Gbps&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;900 m&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:18pt"&gt;', '(30\xa0m x 30\xa0m)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;99.999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;99.999\xa0%&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Local AI/ML model split on factory robots &lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;10 ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0.000064 – 6.4 Mbyte&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(32 bits data format)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;0.512 - 5.12 Gbps&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:18pt"&gt;Local AI/ML model split on factory robots&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE 1: For AIML model splitting, the UL intermediate data size is much bigger than DL result data size.&lt;/span&gt;', '', '', '']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall ensure dependable communication functions by realizing essential hardware and software implementations for distributed automation application systems. It shall provide interfaces, termed reference interfaces, for exchanging messages between spatially distributed application functions and the communication system. The system shall meet communication requirements, such as end-to-end latency, and consider characteristics of the communication system, like transmitter output power, as well as transmission conditions of the media, including signal fluctuations due to multipath propagation.</t>
+          <t xml:space="preserve"> The system shall ensure a maximum allowed end-to-end latency of 2 to 100 milliseconds for AI inference by leveraging direct device connection.
+The system shall handle UL payload sizes ranging from 0.1 to 1.5 megabytes for each frame.
+The system shall support an experienced data rate between 4.8 to 720 megabits per second.
+The system shall operate effectively within a service area dimension of 900 square meters, specifically a 30m x 30m space.
+The system shall guarantee a communication service availability of 99.999%.
+The system shall maintain a reliability rate of 99.999%.
+The system shall be capable of proximity-based work task offloading for applications such as remote driving, AR displaying/gaming, remote-controlled robotics, video recognition, and one-shot object recognition.
+The system shall adhere to the specified data formats, ensuring 8 bits data format for intermediate data size and 32 bits data format for DL result data size.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.14.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h4&gt;7.3.2.1	General&lt;/h4&gt;</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22882-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1940318099147854</v>
+        <v>0.1936076393909013</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['', 'Global warming caused by excessive emissions of GHG (e.g., carbon dioxide) due to human activity (e.g., burning fossil fuels for electricity generation) is the main driver to climate change, which poses a significant threat to society and the environment. &lt;span style="color:000000"&gt;To achieve carbon neutrality, it is important to reduce the GHG incl. carbon emissions in the first place rather than offset them later. Recent advancements in communication and computing capabilities of networks (e.g., 5GS, cloud services) enables offloading tasks to networked and distributed computing nodes (e.g., edge computing, cloud computing) for a wide range of services. However, the rising demand for such services in turn triggers a rising demand for energy and a greater risk of an even higher resulting GHG footprint. 3GPP plays a crucial role in the ICT sector to enable the deployment of these technologies on a global scale and therefore must also play a central role in enabling a sustainable future.&lt;/span&gt;', '', 'The adoption of alternative sustainable sources of energy incl. renewable energy (e.g., solar, wind, hydropower, geothermy) could help offset the GHG footprint of energy generation based on fossil fuels, even though their corresponding environmental impact also need to be considered. From an ICT standpoint and, 3GPP system in particular, the energy used by computing nodes in networks can be from varied energy with different related levels of environmental impact incl. GHG emissions. Due to the highly variable and unpredictable nature of renewable energy sources, the supply of renewable energy varies substantially by time and location. Hence, it is critical to take temporal and spatial dimensions of energy sources into account to accomplish compute tasks not only for a better traceability of the energy sources used but in turn for enabling a more sustainable energy use to achieve those tasks.', '', 'Up until now usually a system is designed to finish compute tasks as soon as possible (high throughput) and indicate results to the requester as soon as possible (low latency). However, some compute tasks have flexibility in both when and where they are executed, i.e., such type of workload could be executed in any computing node and tolerate some delays if the workload gets completed within certain given deadline. For example, some of AI/ML training, simulation, and video processing tasks might not require a quick response, which would &lt;span style="color:000000"&gt;allow flexibility to delay the execution of the related workloads in a computing node until, e.g., the utilized energy is deemed satisfactory in terms of GHG emissions. Such flexibility further allows to route workloads to a computing node using the (most) sustainable energy sources at that moment. As part of service, 3GPP system is able to execute compute tasks in a sustainable way by leveraging such flexibility.&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;In addition, consuming the renewable energy immediately when they are available, instead of storing them for the future use (e.g., in a big battery system), can also bring some economic benefits to operators or service providers, because this can reduce the cost and investment for scaling the energy storage system needed by the overall system. &lt;/span&gt;', '', 'In the following use case, by considering the temporal and spatial information of sustainable energy source and availability, the possibility of reduction of the GHG footprint for application services is explored.', '']</t>
+          <t>['', 'The 5G System shall provide different 5G positioning services with configurable performances working points (e.g. accuracy, positioning service availability, positioning service latency, energy consumption, update rate, TTFF) according to the needs of users, operators and third parties.', '', 'The 5G system shall support the combination of 3GPP and non-3GPP positioning technologies to achieve performances of the 5G positioning services better than those achieved using only 3GPP positioning technologies. ', '', 'NOTE 1:\tFor instance, the combination of 3GPP positioning technologies with non-3GPP positioning technologies such as GNSS (e.g. Beidou, Galileo, GLONASS, and GPS), Terrestrial Beacon Systems (TBS), sensors (e.g. barometer, IMU), WLAN/Bluetooth-based positioning, can support the improvement of accuracy, positioning service availability, reliability and/or confidence level, the reduction of positioning service latency, the increase of the update rate of the position-related data, increase the coverage (service area).', '', 'NOTE 2:\tThe combination can vary over time to optimise the performances, and can be the combination of multiple positioning technologies at the same epoch and/or the combination of multiple positioning technologies at different epochs.', '', 'The corresponding positioning information shall be acquired in a timely fashion, be reliable, and be available (e.g. it is possible to determine the position).', '', 'UEs shall be able to share positioning information between each other e.g. to a controller if the location information cannot be processed or used locally. ', '']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall:
-1. Enable the deployment of communication and computing technologies on a global scale by 3GPP to facilitate a sustainable future.
-2. Reduce greenhouse gas (GHG) emissions, including carbon emissions, by prioritizing the reduction of GHGs at the source rather than relying on offsets.
-3. Leverage advancements in network capabilities, such as 5G cloud services, for offloading tasks to distributed computing nodes, while minimizing the associated energy demand and GHG footprint.
-4. Integrate alternative sustainable energy sources, including solar, wind, hydropower, and geothermal, to offset the GHG footprint of energy generation from fossil fuels, considering the environmental impact of each energy source.
-5. Account for the temporal and spatial variability of renewable energy sources to optimize compute task execution, ensuring energy use is sustainable and traceable in terms of GHG emissions.
-6. Provide flexibility in compute task execution timing and location, allowing for the deferral of workloads until the utilized energy meets satisfactory GHG emissions criteria.
-7. Route compute tasks to computing nodes using the most sustainable energy sources available at the moment of execution.
-8. Explore the economic benefits of consuming renewable energy immediately rather than storing it for future use, reducing the need for large-scale energy storage systems and associated costs.
-9. Support the execution of compute tasks in a sustainable manner as part of a service system, such as a 3GPP system, by leveraging the flexibility and sustainable energy routing capabilities.</t>
+          <t xml:space="preserve"> The system shall provide configurable 5G positioning services with varying performance characteristics such as accuracy, availability, latency, energy consumption, update rate, and Time to First Fix (TTFF), tailored to the specific needs of users, operators, and third parties.
+The system shall support the integration of both 3GPP and non-3GPP positioning technologies to enhance the performance of 5G positioning services beyond what is achievable using solely 3GPP technologies.
+The system shall ensure that positioning information is acquired promptly, maintains high reliability, and is readily available for determination of accurate positions.
+The system shall facilitate the sharing of positioning information among User Equipments (UEs), including the capability to transmit such data to a controller when local processing or usage is not feasible.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.4.4.2	Distributed automation without GOOSE&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;6.7.1		Description&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1527095020068013</v>
+        <v>0.1669783073705911</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['', 'If the control of electrical power distribution components is performed from a central system entity, the controlled entities can be operated in a way that a controlled service restoration is possible without the use of GOOSE. Though this is not as effective as the communication has less strict requirements, this form of distribution automation is nevertheless effective, and it is also compliant with IEC standards and widely deployed in energy systems. The associated KPI is provided in Table A.4.4.2-1.', '', 'Table A.4.4.2-1: KPI for distributed automation without use of GOOSE', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area ', '', '1', '', '99.999', '', '–', '', '100 ms to 2\xa0s', '', '9.6 to100', '', '–', '', '–', '', '–', '', '–', '', 'Concentrated rural: 70.8;', '', 'Dispersed rural and semi-urban: 7.6;', '', 'rural support: 0.048;', '', 'urban: 11.0', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Distributed automation without use of GOOSE using a centralized architecture.', '']</t>
+          <t>['', 'The 5G network will support many commercial services (e.g. medical) and regional or national regulatory services (e.g. MPS, Emergency, Public Safety) with requirements for priority treatment. Some of these services share common QoS characteristics such as latency and packet loss rate but can have different priority requirements. For example, UAV control and air traffic control can have stringent latency and reliability requirements but not necessarily the same priority requirements. In addition, voice-based services for MPS and Emergency share common QoS characteristics as applicable for normal public voice communications yet can have different priority requirements. The 5G network will need to support mechanisms that enable the decoupling of the priority of a particular communication from the associated QoS characteristics such as latency and reliability to allow flexibility to support different priority services (that need to be configurable to meet operator needs, consistent with operator policies and corresponding national and regional regulatory policies).', '', 'The network needs to support flexible means to make priority decisions based on the state of the network (e.g. during disaster events and network congestion) recognizing that the priority needs can change during a crisis. The priority of any service can be different for a user of that service based on operational needs and regional or national regulations. Therefore, the 5G system should allow a flexible means to prioritise and enforce prioritisation among the services (e.g. MPS, Emergency, medical, Public Safety) and among the users of these services. The traffic prioritisation can be enforced by adjusting resource utilization or pre-empting lower priority traffic.', '', 'The network must offer means to provide the required QoS (e.g. reliability, latency, and bandwidth) for a service and the ability to prioritize resources when necessary to meet the service requirements. Existing QoS and policy frameworks handle latency and improve reliability by traffic engineering. In order to support 5G service requirements, it is necessary for the 5G network to offer QoS and policy control for reliable communication with latency required for a service and enable the resource adaptations as necessary.', '', 'The network needs to allow multiple services to coexist, including multiple priority services (e.g. Emergency, MPS and MCS) and must provide means to prevent a single service from consuming or monopolizing all available network resources, or impacting the QoS (e.g. availability) of other services competing for resources on the same network under specific network conditions. For example, it is necessary to prevent certain services (e.g. citizen-to-authority Emergency) sessions from monopolizing all available resources during events such as disaster, emergency, and DDoS attacks from impacting the availability of other priority services such as MPS and MCS. ', '', 'Also, as 5G network is expected to operate in a heterogeneous environment with multiple access technologies, multiple types of UE, etc., it should support a harmonised QoS and policy framework that applies to multiple accesses.', '', 'Further, for QoS control in EPS only covers RAN and core network, but for 5G network E2E QoS (e.g. RAN, backhaul, core network, network to network interconnect) is needed to achieve the 5G user experience (e.g. ultra-low latency, ultra-high bandwidth).', '']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall ensure a communication service availability target value of 99.999% for distributed automation without the use of GOOSE, maintaining an end-to-end latency between 9.6 to 100 milliseconds and a user experienced data rate ranging from 9.6 to 100 Mbps. It shall support a message size of unspecified bytes, with a transfer interval target value not explicitly defined, and operate effectively within a service area spanning several square kilometers. The system shall comply with IEC standards and be capable of handling a specified number of User Equipments (UEs) across concentrated rural, dispersed rural and semi-urban, rural support, and urban environments, as detailed in Table A.4.4.2-1.</t>
+          <t xml:space="preserve"> The system shall support mechanisms that enable the decoupling of the priority of a particular communication from its associated Quality of Service (QoS) characteristics, such as latency and reliability, to allow for flexibility in supporting different priority services. This decoupling should be configurable to meet operator needs, consistent with operator policies, and in accordance with national and regional regulatory policies.
+The system shall provide flexible means to make priority decisions based on the state of the network, such as during disaster events and network congestion, recognizing that priority needs can change dynamically during a crisis.
+The system shall allow for the flexible prioritization and enforcement of prioritization among services, such as Emergency, MPS, and MCS, as well as among the users of these services, based on operational needs and regional or national regulations. This enforcement can be achieved by adjusting resource utilization or pre-empting lower priority traffic when necessary.
+The system shall offer comprehensive QoS and policy control to provide the required QoS for a service, including reliability, latency, and bandwidth, and enable resource adaptations as necessary to meet service requirements.
+The system shall ensure that multiple services, including multiple priority services, can coexist without a single service monopolizing all available network resources or impacting the QoS of other competing services under specific network conditions.
+The system shall support a harmonized QoS and policy framework applicable to multiple access technologies and user equipment (UE) types in a heterogeneous environment, ensuring consistent service quality across the network.
+The system shall extend QoS control beyond the Radio Access Network (RAN) and core network to encompass End-to-End (E2E) QoS, covering RAN, backhaul, core network, and network-to-network interconnect, to achieve the 5G user experience, including ultra-low latency and ultra-high bandwidth.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.12.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;6.7.2		Requirements&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>22865-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1691475627719486</v>
+        <v>0.1743158625565664</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['', 'In Mediterranean climate regions, forest fires are quite common in summer months due to temperature rise [14]. The early detection and monitoring of forest fire is important for fire suppression quickly and reducing the loss of human and property. Therefore, how to detect the forest fire in real time and accurately is an urgent problem to be solved. Another problem is that due to extremely low population density and complex geography, these regions are often not covered by terrestrial networks. ', '', 'UAV equipped with satellite access capabilities is a feasible method, mainly through the following steps:', '', '--\tThe UAV collects real-time information (including high-precision three-dimensional surface topographic data, real-time pictures, real-time video, etc.);', '', '--\tThis real-time information is transmitted to the forest fire monitoring centre via the 5G network with satellite access;', '', '--\tThe forest fire monitoring centre monitors whether there is a fire, and may request the position of the UAV and adjust its route;', '', '--\tThe positioning services request and adjustment command are sent to the UAV via the 5G network with satellite access.', '', 'Forest fire monitoring centre with AI system can optimize the route through real-time information collected by UAV. In addition, the 5G system provides high-precision positioning of the UAV, which has been specified in 3GPP TS 22.261 [2].  But for UAVs using only satellites access, 5G system is difficult to provide high-precision positioning service under low latency. The end-to-end delay of LEO based satellite access can reach 35 ms [2]. After 5G system gets the real-time location data of flying UAV, it sends them to a trusted third party (e.g., The forest fire monitoring centre equipped with AI system) for UAVs to assist flying.', '']</t>
+          <t>['', 'The 5G system shall allow flexible mechanisms to establish and enforce priority policies among the different services (e.g. MPS, Emergency, medical, Public Safety) and users.', '', 'NOTE 1:\tPriority between different services is subject to regional or national regulatory and operator policies.', '', 'The 5G system shall be able to provide the required QoS (e.g. reliability, end-to-end latency, and bandwidth) for a service and support prioritization of resources when necessary for that service.', '', 'The 5G system shall enable the network operator to define and statically configure a maximum resource assignment for a specific service that can be adjusted based on the network state (e.g. during congestion, disaster, emergency and DDoS events) subject to regional or national regulatory and operator policies.', '', 'The 5G system shall allow decoupling of the priority of a particular communication from the associated QoS characteristics such as end-to-end latency and reliability.', '', 'The 5G system shall be able to support a harmonised QoS and policy framework applicable to multiple accesses.', '', 'The 5G system shall be able to support E2E (e.g. UE to UE) QoS for a service.', '', 'NOTE 2:\tE2E QoS needs to consider QoS in the access networks, backhaul, core network, and network to network interconnect.', '', 'The 5G system shall be able to support QoS for applications in a Service Hosting Environment.', '', 'A 5G system with multiple access technologies shall be able to select the combination of access technologies to serve an UE on the basis of the targeted priority, pre-emption, QoS parameters and access technology availability. ', '', 'The 5G system shall support a mechanism to determine suitable QoS parameters for traffic over a satellite backhaul, based e.g. on the latency and bandwidth of the specific backhaul . ', '', 'NOTE 3: The case where a backhaul connection has dynamically changed latency and/or bandwidth needs to be considered.', '']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall:
-1. Equip UAVs with capabilities to collect real-time information, including high-precision three-dimensional surface topographic data, real-time images, and video.
-2. Transmit the collected real-time information to the forest fire monitoring center via a 5G network with satellite access capabilities.
-3. Enable the forest fire monitoring center, equipped with an AI system, to analyze the real-time data for early detection and monitoring of forest fires.
-4. Allow the forest fire monitoring center to request the UAV's position and adjust its flight path in real-time, in response to detected fire locations.
-5. Provide high-precision positioning services for UAVs through the 5G network with satellite access, as specified in 3GPP TS 22.261.
-6. Optimize UAV flight routes in real-time using AI systems at the forest fire monitoring center, based on the real-time information collected by the UAVs.
-7. Ensure the end-to-end delay of LEO-based satellite access does not hinder the high-precision positioning service, despite potential latencies up to 35 ms.
-8. Send real-time location data of UAVs to a trusted third party, such as the forest fire monitoring center, for further assistance and coordination in fire suppression efforts.</t>
+          <t xml:space="preserve"> The system shall allow flexible mechanisms to establish and enforce priority policies among different services and users.
+The system shall provide the required Quality of Service (QoS) for a service, including reliability, end-to-end latency, and bandwidth, and support prioritization of resources when necessary.
+The system shall enable network operators to define and statically configure a maximum resource assignment for a specific service, which can be adjusted based on network state, while adhering to regional or national regulatory and operator policies.
+The system shall decouple the priority of a communication from its associated QoS characteristics, allowing for independent management of service priority and QoS attributes such as end-to-end latency and reliability.
+The system shall support a harmonized QoS and policy framework that is applicable across multiple access technologies.
+The system shall enable end-to-end (E2E) QoS for services, considering QoS in access networks, backhaul, core network, and network-to-network interconnect.
+The system shall support Quality of Service (QoS) for applications within a Service Hosting Environment.
+The system shall be capable of selecting the optimal combination of multiple access technologies to serve a User Equipment (UE) based on targeted priority, pre-emption QoS parameters, and access technology availability.
+The system shall support a mechanism to determine suitable QoS parameters for traffic over a satellite backhaul, taking into account the latency and bandwidth of the specific backhaul.
+The system shall accommodate scenarios where backhaul connection latency and/or bandwidth dynamically change, ensuring QoS parameters are appropriately adjusted.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.2.5	Cooperative carrying&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;6.17.2	Requirements&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.1592461210723559</v>
+        <v>0.1975543646969379</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['', 'In a smart factory, large or heavy work pieces will be carried from one place to another by multiple mobile robots or AGVs. These mobile robots / AGVs need to work together in order to carry the large or heavy work piece safely. This cooperation is achieved with a cyber-physical control application that controls the drives and movements of the mobile robots / AGVs in a coordinated way, so that large or heavy work pieces are carried smoothly and safely from one place to another (see Figure 5.11.1-1).', '', '----media/image6.emf----', '', 'Figure A.2.2.5-1: Mobile robots / AGVs carrying a large work piece cooperatively', '', 'The communication between the collaborating mobile robots / AGVs requires high communication service availability and ultra-low latency. The exchange of control commands and control feedback is done with periodic deterministic communication and using time-sensitive networking.', '', 'There are two distinct use case variants of cooperative carrying: (1) carrying of rigid or fragile work pieces that require very precise coordination between the collaborating mobile robots, and (2) carrying of more flexible or elastic work pieces that allow some tolerance in the coordinated movements of the collaborative mobile robots. The higher tolerance in the coordinated movements allows for either faster movement of the work piece or longer transfer intervals (trade-off between UE speed and transfer interval).', '', 'Table A&lt;b&gt;.&lt;/b&gt;2.2.5-1: Service performance requirements for cooperative carrying', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', '(note 1)', '', 'Survival time', '', '(note 1)', '', 'UE ', '', 'speed', '', '# of UEs', '', 'Service area', '', '(note 2)', '', '1', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; 0.5 x transfer interval', '', '2.5 Mbit/s', '', '250;', '', '500 with localisation information', '', '&amp;gt; 5\xa0ms', '', '&amp;gt; 2.5\xa0ms', '', '&amp;gt; 1.7\xa0ms', '', '0', '', 'transfer interval', '', '2 x transfer interval', '', '≤\xa06\xa0km/h', '', '2 to 8', '', '10\xa0m x 10\xa0m x 5\xa0m;', '50\xa0m x 5\xa0m x 5\xa0m', '', '2', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; 0.5 x transfer interval', '', '2.5 Mbit/s', '', '250;', '', '500 with localisation information', '', '&amp;gt; 5\xa0ms', '', '&amp;gt; 2.5\xa0ms', '', '&amp;gt; 1.7\xa0ms', '', '0', '', 'transfer interval', '', '2 x transfer interval', '', '≤\xa012\xa0km/h', '', '2 to 8', '', '10\xa0m x 10\xa0m x 5\xa0m;', '50\xa0m x 5\xa0m x 5\xa0m', '', 'NOTE 1:\tThe first value is the application requirement, the other values are the requirement with multiple transmission of the same information (two or three times respectively).', '', 'NOTE 2:\tService Area for direct communication between UEs (length x width x height). The group of UEs with direct communication might move throughout the whole factory site (up to several km²)', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic deterministic communication for cooperative carrying of fragile work pieces (UE to UE / ProSe communication).', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Periodic deterministic communication for cooperative carrying of elastic work pieces (UE to UE / ProSe communication).', '']</t>
+          <t>['', 'The 5G system shall support the extreme long-range coverage (up to 100 km) in low density areas (up to 2 user/km&lt;sup&gt;2&lt;/sup&gt;).', '', 'The 5G system shall support a minimum user throughput of 1 Mbit/s on DL and 100 kbit/s on UL at the edge of coverage.', '', 'The 5G system shall support a minimum cell throughput capacity of 10 Mbit/s/cell on DL (based on an assumption of 1 GB/month/sub).', '', 'The 5G system shall support a maximum of [400] ms E2E latency for voice services at the edge of coverage.', '']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall ensure high communication service availability and ultra-low latency for the exchange of control commands and control feedback between collaborating mobile robots/AGVs in a cooperative carrying scenario. The communication service reliability should have a mean time between failures of approximately 10 years. The end-to-end latency must not exceed 5 milliseconds. The service bitrate should be user experienced at a rate of 2.5 Mbit/s. The message size should be within the specified byte range. The transfer interval should be targeted at a value of 2 times the transfer interval, with a maximum speed limit of 6 to 8 km/h. The system shall support both use case variants of cooperative carrying, with precise coordination for fragile work pieces and tolerance for elastic work pieces, while maintaining the specified service performance requirements.</t>
+          <t xml:space="preserve"> The system shall support extreme long-range coverage up to 100 km in low-density areas with up to 2 users per square kilometer. It shall provide a minimum user throughput of 1 Mbit/s for downlink (DL) and 100 kbit/s for uplink (UL) at the edge of coverage. Additionally, it shall ensure a minimum cell throughput capacity of 10 Mbit/s per cell for downlink (DL), assuming a data usage of 1 GB per month per subscriber. Furthermore, the system shall guarantee a maximum end-to-end latency of 400 milliseconds for voice services at the edge of coverage.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.2.1	Overview&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.7.5	Existing features partly or fully covering the use case functionality&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>22289.docx</t>
+          <t>22882-j00.docx</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.1543093411475042</v>
+        <v>0.1999157622368515</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['', 'In future, for example trains will simultaneously exchange control information and status information with the responsible traffic management system on the ground. This procedure is a key factor for automated operation without a driver. Nonetheless, also traditional voice communication is needed to allow train staff to communicate with the ground staff.', '', 'Trains are operated at speeds up to 500\xa0km/h. Under these conditions voice, video and data communication are to be provided. Especially train control communication is of extreme importance to ensure passengers safety.', '', 'In normal rail operation and in the context of Grade of Automation (GoA3 and GoA4) video/radar/lidar sensors on trains and on ground will be used to:', '', '--\tdetect hazards on tracks, and', '', '--\tensure a safe passenger (dis-)embarkation (e.g., ensure that passengers are not stuck in doors, or between platform and train, when trains depart, and trigger emergency braking or postpone train departure if any hazardous situation is detected).', '', 'The relative braking distance of a rail vehicle is an important indicator of the safety, which is significantly influenced by the transmission reliability between train and controller at low speeds up to 40\xa0km/h. This mainly applies to the entry and exit of trains in the station area or displacement manoeuvres within marshalling yards. The reliability and &lt;span style="background-color:green"&gt;latency&lt;/span&gt; of the transmission of the control command signalling of speeds up to 40\xa0km/h has a direct impact on the braking distance.', '']</t>
+          <t>['', 'The QoS monitoring requirements have been specified in the TS22.261 section 6.23. But it has not any consideration on energy consumption. Some related requirements are listed below:', '', '&lt;i&gt;The 5G system shall be able to provide real time QoS parameters and events information to an authorized application/network entity. &lt;/i&gt;', '', '&lt;i&gt;NOTE 2:&lt;/i&gt;\t&lt;i&gt;The QoS parameters to be monitored and reported can include latency (e.g. UL/DL or round trip), jitter, and packet loss rate.&lt;/i&gt;', '', '&lt;i&gt;The 5G system shall support different levels of granularity for QoS monitoring (e.g. per flow or set of flows)&lt;/i&gt;', '', '&lt;i&gt;The 5G system shall support an update/refresh rate for real time QoS monitoring with a specified value (e.g., at least one update per second)&lt;/i&gt;', '', 'In TR 28.829 [25], there are solutions of collect network information of energy utility via OA&amp;amp;M. ', '', 'In TR28.913 [26], section 4.6, the key issue is to add reliability KPI into the URLLC network slice energy efficiency formula. In this key issue, the energy efficiency is calculated in the 3GPP domain, the related information is not exposed together to external.', '']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall simultaneously exchange control and status information with the traffic management system for automated operation without a driver. It shall also provide traditional voice communication to facilitate interaction between train and ground staff.
-The system shall offer voice, video, and data communication services to support train operations at speeds up to 500 km/h, with a particular emphasis on train control communication to ensure passenger safety.
-The system shall utilize video/radar/lidar sensors for hazard detection on tracks and to ensure safe passenger embarkation and disembarkation, including emergency braking or postponement of train departure in case of hazardous situations.
-The system shall ensure the reliability and low latency of control command signaling for speeds up to 40 km/h, as this is crucial for determining the relative braking distance of rail vehicles, especially during station entry and exit, and within marshalling yards.</t>
+          <t xml:space="preserve"> The system shall provide real-time Quality of Service (QoS) parameters and events information to an authorized application or network entity, including but not limited to latency (e.g., UL/DL or round-trip latency), jitter, and packet loss rate. The system shall support varying levels of granularity for QoS monitoring, such as per flow or a set of flows. Additionally, the system shall ensure an update or refresh rate for real-time QoS monitoring that meets or exceeds a specified value, for example, at least one update per second. Furthermore, the system shall incorporate energy consumption considerations into QoS monitoring requirements, aligning with the principles outlined in TS22.261 section 6.23, and support the collection of network information related to energy utility via Operations, Administration, and Maintenance (OAM) as per TR 28.829. It shall also integrate reliability Key Performance Indicators (KPIs) into the Ultra-Reliable Low Latency Communications (URLLC) network slice energy efficiency formula, as detailed in TR 28.913 section 4.6, while maintaining the confidentiality of related information within the 3GPP domain.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.3	Distributed voltage control&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;6.23.1	Description &lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.1675812985626639</v>
+        <v>0.1849207982644625</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['', 'In the evolution towards 100\xa0% renewable electric power production, the objective of voltage control is to balance the voltage in future low voltage distribution grids connecting local loads and prosumers, as well as energy storage facilities. The aim is to stabilise the voltage as locally as possible, so that decisions and control commands can be issued as quickly as possible. Distributed voltage control is a challenging and demanding control application. Consumer devices rely on having stable voltage levels to operate successfully. When future energy networks rely on thousands of local energy generation units relying mostly on solar and wind power, then it is crucial to stabilise the voltage levels in all segments of the distribution grid. Inverters, or electronic power converters, measure the voltage and power and change the amount of power injected into the grid, and they connect and disconnect end points from the distribution network.', '', 'Distributed control means that the automated voltage control shall be performed by the local voltage control units based on local &lt;i&gt;and neighbouring&lt;/i&gt; voltage and impedance values. Statistics and other information shall be communicated to the central distribution management system, though. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;4.3-1: Service performance requirements for distributed voltage control', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', '# of UEs', '', 'Service area', '', '1', '', '99.999', '', 'TBD', '', '~ 100 ms', '', '~ 100', '', '~\xa0200\xa0ms', '', 'TBD', '', '≤\xa0100,000', '', 'several km&lt;sup&gt;2&lt;/sup&gt; up to 100,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication service supporting message exchange for distributed voltage control.', '']</t>
+          <t>['', 'The QoS requirements specified for particular services such as URLLC services, vertical automation communication services, and V2X, mandate QoS guarantees from the network. However, the network cannot always guarantee the required QoS of the service. An example reason for this shortcoming is that the latency and/or packet error rate increase due to interference in a radio cell. In such cases, it is critical that the application and/or application server is notified in a timely manner. Hence, the 5G system should be able to support QoS monitoring/assurance for URLLC services, V2X and vertical automation.', '', 'For more information on QoS assurance see Annex F. ', '', 'Vertical automation systems are locally distributed and are typically served by wired and wireless communication networks of different types and with different characteristics. If the operation of the system or one of its sub-processes does not work properly, there is a need for quickly finding and eliminating the related error or fault in order to avoid significant operation and thus financial losses. To that end, automation devices and applications implement diagnosis and error-analysis algorithms, as well as predictive maintenance features.', '', 'Due to their inherent challenges, wireless communication systems are usually under suspicion in case an error occurs in a distributed automation application. Therefore, diagnosis and fault analysis features for 5G systems are required. The 5G system needs to provide sufficient monitoring information as input for such diagnosis features.', '', 'QoS monitoring can be used for the following activities: ', '', '-\tassessing and assuring the dependability of network operation;', '', '-\tassessing and assuring the dependability of the communication services;', '', '-\texcluding particular communication errors;', '', '-\tidentifying communication errors;', '', '-\tanalysing the location of an error including the geographic location of the involved network component (UE; front-haul component; core node);', '', '-\tactivation of application-related countermeasures.', '', 'This section provides requirements for both functionality and service exposure. In addition, the service exposure requirements on QoS monitoring in 22.101 [6], clause 29.2 apply.', '']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall ensure a communication service availability target value of 99.999% for distributed voltage control. It shall also provide a communication service reliability with a mean time between failures to be determined (TBD). The end-to-end latency of the communication service shall not exceed approximately 100 milliseconds. The message size for communication shall be determined (TBD), and the transfer interval shall target a value of approximately 100 milliseconds. The system shall support communication between several thousand end-user equipment (UEs) and shall be capable of operating within a service area ranging from several kilometers squared up to 100,000 kilometers squared.</t>
+          <t xml:space="preserve"> The system shall support QoS monitoring/assurance for URLLC services, V2X, and vertical automation applications. It must provide timely notifications to the application and/or application server when QoS requirements are not met due to increased latency or packet error rates caused by interference. Additionally, the system shall furnish sufficient monitoring information to facilitate diagnosis and fault analysis, enabling the identification and rectification of errors to maintain the dependability of network operations and communication services. This includes the capability to exclude specific communication errors, analyze the location of an error, and activate application-related countermeasures. Furthermore, the system shall adhere to the service exposure requirements outlined in 22.101 [6] clause 29.2 for QoS monitoring.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.2.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;4.2.1	System latency&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>22882-j00.docx</t>
+          <t>22263.docx</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.1703785336044747</v>
+        <v>0.1981840982464866</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['', 'Industrial campuses are very typical scenarios of edge computing and local traffic offload. Dedicated network facilities are usually deployed near the campus for lower latency and local data protection. This brings a problem that these network facilities are used only for the campus, so while the manufacturing load is light or during vacation, these network facilities will be in very light load or even no load. Under this scenario, the energy consumption of these network facilities will be unnecessary.', '']</t>
+          <t>['', 'The overall system latency has an important impact on the applications that this specification targets. In video production, overall system latency is referred to as imaging system latency and has an impact on the timing of synchronized cameras. For audio applications, overall system latency is referred to as mouth to ear latency and it is critical to maintain lip sync and avoid a performer to be put off by hearing their own echo. Finally, in medical applications the system latency impairs the achievable precision at a given gesture speed as it translates the time needed to traverse the whole imaging system into a geometrical error of the instruments position. ', '', 'Figure 4.2.1.-1 depicts the general functional blocks of an AV production or medical system.', '', '----media/image3.png----', '', 'Figure 4.2.1-1: Overall system Latency for video, imaging and audio applications. ', '', 'The overall system latency comprises different latency elements as illustrated in Figure 4.2.1-1, where:', '', 'T1 = Time for image or audio frame generation', '', 'T2 = T4 = Time Delay through 5G Network, defined as the end-to-end latency in TS 22.261 [4]', '', 'T3 = Application processing time', '', 'T5 = Time for image display or audio playback', '', 'So that the overall system latency results from the sum of the of T = T1 + T2 + T3 + T4 + T5 ', '']</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall deploy dedicated network facilities near industrial campuses to ensure lower latency and local data protection. These facilities are specifically designed to cater to edge computing and local traffic offload requirements. The system shall optimize the use of these network resources to minimize energy consumption during periods of light or no manufacturing load, such as during vacations. This optimization should prevent unnecessary energy usage while maintaining the readiness and responsiveness of the network infrastructure for the campus's operational needs.</t>
+          <t xml:space="preserve"> The system shall ensure minimal overall system latency to maintain high-quality synchronization for video production and audio applications. Specifically, the system shall:
+1. Minimize T1, the time for image or audio frame generation, to ensure rapid content creation and processing.
+2. Reduce T2 and T4, the time delays through the 5G network, to achieve the lowest possible end-to-end latency as defined in TS 22.261 [4], thereby ensuring swift data transmission.
+3. Optimize T3, the application processing time, to facilitate efficient handling and manipulation of media content without introducing significant delays.
+4. Decrease T5, the time for image display or audio playback, to provide immediate and seamless user experience, crucial for maintaining synchronization in lip-sync for audio applications and for real-time feedback in video production.
+5. Calculate and maintain the overall system latency (T) as the sum of T1, T2, T3, T4, and T5, ensuring it is within acceptable limits for the targeted applications, thereby preventing any negative impact on the precision and synchronization required in video imaging and audio applications, as well as in medical systems.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.7	Advanced metering&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;C.4.3	Timeliness&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1045,582 +1029,381 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.1636699940712761</v>
+        <v>0.1822869969181011</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['', 'Instead of recording and sending metering data from a wired electricity meter unit, electricity metering collecting can be executed by a UE-integrated smart meter unit. Smart meter units can send real-time metering data to a server in the utility through mobile networks. In this way, the power enterprise―based on the analysis of the user’s power consumption behavior―gives the user power consumption suggestions, which fosters the user’s power consumption and energy saving habits. ', '', 'The electric smart meters monitor relevant user energy status and deliver the status data to a measurement data management system (MDMS). The MDMS sends control commands according to its policy and the status of the data collected from the smart meters. The MDMS commands include tripping, closing permission, alarm, alarm release, power protection, and power protection release. Accurate-fee control is one of the basic services of advanced metering. When the electric power user doesn’t pay her electric fee on time, the MDMS can cut off the power supply. And when there is a need for temporary power supply for this user, the MDMS can recover the power supply. This operation requires real-time interaction between the electric smart meter and the MDMS. Due to massive number of electricity meters, it is estimated that in the near future, the amount of this kind of interaction will increase 5 to 10 times. The associated KPIs are provided in Table A.4.7-1.', '', 'Table A.4.7-1: Communication KPI for advanced metering', '', 'Use case#', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value ', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum ', '', 'Service bit rate: user experienced data rate&lt;b&gt; &lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; &lt;/b&gt;', '', 'Transfer interval: target value&lt;b&gt; &lt;/b&gt;', '', 'Survival time&lt;b&gt; &lt;/b&gt;', '', 'UE ', 'speed&lt;b&gt; &lt;/b&gt;', '', '# of UEs', '', 'Service area ', '', '', '&lt;span style="font-size:18pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;gt; 99.99&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;Accuracy fee control: &amp;lt; 100 (note 1);&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;General information data collection: &amp;lt; 3000&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;UL: &amp;lt; 2 M&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;DL: &amp;lt; 1 M&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;stationary&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 10\xa0000/km2 (note2)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', 'NOTE 1: \tOne-way delay from 5G IoT device to backend system. The distance between the two is below 40\xa0km (city range).', '', 'NOTE 2: \tIt is the typical connection density in today city environment. With the evolution from centralised meters to socket meters in the home, the connection density is expected to increase 5 to 10 times.', '', '&lt;b&gt;&lt;i&gt;Use case#1:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; Advanced metering&lt;/b&gt;&lt;/span&gt;', '', '', '']</t>
+          <t>['', 'Timeliness is described by a time interval (see Figure C.4.3-1). The interval is restricted by a lower bound (&lt;i&gt;t&lt;/i&gt;&lt;sub&gt;LB&lt;/sub&gt;) and an upper bound (&lt;i&gt;t&lt;/i&gt;&lt;sub&gt;UB&lt;/sub&gt;). This interval contains all values &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;A&lt;/sub&gt; that are within an accepted "distance" to the target value &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;R&lt;/sub&gt;. ', '', '----media/image20.png----', '', 'Figure\xa0C.4.3-1: Timeliness function ', '', 'A message reception is considered in time, if it is received within the timeliness interval. If it is received outside the timeliness interval, the message reception is considered invalid. This is related to the communication error "unacceptable deviation from target end-to-end latency" (see Subclause B.6). In other words, maximum end-to-end latency = &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;UB&lt;/sub&gt; and minimum end-to-end latency = &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;LB&lt;/sub&gt;.', '', 'Timeliness is related to deviation (see Subclause C.4.4), the lower bound &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;LB&lt;/sub&gt; is related to earliness (see Subclause C.4.5), and the upper bound &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;UB&lt;/sub&gt; is related to lateness (see Subclause C.4.6).', '']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall execute electricity metering by integrating with UE-based smart meter units, allowing real-time data transmission to utility servers via mobile networks. It shall analyze user power consumption behavior to provide power consumption suggestions, thereby promoting energy-saving habits among users.
-The system shall monitor user energy status through electric smart meters and deliver status data to a measurement data management system (MDMS). It shall enable the MDMS to send control commands based on policy and data status, including tripping, closing permission, alarm, alarm release, power protection, and power protection release.
-The system shall support accurate-fee control as a fundamental service of advanced metering. It shall automatically cut off power supply when users fail to pay their electric fees on time and recover power supply for temporary needs when necessary. This operation requires real-time interaction between the electric smart meter and the MDMS.
-Considering the anticipated increase in the number of electricity meters, the system shall ensure that the communication service availability meets a target value of greater than 99.99%. The system shall maintain a communication service reliability with a mean time between failures that meets the specified requirements.
-The system shall guarantee end-to-end latency with a maximum value that meets the specified requirements. It shall provide a user experienced data rate that is less than the specified bit rate. The system shall manage message sizes, ensuring they do not exceed the specified maximum size in bytes.
-The system shall adhere to the target transfer interval and ensure the survival time of the communication service meets the specified requirements. It shall support a specified number of user equipment (UE) devices within a stationary service area, with a connection density that does not exceed the specified values.</t>
+          <t xml:space="preserve"> The system shall ensure timeliness of message reception by adhering to a predefined time interval, where the reception is considered valid if it occurs within the bounds of the lower limit (&lt;i&gt;t&lt;/i&gt;&lt;sub&gt;LB&lt;/sub&gt;) and upper limit (&lt;i&gt;t&lt;/i&gt;&lt;sub&gt;UB&lt;/sub&gt;) as specified in Figure C.4.3-1. This interval is designed to encompass all values (&lt;i&gt;t&lt;/i&gt;&lt;sub&gt;A&lt;/sub&gt;) that fall within an acceptable deviation from the target end-to-end latency (&lt;i&gt;t&lt;/i&gt;&lt;sub&gt;R&lt;/sub&gt;).</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;D.5.0 	General&lt;/h2&gt;</t>
+          <t>&lt;h4&gt;5.2.6.1	Potential Functionality Requirements&lt;/h4&gt;</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>22261-j30.docx</t>
+          <t>22876-j00.docx</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.176201085926757</v>
+        <v>0.1992053569759347</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>['', 'Intelligent Transport Systems (ITS) embrace a wide variety of communications-related applications that are intended to increase travel safety, minimize environmental impact, improve traffic management, and maximize the benefits of transportation to both commercial users and the general public. Over recent years, the emphasis in intelligent vehicle research has turned to co-operative systems, in which the traffic participants (vehicles, bicycles, pedestrians, etc.) communicate with each other and/or with the infrastructure.', '', 'Cooperative ITS is the term used to describe technology that allows vehicles to become connected to each other, and to the infrastructure and other parts of the transport network. In addition to what drivers can immediately see around them, and what vehicle sensors can detect, all parts of the transport system will increasingly be able to share information to improve decision making. Thus, this technology can improve road safety through avoiding collisions, but also assist in reducing congestion and improving traffic flows, and reduce environmental impacts. Once the basic technology is in place as a platform, an array of applications can be developed.', '', 'Cooperative ITS can greatly increase the quality and reliability of information available about vehicles, their location and the road environment. In the future, cars will know the location of road works and the switching phases of traffic lights ahead, and they will be able to react accordingly. This will make for safer and more convenient travel and faster arrival at the destination. &lt;span style="color:000000"&gt;On-board driver assistance, coupled with two-way communication between vehicles and between vehicles and road infrastructure, can help drivers to better control their vehicle and hence have positive effects in terms of safety and traffic efficiency. An important role in this plays the so-called road side units (RSUs). Vehicles can also function as sensors reporting weather and road conditions including incidents. In this way, cars can be used as information sources for high-quality information services.&lt;/span&gt;', '', 'RSUs are connected to the traffic control centre for management and control purposes. They broadcast, e.g., traffic light information (RSU &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; vehicle) and traffic information from the traffic-control centre (TCC) via the RSU to the vehicles (TCC &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; RSU &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; vehicle). RSUs also collect vehicle probe data for the traffic control centre (vehicle &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; RSU &lt;span style=font-family:Wingdings&gt;&amp;#x00E0;&lt;/span&gt; TCC). For reliable distribution of data, low-latency and high-capacity connections between RSUs (e.g. traffic lights, traffic signs, etc.) and the TCC are required. This type of application comes with rather tight end-to-end latency requirements for the communication service between RSU and TCC (10 ms), since relayed data needs to be processed in the TCC and, if needed, the results are forwarded to neighbouring RSUs. Also, the availability of the communication service has to be very high (99,9999%) in order to compete with existing wired technology and in order to justify the costly deployment and maintenance of RSUs. Furthermore, due to considerably large aggregation areas (see clause D.5.1), considerable amounts of data need to be backhauled to the TCC (up to 10 Mbit/s per RSU).', '']</t>
+          <t>['', '[P.R.5.2.6-001] Subject to user consent and operator policy, the 5G system shall support the transfer of AI/ML model intermediate data from UE to UE via the direct device connection.', '', '[P.R.5.2.6-002] Subject to user consent and operator policy, the 5G system shall be able to provide means to predict and expose network condition changes (i.e. bitrate, latency, reliability) and receive user preferences on usage of the direct device connection or the direct network connection in order to meet the user experienced data rate and latency.', '', '[P.R.5.2.6-003] Subject to user consent and operator policy, the 5G system shall be able to dynamically select the intermediate device that is capable to perform the needed functionalities, e.g., AIML splitting.', '', '[P.R.5.2.6-004] Subject to user consent and operator policy, the 5G system shall be able to maintain the QoS (latency, reliability, data rate as defined in the Table\xa05.2.6.2-1 below) of the communication path of the direct device connection.', '', '[P.R.5.2.6-005] Subject to user consent and operator policy, the 5G system shall be able to have the means to modify the QoS of the communication path of the direct device connection.', '', 'NOTE:\tThe split point selection is dynamic. In consequence, the amount of intermediate data will vary. To maintain the QoS, the bandwidth is adjusted.', '']</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall provide Intelligent Transport Systems (ITS) that enhance travel safety, minimize environmental impact, improve traffic management, and maximize transportation benefits for both commercial users and the general public.
-The system shall implement cooperative ITS technology, enabling vehicles, bicycles, and pedestrians to communicate with each other and with the infrastructure, thereby improving decision-making processes on the road.
-The system shall ensure that on-board driver assistance is coupled with two-way communication between vehicles and between vehicles and road infrastructure to enhance vehicle control, safety, and traffic efficiency.
-The system shall deploy Road Side Units (RSUs) that are connected to the Traffic Control Centre (TCC) for management and control purposes, broadcasting traffic light information and traffic information to vehicles.
-The system shall guarantee low-latency and high-capacity connections between RSUs and the TCC for reliable data distribution, with an end-to-end latency requirement of 10 ms and an availability of 99.9999%.
-The system shall handle the backhaul of considerable amounts of data (up to 10 Mbit/s per RSU) to the TCC, considering the large aggregation areas.</t>
+          <t xml:space="preserve"> The system shall support the transfer of AI/ML model intermediate data from UE to UE via the direct device connection, subject to user consent and operator policy. The system shall provide means to predict and expose network condition changes, such as bitrate, latency, and reliability, and receive user preferences on the usage of direct device or direct network connections to meet user-experienced data rate and latency requirements. Additionally, the system shall dynamically select an intermediate device capable of performing necessary functionalities, like AI/ML splitting, while adhering to user consent and operator policy. The system shall maintain the Quality of Service (QoS) for the communication path of the direct device connection, ensuring latency, reliability, and data rate as defined in Table 5.2.6.2-1, and be capable of modifying the QoS of the direct device connection's communication path, again subject to user consent and operator policy.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.4.2	Augmented reality&lt;/h3&gt;</t>
+          <t>&lt;h4&gt;6.2.6.2	Potential KPI Requirements&lt;/h4&gt;</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22876-j00.docx</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.1933840770985852</v>
+        <v>0.1851578854488551</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['', 'It is envisioned that in future smart factories and production facilities, people will continue to play an important and substantial role. However, due to the envisaged high flexibility and versatility of the Factories of the Future, shop floor workers should be optimally supported in getting quickly prepared for new tasks and activities and in ensuring smooth operations in an efficient and ergonomic manner. To this end, augmented reality may play a crucial role, for example for the following applications:', '', '-\tmonitoring of processes and production flows;', '', '-\tstep-by-step instructions for specific tasks, for example in manual assembly workplaces;', '', '-\tad hoc support from a remote expert, for example for maintenance or service tasks.', '', 'In this respect, especially head-mounted augmented-reality devices with see-through display are very attractive since they allow for a maximum degree of ergonomics, flexibility and mobility and leave the hands of workers free for other tasks. However, if such augmented-reality devices are worn for a longer period (e.g., one work shift), these devices have to be lightweight and highly energy-efficient while at the same time they should not become very warm. A very promising approach is to offload complex (e.g., video) processing tasks to the network (e.g., an edge cloud) and to reduce the augmented-reality head-mounted device’s functionality. This has the additional benefit that the augmented-reality application may have easy access to different context information (e.g., information about the environment, production machinery, the current link state, etc.) if executed in the network. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;2.4.2-1: Service performance requirements for augmented reality in human-machine interfaces', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'UE ', 'speed', '', 'Service area (note)', '', '1', '', '&amp;gt; 99.9', '', '~ 1 month', '', '&amp;lt; 10 ms', '', '&amp;lt; 8 km/h', '', '20 m x 20 m x 4\xa0m', '', 'NOTE:\tLength x width x height.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Bi-directional message transmission between an augmented-reality device and an image processing server.', '']</t>
+          <t>['', '[P.R.6.2-003] The 5G system shall be able to support transmitting an AI/ML model via direct device connection fulfilling the KPIs for transmission of typical AIML model for trajectory prediction and object recognition [24][28] in Table 6.2-1. ', '', '&lt;b&gt;Table 6.2-1 &lt;/b&gt;', '', '', '', '&lt;b&gt;Payload size&lt;/b&gt;', '', '&lt;b&gt;Latency for model transmission (NOTE 1)&lt;/b&gt;', '', '&lt;b&gt;Transmission Data rate&lt;/b&gt;', '', '&lt;b&gt;LaneGCN&lt;/b&gt;', '', '15 MByte ', '', '3 seconds', '', '5 MByte/s', '', '&lt;b&gt;ResNet-50&lt;/b&gt;', '', '25 MByte', '', '3 seconds', '', '8.33 MByte/s', '', '&lt;b&gt;ResNet-152&lt;/b&gt;', '', '60 MByte', '', '3 seconds', '', '20 Mbyte/s', '', '&lt;b&gt;PointPillar&lt;/b&gt;', '', '18 MByte', '', '3 seconds', '', '6 MByte/s', '', '&lt;b&gt;SECOND&lt;/b&gt;', '', '20 MByte', '', '3 seconds', '', '6.67 MByte/s', '', '&lt;b&gt;Part-A2-Free&lt;/b&gt;', '', '226 MByte', '', '3 seconds', '', '75.33 MByte/s', '', '&lt;b&gt;Part-A2-Anchor&lt;/b&gt;', '', '244 MByte', '', '3 seconds', '', '81.33 MByte/s', '', '&lt;b&gt;PV-RCNN&lt;/b&gt;', '', '50 MByte', '', '3 seconds', '', '16.67 MByte/s', '', '&lt;b&gt;Voxel R-CNN (Car)&lt;/b&gt;', '', '28 MByte', '', '3 seconds', '', '9.33 MByte/s', '', '&lt;b&gt;CaDDN (Mono)&lt;/b&gt;', '', '774 MByte', '', '3 seconds', '', '248 MByte/s', '', 'NOTE 1: The transfer learning does not have a very high requirement for transmission latency since it is not a real-time inference service, hence it assumes the model transmission via direct device connection should be finished in 3 seconds.', '', ' ', '', '', '']</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall support bi-directional message transmission between an augmented-reality device and an image processing server with a communication service availability target value of greater than 99.9%, a mean time between failures of less than 1 month, and an end-to-end latency of less than 10 milliseconds. Additionally, the system shall ensure that the augmented reality device operates within a service area of 20 meters by 20 meters with a height of 4 meters, while maintaining a user speed of less than 8 kilometers per hour.</t>
+          <t xml:space="preserve"> The system shall support transmitting an AI/ML model via direct device connection with the capability to fulfill the specified Key Performance Indicators (KPIs) for the transmission of typical AI/ML models used in trajectory prediction and object recognition. The requirements include:
+1. The system shall handle a payload size of up to 246 MBytes for various AI/ML models.
+2. The system shall ensure the model transmission latency does not exceed 3 seconds, as per the note indicating that high transmission latency is not critical for transfer learning services.
+3. The system shall support transmission data rates ranging from 5 MByte/s to 81.33 MByte/s, depending on the model type.
+4. The system shall be compatible with various AI/ML models listed in Table 6.2-1, including LaneGCN, ResNet-50, ResNet-152, PointPillar, SECOND, Part-A2-Free, Part-A2-Anchor, PV-RCNN, Voxel R-CNN (Car), and CaDDN (Mono).</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.22.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.22.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22837-j00.docx</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.1501339373021877</v>
+        <v>0.1955447726840279</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>['', 'Mobile metaverse services allow people to enjoy an online digital concert with their avatars beyond the limitation of time and space. In order to provide immersive interactive location agnostic service experience to mobile metaverse service customers, large amount of computing resouces is needed to perform real-time processing for audio, video, and interactive data, etc. The thing to realise here is that different customers will use terminals e.g. XR glasess with different brands and different processing capabilities, some of the glasses will not have enough computing resources to perform the real-time rendering. Through split rendering, most of the computing work task can offload to the network, the high speed and low latency transmission provided by 5G system can cooperate with the edge cloud side for real-time rendering, and combine with the local optimized rendering of the XR terminal side to provide the immersive and unbounded XR experience. In addition to this, similar to the real world, people are more likely to watch a concert together with their friends, further, the mobile metaverse live concert service is also provides private boxs for group of avatars to enjoy the concert privately, and different types of social authority can be provided in the private box on demand.', '']</t>
+          <t>['', '[PR 5.22.6-1] Subject to operator policy, the 5G system shall enable the network to expose a suitable API to a authorized third party to provide the information regarding sensing results.', '', '[PR 5.22.6-2] Based on operator policy, the 5G system may be able to utilize sensing assistance information exposed by a trusted third-party to derive the sensing result.', '', '', '', '[PR 5.22.6-3] The 5G system shall be able to support the following KPIs:', '', 'Table 5.22.6-1\tPerformance requirements of sensing results for UAVs/vehicles/pedestrians’ detection near Smart Grid equipment ', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Sensing for the use case in Smart Grid &lt;/span&gt;&lt;span style="color:0D0D0D;font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;Outdoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;≤&lt;/span&gt;&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.7&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;UAV: ≤25&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Pedestrian: ≤1.5&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Vehicle: ≤15&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤5s&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≥10Hz&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤5]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤5]&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01: The terms in Table 5.22.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02: The typical size (Length x Width x Height) of UAV is 1.6m x 1.5m x 0.7m, the typical size of pedestrian is 0.5m x 0.5m x 1.75m, and the typical size of engineering vehicle is 7.5m x 2.5m x 3.5 m. The size of the park of Smart Grid depends on the real environment. &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03: The safe distance between pedestrian/vehicle and transmission station/line is 0.7m/0.95m [46].&lt;/span&gt;', '']</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall provide immersive interactive location-agnostic service experiences for mobile metaverse service customers by performing real-time processing for audio, video, and interactive data. It shall accommodate terminals with varying brands and processing capabilities, including those with limited computing resources. The system shall implement split rendering to offload most computing tasks to the network, leveraging the high-speed and low-latency transmission capabilities of 5G systems in cooperation with edge cloud services. This approach shall ensure seamless and optimized real-time rendering for an unbounded XR experience. Additionally, the system shall offer private boxes for groups of avatars to enjoy concerts privately, with the capability to provide different types of social authority on demand.</t>
+          <t xml:space="preserve"> The system shall enable the 5G network to expose a suitable API to an authorized third party, providing information regarding sensing results.
+The system may utilize sensing assistance information from a trusted third party to derive sensing results.
+The system shall support the following KPIs for UAVs/vehicles/pedestrians' detection near Smart Grid equipment:
+- Confidence level [%]
+- Accuracy of positioning estimate by sensing (for a target confidence level)
+- Accuracy of velocity estimate by sensing (for a target confidence level)
+- Sensing resolution
+- Max sensing service latency [ms]
+- Refreshing rate [s]
+- Missed detection [%]
+- False alarm [%]
+- Horizontal accuracy [m]
+- Vertical accuracy [m]
+- Horizontal velocity accuracy [m/s]
+- Vertical velocity accuracy [m/s]
+- Range resolution [m]
+- Velocity resolution (horizontal/vertical) [m/s x m/s]
+- Outdoor sensing for Smart Grid use case
+- Sensing service area
+- Max sensing service latency [ms]
+- Refreshing rate [Hz]
+- Missed detection [%]
+- False alarm [%]
+- Horizontal accuracy [m]
+- Vertical accuracy [m]
+- Horizontal velocity accuracy [m/s]
+- Vertical velocity accuracy [m/s]
+- Range resolution [m]
+- Velocity resolution (horizontal/vertical) [m/s x m/s]
+- The system shall ensure a sensing service latency of ≤5 seconds and a refreshing rate of ≥10Hz.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>&lt;h1&gt;4	Overview&lt;/h1&gt;</t>
+          <t>&lt;h3&gt;5.23.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22837-j00.docx</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.1598235305451882</v>
+        <v>0.1989883903245185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['', 'Mobile metaverse services are discussed in this technical report both in the abstract and concrete. Specific services mentioned in the TR include:', '', '-\tSituational awareness for drivers, pedestrians, cyclists, to increase safety and efficiency of transport (see 5.2).', '', '-\tXR enabled collaborative and concurrent engineering, to enable local and remote collaboration (see 5.3).', '', '-\tParticipatory in and passive observation of virtual reality events, e.g. basketball (see 5.6).', '', '-\tPresentation of AR content, e.g. a feature length movie, on a virtual screen (see 5.7).', '', '-\tRemote critical health care, including surgery and treatment (see 5.10).', '', 'The study also considers a number of use cases that feature new service enablers, including:', '', '-\tProviding users with information and services that are of local relevance (see 5.1).', '', '-\tEnhancements to IMS to support multiple users and multi-modal XR communication (see 5.3).', '', '-\tSupport for spatial anchors to link service information to specific locations (see 5.4).', '', '-\tSupport for spatial localization and mapping services, and enablers for them in the 5GS (see 5.5).', '', '-\tSupport for multi-service coordination for different input and output devices and diverse services (see 5.8).', '', '-\tSupport for synchronization of different data streams and predicted network conditions (especially latency) to enable immersive remote collaboration despite significant distance and therefore communication delay between participants (see 5.9).', '']</t>
+          <t>['', '[PR 5.23.6-1] The 5G system shall be able to provide the continuity of sensing service for a specific target object, across indoor and outdoor.', '', '[PR 5.23.6-2] The 5G system shall be able to provide a secure mechanism to ensure sensing result data privacy within the sensing service area.', '', '[PR 5.23.6-3] The 5G system shall be able to support the following sensing related KPIs:', '', 'Table 5.23.6-1\tPerformance requirements of sensing results for AMR collision avoidance in smart factories', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;AMR collision avoidance in smart factories&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;indoor/outdoor&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;99&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;1.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;˂&lt;/span&gt;&lt;span style="font-size:16pt"&gt;500&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.05&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.23.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The KPI values are sourced from [47].&lt;/span&gt;', '']</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall provide situational awareness for drivers, pedestrians, and cyclists to enhance the safety and efficiency of transportation.
-The system shall enable XR-enabled collaborative and concurrent engineering for both local and remote teamwork.
-The system shall allow participatory involvement and passive observation of virtual reality events, such as basketball games.
-The system shall facilitate the presentation of AR content, including feature-length movies, on virtual screens.
-The system shall support remote critical healthcare services, encompassing surgery and treatment.
-The system shall provide users with locally relevant information and services.
-The system shall enhance IMS to accommodate multiple users and multi-modal XR communication.
-The system shall support spatial anchors to associate service information with specific geographic locations.
-The system shall offer support for spatial localization and mapping services, along with enablers for these services in the 5G era.
-The system shall provide multi-service coordination for various input and output devices and a range of services.
-The system shall ensure synchronization of different data streams and predict network conditions, particularly latency, to enable immersive remote collaboration over long distances.</t>
+          <t xml:space="preserve"> The system shall provide the continuity of sensing service for a specific target object across indoor and outdoor environments. It shall also ensure a secure mechanism to guarantee the privacy of sensing result data within the sensing service area. Additionally, the system shall support the following sensing-related Key Performance Indicators (KPIs) for AMR collision avoidance in smart factories, as detailed in Table 5.23.6-1, with performance requirements found in Section 3.1 and sourced from reference [47].</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.1.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.24.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>22261-j30.docx</t>
+          <t>22837-j00.docx</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.1607669733586694</v>
+        <v>0.1997539330980879</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>['', 'Network slicing allows the operator to provide customised networks. For example, there can be different requirements on functionality (e.g. priority, charging, policy control, security, and mobility), differences in performance requirements (e.g. latency, mobility, availability, reliability and data rates), or they can serve only specific users (e.g. MPS users, Public Safety users, corporate customers, roamers, or hosting an MVNO).', '', 'A network slice can provide the functionality of a complete network, including radio access network functions, core network functions (e.g. potentially from different vendors) and IMS functions. One network can support one or several network slices.', '']</t>
+          <t>['', '[PR 5.24.6-1] Based on operator policy, the 5G System shall be able to provide the 5G wireless sensing services in case of roaming.', '', '[PR 5.24.6-2] 5G network shall provide means for mobile operator to provide / revoke authorization for the operation(s) of a 5G wireless sensing service based on location, time, specific KPI level and the origin of the request.', '', '[PR.5.24.6-3] The 5G system shall be able to provide 5G wireless sensing service with the following KPIs:', '', 'Table 5.24.6-1\tPerformance requirements of sensing results for sports monitoring', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Human motion rate accuracy&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[Hz]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Sports monitoring&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Indoor (living room)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.05&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;60s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1min&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.24.6-1 are found in Section 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Sit-up rate = 30 times/min as reference, 0.05Hz corresponds to 3 times/min.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Push-up rate = 40 times/min as reference, 0.07Hz corresponds to 4 times/min.&lt;/span&gt;', '']</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall provide customizable network slices to cater to diverse requirements and user segments, including but not limited to priority charging policy control, security, mobility, and specific functionalities for MPS users, Public Safety users, corporate customers, roamers, or hosting an MVNO. It shall support the integration of radio access network functions, core network functions potentially from different vendors, and IMS functions within each network slice. Furthermore, the system shall enable the support of one or several network slices within a single network infrastructure, ensuring flexibility and scalability in service provision.</t>
+          <t xml:space="preserve"> The system shall be able to provide 5G wireless sensing services in case of roaming, as per operator policy. Additionally, the 5G network shall provide means for a mobile operator to authorize or revoke the operation of a 5G wireless sensing service based on location, time, specific KPI levels, and the origin of the request. Furthermore, the 5G system shall meet the performance requirements for sensing results in sports monitoring, with specified confidence levels, human motion rate accuracy, positioning and velocity estimation accuracy, sensing resolution, maximum latency, refreshing rate, and detection and false alarm percentages. These requirements are detailed in Table 5.24.6-1 and are found in Section 3.1.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.2	Primary frequency control&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;	5.32.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22837-j00.docx</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.1613772770999106</v>
+        <v>0.1972108837314486</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['', 'Primary frequency control is among the most challenging and demanding control applications in the utility sector. A primary frequency control system is responsible for controlling the energy supply injected and withheld to ensure that the frequency is not deviating more than 0.02\xa0% from the nominal value (e.g., 50 Hz in Europe). Frequency control is based on having sensors for measuring the features in all parts of the network at all points where energy generation or storage units are connected to the grid. At these points, electronic power converters, also known as inverters, are equipped with communication units to send measurement values to other points in the grid such as a frequency control unit, or receive control commands to inject more, or less, energy into the local network. ', '', 'With the widespread deployment of local generation units, i.e. solar power units, or wind turbines, hundreds of thousands of such units, and their inverters, may have to be connected in a larger power distribution network. ', '', 'Primary frequency control is carried out in one of three ways: ', '', '1)\tCentralised control, all data analysis and corrective actions are determined by a central frequency control unit.', '', '2)\tDecentralised control, the automatic routine frequency control is performed by the individual local inverter based on local frequency values. Statistics and other information is communicated to the central frequency control unit. ', '', '3)\tDistributed control, the automatic routine frequency control is performed by the individual local inverter based on local and neighbouring frequency values. Statistics and other information are communicated to the central frequency control unit. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;4.2-1: Service performance requirements for primary frequency control', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', '# of UEs', '', 'Service area', '', '1', '', '99.999', '', 'TBD', '', '~ 50 ms ', '', '~ 100', '', '~ 50 ms', '', 'TBD', '', '≤\xa0100,000', '', 'several km&lt;sup&gt;2&lt;/sup&gt; up to 100,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication service supporting message exchange for primary frequency control.', '']</t>
+          <t>['', '[PR 5.32.6-1] Based on operator’s policy, the 5G system may provide a mechanism for a trusted third party to provide sensing assistance information about a sensing target.', '', '[PR 5.32.6-2] The 5G system shall be able to provide sensing results with the following KPIs:', '', 'Table 5.32.6-1\tPerformance requirements of the sensing results exposed to the third party', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area &lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[ms]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[s]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Missed detection&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Indoor Factory&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;100 m&lt;/span&gt;&lt;span style="color:0C0C0C;font-size:16pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;99&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[≤0.5]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.5&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[0.5]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;[0.5]&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;≤100&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;0.1&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0C0C0C;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.32.6-1 are found in Section 3.1.&lt;/span&gt;', '', '', '']</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall ensure primary frequency control with a service performance requirement of 99.999% availability. The communication service end-to-end latency shall not exceed approximately 50 milliseconds, and the message size shall be around 100 bytes. The transfer interval target value shall be determined based on the specific use case requirements. The system shall support periodic communication service for message exchange among several thousand units (≤100,000 UEs) within a service area ranging from several square kilometers up to 100,000 square kilometers.</t>
+          <t xml:space="preserve"> The system shall provide a mechanism for a trusted third party to offer sensing assistance information about a sensing target based on the operator's policy. Furthermore, the system shall deliver sensing results meeting the specified performance requirements, including accuracy of positioning and velocity estimates, sensing resolution, maximum service latency, refreshing rate, and detection and false alarm rates, as detailed in Table 5.32.6-1 for various scenarios such as outdoor service areas and indoor factories.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;12.14.2.5	Potential requirements and gap analysis&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;5.7.6	Potential New Requirements needed to support the use case&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>22989-j30.docx</t>
+          <t>22837-j00.docx</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.1554249035588534</v>
+        <v>0.1982838833311384</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['', 'Reference Number', '', 'Requirement text', '', 'Application / Transport', '', 'SA1 spec covering', '', 'Comments', '', '[R-12.14.2-001]', '', 'The consolidated positioning information i.e. the location information resulting from the combination of all positioning sources available to the FRMCS System shall support following absolute positioning accuracy based on the train speed at &amp;gt;= 90% of the occasions:', '', '0 - 40km/h\t\tLongitudinal: ≤1 m\tlateral: 1 - 3 m', '', 'Up to 120km/h\t\tLongitudinal: ≤34m\tlateral: 1 - 3 m', '', 'Up to 160km/h\t\tLongitudinal: ≤45m\tlateral: 1 - 3 m', '', 'Up to 320km/h\t\tLongitudinal: ≤89m\tlateral: 1 - 3 m', '', 'Up to 500km/h\t\tLongitudinal: ≤200m \tlateral: 1 - 3 m', '', 'See [9]', '', 'A/T', '', 'TS 22.261', '', 'TS 22.261 sub-clause 6.27.2', '', 'TS 22.261 sub-clause 7.3.2 – refer to positioning service level 3 (only one speed limit supported – up to 500 km/h – with horizontal accuracy of 1m)', '', '', '', 'TS 22.278 does not consider this requirement. ', '', '[R-12.14.2-002]', '', 'FRMCS System shall be able to support an initial positioning fix time of ≤5s.', '', 'A/T', '', 'TS 22.261', '', 'TS 22.261 sub-clause 7.3.2', '', '', '', 'TS 22.278 does not consider this requirement. ', '', '[R-12.14.2-003]', '', 'To avoid large offsets between adjacent hazard areas due to limited track space in a railway station, FRMCS System shall be able to support a sampling interval between two positioning cycles of &amp;lt;1s.', '', 'A/T', '', 'Not covered', '', 'TS 22.261', '', 'TS 22.261 sub-clause 7.3.2 (Positioning service latency = 1 s)', '', '', '', 'TS 22.278 does not consider this requirement. ', '', '[R-12.14.2-004]', '', 'FRMCS Equipment power consumption due to the use of positioning capabilities shall be minimised.', '', 'A/T', '', 'TS 22.261', '', 'TS 22.261 sub-clause 6.27.2 and 7.3.2.3 (location power saving mode with restriction in update rate)', '', '', '', 'TS 22.278 does not consider this requirement. ', '', '', '']</t>
+          <t>['', '[PR 5.7.6-1] Subject to operator policy, the 5G system shall enable the core network to collect and aggregate 3GPP sensing data data from RAN.', '', '[PR 5.7.6-2] Subject to operator policy, the 5G system shall enable the core network to expose a suitable API to provide the information regarding sensing results to authorized third parties.', '', '[PR 5.7.6-3] The 5G system shall be able to support the following KPIs:', '', 'Table 5.7.6-1\tPerformance requirements of sensing results for railway intrusion detection', '', '&lt;span style="font-size:14pt"&gt;Scenario&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing service area&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Confidence level [%]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of positioning estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Accuracy of velocity estimate by sensing (for a target confidence level)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Sensing resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Max sensing service latency[ms]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Refreshing rate [s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Missed detection [%]&lt;/span&gt;', '', '', '', '&lt;span style="font-size:14pt"&gt;False alarm [%]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Horizontal&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Vertical&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Range resolution&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m]&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;Velocity resolution (horizontal/ vertical)&lt;/span&gt;', '', '&lt;span style="font-size:14pt"&gt;[m/s x m/s]&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Intrusion detection on a railway&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;Outdoor (Along railway)&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;95&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;≤1.5&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;N/A&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;˂1500&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;≤ 0.1&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="color:0D0D0D;font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;The terms in Table 5.7.6-1 are found in Section 3.1.&lt;/span&gt;', '', 'NOTE:\tIn this use case base station and UE is acting as sensing transmitter and/or sensing receiver. This is an example and other options can also be valid.', '']</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall support consolidated positioning information with absolute positioning accuracy based on train speed, ensuring longitudinal and lateral distances are within specified limits for various speed categories. Additionally, the system shall provide an initial positioning fix time of less than or equal to 5 seconds, and minimize FRMCS equipment power consumption when utilizing positioning capabilities.</t>
+          <t xml:space="preserve"> The system shall enable the core network to collect and aggregate 3GPP sensing data from RAN, subject to operator policy. It shall also enable the core network to provide a suitable API to authorized third parties for information regarding sensing results, again subject to operator policy. Furthermore, the system shall support the specified KPIs for railway intrusion detection, including performance requirements for sensing results such as accuracy of positioning and velocity estimates, sensing resolution, latency, refreshing rate, and detection/false alarm percentages, all within a defined confidence level and service area.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;12.20.6	Potential requirements and gap analysis&lt;/h3&gt;</t>
+          <t>&lt;h4&gt;5.1.1.2	Requirements&lt;/h4&gt;</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>22989-j30.docx</t>
+          <t>22156.docx</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1554744507878271</v>
+        <v>0.1776822800877782</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['', 'Reference Number', '', 'Requirement text', '', 'Application / Transport', '', 'SA1 spec covering', '', 'Comments', '', '[R-12.20.6-001]', '', 'Multiple FRMCS Users in the vehicle/train shall be able to use one FRMCS Equipment simultaneously.', '', 'A/T', '', 'TS 22.280', '', 'TS 22.280 sub-clause 5.15', '', '5.15-001 ', '', '[R-12.20.6-002]', '', 'The service capabilities of an FRMCS Equipment shall be attributable individually to multiple FRMCS Users.', '', 'A/T', '', 'TS 22.280', '', 'TS 22.280 [R-5.15-002] &amp;amp; [R-5.15-003] ', '', '[R-12.20.6-003]', '', 'When an FRMCS Equipment is simultaneously used by multiple FRMCS Users, the communication for each of the FRMCS Users shall receive its required priority and QoS (latency and reliability) within the FRMCS System.', '', 'T', '', 'TS 22.280', '', 'TS 22.280 [R-5.15-003] [', '', '[R-12.20.6-004]', '', 'When an FRMCS Equipment is simultaneously used by multiple FRMCS Users, each of the FRMCS Users shall be individually addressable.', '', 'A', '', 'TS 22.280', '', 'TS 22.280 [R-5.15-002] ', '', '', '']</t>
+          <t>['', '[R-5.1.1-001] Subject to operator policy, the 5G system shall support a mechanism that enables flexible adjustment of communication services based on e.g., the type of devices (e.g., wearables), or communication duration (e.g., more than one hour), such that the services can be operated with reduced energy utilization.', '', 'NOTE 1:\tMetaverse service experience over an extended period of time (e.g., 2h) requires significant power consumption by the UE. In some cases, a device with no external power supply cannot sustain downloading and rendering of media over a long interval, e.g., for the duration of an entire feature film or athletic event.', '', '[R-5.1.1-002] The 5G system shall provide a means to associate and coordinate data flows related to one or multiple UEs e.g., associated with the same object in digital twin applications provided by the mobile metaverse service.', '', '[R-5.1.1-003] Subject to operator policy, regulatory requirements and user consent, the 5G system (including IMS) shall be able to expose network performance information (e.g., observed or predicted bitrate, latency or packet loss) related to one or more users to an authorized third party metaverse application.', '', 'NOTE 2:\tThe network performance information can be per UE and can take into account all available access network types, i.e., 3GPP and non-3GPP.', '', '[R-5.1.1-004] Subject to operator policy, the 5G system (including IMS) shall support a mechanism, including enabling one or more authorized third party(ies) to coordinate multiple service data flows of a single mobile metaverse service delivered to/from one or more UE(s). Multiple UEs may be associated with one user/location or different users at different locations potentially using different access networks, i.e., 3GPP and non-3GPP.', '', 'NOTE 3: \tCoordination refers to the ability to provide an acceptable level of user experience for a given service, e.g., based on latency and synchronization constraints (due to multiple sources or long distance between UEs/users). This can be based on a quantitative bound.', '', 'NOTE 4: \tIt is not assumed that it is always possible to coordinate and provide the same capabilities regardless of whether 3GPP or non-3GPP access is used. ', '', '[R-5.1.1-005] The 5G system shall enable the coordination of diverse media, transmitted to a UE from one or more mobile metaverse services associated with a physical location, to be combined to form a localized service experience.', '', '[R-5.1.1-006] Subject to operator policy, the 5G system shall support exposure mechanisms enabling an authorized third party to determine one or more subscribers to whom mobile metaverse media can be distributed in a resource efficient manner.', '', '[R-5.1.1-007] Subject to operator policy and user consent, the 5G system shall support a means to provide resource efficient communication of third party mobile metaverse media to one or more subscribers.', '', '[R-5.1.1-008] The 5G system shall provide a means to maintain consistent user experience, for a given UE, when XR media from different mobile metaverse services have different communication performance, e.g., resolution, latency or packet loss.', '']</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall allow multiple FRMCS users in a vehicle or train to utilize a single FRMCS equipment simultaneously.
-The system shall attribute the service capabilities of an FRMCS equipment individually to multiple FRMCS users.
-The system shall ensure that when an FRMCS equipment is used simultaneously by multiple FRMCS users, each user's communication receives the required priority and Quality of Service (QoS), including latency and reliability, within the FRMCS system.
-The system shall make each of the FRMCS users individually addressable when the FRMCS equipment is simultaneously used by multiple users.</t>
+          <t xml:space="preserve"> The system shall support a mechanism that enables flexible adjustment of communication services based on the type of devices or communication duration to operate with reduced energy utilization.
+The system shall provide a means to associate and coordinate data flows related to one or multiple users for digital twin applications in the mobile metaverse service.
+The system shall enable the exposure of network performance information related to one or more users to an authorized third-party metaverse application, considering all available access network types.
+The system shall support a mechanism, including enabling authorized third parties to coordinate multiple service data flows of a single mobile metaverse service delivered to/from one or more users, potentially using different access networks.
+The system shall enable the coordination of diverse media transmitted to a UE from multiple mobile metaverse services associated with a physical location to form a localized service experience.
+The system shall support exposure mechanisms enabling an authorized third party to determine subscribers to whom mobile metaverse media can be distributed in a resource-efficient manner.
+The system shall support a means to provide resource-efficient communication of third-party mobile metaverse media to subscribers, subject to operator policy and user consent.
+The system shall provide a means to maintain consistent user experience for a given UE when XR media from different mobile metaverse services have varying communication performance.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.8.1		Description&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.1.2	Requirements&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>22843-j00.docx</t>
+          <t>22262.docx</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.1504122175801706</v>
+        <v>0.1998224724633024</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>['', 'Reliability of UAV traffic is a very important challenge and target for the aviation industry, e.g., for command and control (C2) or other critical data. One scenario of interest includes UAVs, provided with dual SIM/subscription, able to connect simultaneously via two networks for transferring different type of traffic, e.g., using the most reliable network for C2 or other critical data, while other type of traffic is transmitted over the second network. ', '', 'As an example, let us assume the case of a UAV company (“SafeSky”) that offers monitoring and surveillance services for specific venues (e.g., stadiums) or public events. Their drones are 5G-capable and configurable with dual subscription, one for nationwide PLMN connectivity (with MNO-A), one for ad-hoc UAV coverage using networks deployed in specific public safety venues/locations (can be a PLMN or NPN, managed by MNO-A or other MNO).', '', 'In such scenario, when there is available coverage from both NWs, SafeSky can configure their UAVs to transfer C2 traffic with a local UAV-Controller (UAV-C) via the ad-hoc PLMN1/NPN (most suitable for low volume/data rate, but very stringent real-time latency and reliability), while less critical user data is exchanged with the UAV Supplier Service (USS) and UTM via the wide-area PLMN2 coverage. This is illustrated, at high level, in Figure 5.8.1-1, where PLMN1/NPN is the local NW and PLMN2 is the wide area network.', '', '----media/image9.png----', '', 'Figure 5.8.1-1: Example of separating UAV traffic over two PLMNs', '', 'In other examples, different traffic differentiation configurations are possible (in a similar venue scenario), e.g., UAVs may transfer real-time critical payload traffic (e.g., streaming a 4K video of a sport event) with a local endpoint via the ad-hoc PLMN1/NPN, while C2 and UAV monitoring data via the wide-area PLMN2 network.', '']</t>
+          <t>['', '[R-5.1.2-001] The MSGin5G Service shall support UE sending and receiving a text or data message with end-to-end latency less than [500] ms.', '', 'NOTE 1:\tInitial connection activation latencies may be longer depending on receiving UE power saving states, paging, etc. ', '', '[R-5.1.2-002] The MSGin5G Service shall support variable size of payload of a text or data message with maximum [2048] bytes, and support segmented transmission if the content is large than the maximum payload length of a message. ', '', '[R-5.1.2-003] The MSGin5G Service shall support delivery of a message to a specific application in the terminated UE. This message contains the contents that can be handled by the specific application. ', '', '[R-5.1.2-004]\tThe MSGin5G Service shall support acknowledgement of delivery status (success, failure) of a message and indication of reason if the delivery is failed.', '', '[R-5.1.2-005]\tThe MSGin5G Service shall support storage of a message if a UE is unavailable (disconnected or power off) for future delivery once the UE becomes available. ', '', '[R-5.1.2-006]\tThe MSGin5G Service shall support a server in the network triggering the UE to perform an action (e.g. wake up and establish a PDN connection).', '', '[R-5.1.2-007]\tThe MSGin5G Service shall support a UE sending and receiving messages via a MSGin5G Gateway', '', 'NOTE 2:\tThe connection between the UE and the MSGin5G Gateway can be 3GPP or non-3GPP access (e.g. WLAN.)', '', '[R-5.1.2-008] The MSGin5G Service shall support the mobility of a UE (i.e. the UE can still send/receive messages when it changes the location of network access).', '', '[R-5.1.2-009] The MSGin5G Service shall support per-message information for store and forward, e.g. whether the message can be buffered or how long the message is valid.', '']</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall support the reliable transfer of UAV traffic over dual subscriptions, utilizing two distinct networks to prioritize and manage different types of data traffic. Specifically, the system shall:
-1. Enable UAVs to connect simultaneously to two separate networks, one for nationwide coverage (e.g., PLMN1/NPN) and another for ad-hoc UAV coverage in specific venues (e.g., PLMN2).
-2. Prioritize critical command and control (C2) traffic by transferring it over the most stringent real-time latency and reliability network (e.g., PLMN1/NPN) to ensure uninterrupted and secure communication between the UAV and its local controller (UAV-C).
-3. Allow for the exchange of less critical user data, such as monitoring and surveillance information, with the UAV Supplier Service (USS) and Unmanned Traffic Management (UTM) systems over the wider area network (PLMN2) to facilitate broader data sharing and management.
-4. Provide configurability for UAVs to dynamically switch between the two networks based on the type of traffic being transmitted, ensuring optimal network utilization and enhanced overall system reliability.
-5. Illustrate and support the separation of UAV traffic over two different networks in a high-level scenario, as depicted in Figure 5.8.1-1, to demonstrate the practical application and benefits of this dual-network configuration.</t>
+          <t xml:space="preserve"> The system shall support UE sending and receiving a text or data message with end-to-end latency less than 500 ms.
+The system shall support variable size of payload for a text or data message with a maximum of 2048 bytes and support segmented transmission for content larger than the maximum payload length.
+The system shall support delivery of a message to a specific application in the terminated UE, containing content that can be handled by the specific application.
+The system shall support acknowledgement of delivery status (success/failure) of a message and provide indication of the reason if the delivery fails.
+The system shall support storage of a message if a UE is unavailable (disconnected or power off) for future delivery once the UE becomes available.
+The system shall support a server in the network triggering the UE to perform an action, such as waking up and establishing a PDN connection.
+The system shall support a UE sending and receiving messages via a MSGin5G Gateway, with the connection between the UE and the Gateway being either 3GPP or non-3GPP access (e.g., WLAN).
+The system shall support the mobility of a UE, allowing the UE to send/receive messages when it changes the location of network access.
+The system shall support per-message information for store and forward, including whether the message can be buffered and the validity duration of the message.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.6.3	Robotic Aided Diagnosis&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;5.1.2	Requirements&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>22104-j00.docx</t>
+          <t>22262[1].docx</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.1838350968131492</v>
+        <v>0.1998224724633024</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['', 'Robotic aided diagnosis involves a remote expert in a large central hospital who controls a diagnosis robotic system deployed in a local medical facility. Such robotic systems can be e.g.:', '', '-\tHaptic feedback tool used for palpating and deployed in e.g. a Mobile Specialist Practise facility', '', '-\tUltrasound probe deployed in an ambulance or a medical facility ', '', '&lt;span style="color:000000"&gt;A typical robotic setup for tele diagnosis can be depicted as follows:&lt;/span&gt;', '', '----media/image13.png----', '', 'Figure A.6.3-1: Typical Robotic Surgery System Setup', '', 'Specialists and patients are far from each other (typically dozens of kilometres) and can exchange data through communication services delivered by PLMNs. The depicted medical application can be instantiated at either side or in the Cloud. Its role consists in: ', '', '--\tGenerating appropriate haptic feedback based on instrument location, velocity, effort measurements data and images issued by instruments.', '', '--\tFiltering motion control commands for better closed loop stability', '', '', '', '', '', 'Table A.6.3-1: Service performance requirements for motion control and haptic feedback', '', 'Use case # ', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: Mean Time Between Failure', '', 'End-to-end latency: maximum', '', 'Bit rate', '', 'Direction', '', 'Message', '', 'Size', '', '[byte]', '', 'Transfer Interval', '', 'Survival time', '', 'UE speed', '', '# of active UEs', '', 'Service Area', '', '1', '', '&amp;gt;\xa099.999', '', '&lt;span style="color:000000"&gt;&amp;gt;&amp;gt; 1 month (&amp;lt; 1 year)&lt;/span&gt;', '', '&amp;lt;\xa020 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', 'network to UE; UE to network', '', '~80', '', '&amp;lt;\xa020\xa0ms per 100\xa0km&lt;sup&gt;2&lt;/sup&gt; ', '', 'transfer interval', '', 'stationary', '', '&amp;lt; 20 per 100\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', 'regional', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication for the support of precise cooperative robotic motion control and haptic feedback in case of robotic aided diagnosis where the expert and the patient are not collocated and communicate with each other through a connection established over a PLMN.', '', '', '']</t>
+          <t>['', '[R-5.1.2-001] The MSGin5G Service shall support UE sending and receiving a text or data message with end-to-end latency less than [500] ms.', '', 'NOTE 1:\tInitial connection activation latencies may be longer depending on receiving UE power saving states, paging, etc. ', '', '[R-5.1.2-002] The MSGin5G Service shall support variable size of payload of a text or data message with maximum [2048] bytes, and support segmented transmission if the content is large than the maximum payload length of a message. ', '', '[R-5.1.2-003] The MSGin5G Service shall support delivery of a message to a specific application in the terminated UE. This message contains the contents that can be handled by the specific application. ', '', '[R-5.1.2-004]\tThe MSGin5G Service shall support acknowledgement of delivery status (success, failure) of a message and indication of reason if the delivery is failed.', '', '[R-5.1.2-005]\tThe MSGin5G Service shall support storage of a message if a UE is unavailable (disconnected or power off) for future delivery once the UE becomes available. ', '', '[R-5.1.2-006]\tThe MSGin5G Service shall support a server in the network triggering the UE to perform an action (e.g. wake up and establish a PDN connection).', '', '[R-5.1.2-007]\tThe MSGin5G Service shall support a UE sending and receiving messages via a MSGin5G Gateway', '', 'NOTE 2:\tThe connection between the UE and the MSGin5G Gateway can be 3GPP or non-3GPP access (e.g. WLAN.)', '', '[R-5.1.2-008] The MSGin5G Service shall support the mobility of a UE (i.e. the UE can still send/receive messages when it changes the location of network access).', '', '[R-5.1.2-009] The MSGin5G Service shall support per-message information for store and forward, e.g. whether the message can be buffered or how long the message is valid.', '']</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall generate appropriate haptic feedback based on instrument location, velocity, effort measurements data, and images issued by instruments. Additionally, the system is required to filter motion control commands to enhance closed loop stability.</t>
+          <t xml:space="preserve"> The system shall support UE sending and receiving a text or data message with end-to-end latency less than 500 ms.
+The system shall support variable size of payload for a text or data message with a maximum of 2048 bytes and support segmented transmission for content larger than the maximum payload length.
+The system shall support delivery of a message to a specific application in the terminated UE, containing content that can be handled by the specific application.
+The system shall support acknowledgement of delivery status (success/failure) of a message and provide indication of the reason if the delivery fails.
+The system shall support storage of a message if a UE is unavailable (disconnected or power off) for future delivery once the UE becomes available.
+The system shall support a server in the network triggering the UE to perform an action, such as waking up and establishing a PDN connection.
+The system shall support a UE sending and receiving messages via a MSGin5G Gateway, with the connection between the UE and the Gateway being either 3GPP or non-3GPP access (e.g., WLAN).
+The system shall support the mobility of a UE, allowing the UE to send/receive messages when it changes the location of network access.
+The system shall support per-message information for store and forward, including whether the message can be buffered and the validity duration of the message.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.2.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h5&gt;6.1.2.1.2	Requirements&lt;/h5&gt;</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>22856-j00.docx</t>
+          <t>22282.docx</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.1570955369287644</v>
+        <v>0.1876320601294057</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>['', 'Smart transport is a very important area for 5G system as well as an important mobile metaverse service. To reduce traffic jam and minimize traffic accident, 5G, including cellular based V2X technologies becomes more and more essential. The 5G system can be utilized to support real-time information &amp;amp; data delivery for the traffic participants including pedestrians, bicycle riders, and vehicles with or without autonomous driving mode. As shown in Figure 5.2.1-1, the physical objects including road infrastructure and vehicles including cars and trucks in each lanes, will have a corresponding digital twin in the virtual world, and the virtual and physical objects form the mobile metaverse. In this use case, there are virtual objects which actually represent the physical objects including vehicle, road and also pedestrians. This is the basis to enable smart transport applications like traffic flow simulation and situational awareness.', '', '----Image alt text----&gt;公路上的汽车', '', '描述已自动生成&lt;----media/image5.png----', '', 'Figure 5.2.1-1 Example of Smart Transport Metaverse', '', 'With the support of 5GS, real-time information and data about the physical objects can be delivered and the virtual objects of the road infrastructure and traffic participants including vulnerable road users can form a smart transport mobile metaverse service as shown in Figure 5.2.1-2. Then real-time processing&amp;amp; computing can be conducted to support traffic simulation, situational awareness, and real time path guidance. Real-time safety or security alerts can be generated for vehicles as well as the driver and passengers.', '', '----media/image6.png----', '', 'Figure 5.2.1-2 Scenario of 5G-enabled Traffic Flow Simulation and Situational Awareness', '', 'In order to support traffic flow simulation and situational awareness service, the 5G network need to provide low latency, high data rate and high reliability transmission, handover procedures that minimize service disruptions, and in addition, the 5G network may also need to be further enhanced to meet the service requirements for 5G-enabled traffic flow simulation and situation awareness. Meanwhile, in addition to the physical objects which may use UEs for telecommunication services, their corresponding virtual objects are also capable of interacting with each other and also interact with physical objects via 5GS.', '', 'This use case employs terminology defined in Table 5.2.1-1.', '', 'Table 5.2.1-1: Traffic Flow Simulation and Situational Awareness Terminology', '', 'Situational Awareness', '', 'The ability to know and understand what is going on in the surroundings, e.g. the perception of environmental elements and events', '', '', '']</t>
+          <t>['', '[R-6.1.2.1.2-001] The MCData Service shall enable the control of robots. ', '', '[R-6.1.2.1.2-002] The MCData Service shall provide a common transmission framework to use and control robots.', '', '[R-6.1.2.1.2-003] The MCData Service shall provide a default control latency depending on the robots type under', '', '- 50\xa0ms for an aerial unmanned vehicle;', '', '- 200\xa0ms for an aquatic or submarine unmanned vehicle; and', '', '- 400\xa0ms for a terrestrial unmanned vehicle.', '', 'NOTE: \tAt this stage of the work, the latency is an end to end latency. The split between network latency and robot latency is left for stage 2. The latency is measured between the action of the pilot and the movement of the robot (not only MCData Service).', '', '[R-6.1.2.1.2-004] The MCData Service shall be able to simultaneously manage multiple robots and robot types.', '', '[R-6.1.2.1.2-005] Void. ', '', '[R-6.1.2.1.2-006] The MCData Service shall support management of an aerial unmanned vehicle at an altitude of up to 150\xa0m above the floor.', '', '[R-6.1.2.1.2-007] The MCData Service shall have a default priority scheme for each kind of robot (aerial, aquatic, submarine or terrestrial unmanned vehicles).', '', '[R-6.1.2.1.2-008] The MCData Service shall be able to provide relevant priorities to different MCData communications according to the default priority scheme without additional configuration.', '', '[R-6.1.2.1.2-009] The MCData Service default priority scheme shall ensure that data exchanged for controlling a robot has relevant high priority amongst user data and cannot be pre-empted.', '', '[R-6.1.2.1.2-010] The MCData Service default priority scheme shall ensure that essential robots telemetry data (such as position when out of sight) has also a high priority and cannot be pre-empted. ', '', '[R-6.1.2.1.2-011] The essential telemetry data shall be identified and minimized in order not to forbid critical operational data to be transmitted. ', '']</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall provide low latency, high data rate, and high reliability transmission capabilities to support real-time information and data delivery for traffic participants, including pedestrians, bicycle riders, and vehicles with or without autonomous driving mode.
-The system shall enable the creation of corresponding digital twins for physical objects such as vehicles and road infrastructure in the virtual world, forming a smart transport mobile metaverse service.
-The system shall support real-time processing and computing to facilitate traffic flow simulation, situational awareness, and real-time path guidance.
-The system shall generate real-time safety or security alerts for vehicles and their drivers and passengers.
-The system shall ensure seamless handover procedures to minimize service disruptions during 5G network usage.
-The system shall be capable of enhancing the 5G network to meet the specific service requirements for traffic flow simulation and situational awareness.
-The system shall allow virtual objects to interact with each other and with physical objects via 5G technology.</t>
+          <t xml:space="preserve"> The system shall enable the control of robots.
+The system shall provide a common transmission framework to use and control robots.
+The system shall provide a default control latency of 50ms for aerial unmanned vehicles, 200ms for aquatic or submarine unmanned vehicles, and 400ms for terrestrial unmanned vehicles.
+The system shall be able to simultaneously manage multiple robots and robot types.
+The system shall support the management of an aerial unmanned vehicle at an altitude of up to 150m above the floor.
+The system shall have a default priority scheme for each kind of robot (aerial, aquatic, submarine, terrestrial unmanned vehicles).
+The system shall be able to provide relevant priorities to different MCData communications according to the default priority scheme without additional configuration.
+The system default priority scheme shall ensure that data exchanged for controlling a robot has relevant high priority amongst user data and cannot be pre-empted.
+The system default priority scheme shall ensure that essential robots telemetry data, such as position when out of sight, has a high priority and cannot be pre-empted.
+The system shall identify and minimize essential telemetry data to not forbid critical operational data transmission.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;7.3	Performance &lt;/h2&gt;</t>
+          <t>&lt;h2&gt;8.9	Data security and privacy&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>22890-j00.docx</t>
+          <t>22261-j30.docx</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.1698623739410946</v>
+        <v>0.1948876388021039</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['', 'Table 7.3-1: KPIs for Railway Smart Station Services', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Scenario&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(Note 5)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;End-to-end latency&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Reliability&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(Note 1)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;UE speed&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;UE Relative&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Speed&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;User experienced data rate&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Payload&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;size&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;(Note 2)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Area traffic density&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Overall UE density&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Service area dimension', '(Note 3)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Multiple trains\' stops at the same platform (Korea, urban railway)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤10 ms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;99.9999%&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;≤100\xa0km/h&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤50km/h&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤1Mb/s&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Small to large&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 1 Mb/s/km&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 5 (100m)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;≤ 15 km&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;along rail tracks including bad weather conditions&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(Note 4)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;NOTE 1:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Reliability as defined in TS 22.289 sub-clause 3.1.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 2:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Small: payload ≤ 256 octets, Medium: payload ≤512 octets; Large: payload 513 -1500 octets.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 3:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Estimates of maximum dimensions.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 4:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Non-Line-of-Sight (NLOS) between UEs shall be supported&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE 5:    Off-network traffic characteristics are not addressed in this table since it can be covered by TR22.990.&lt;/span&gt;', '', 'Note:\tThis table is intended to be included in clause 6.2 of TS 22.289 [9].', '', '', '']</t>
+          <t>['', '\tThe 5G system shall support data integrity protection and confidentiality methods that serve URLLC, high data rates and energy constrained devices. ', '', 'The 5G system shall support a mechanism to verify the integrity of a message as well as the authenticity of the sender of the message.', '', 'The 5G system shall support encryption for URLLC services within the requested end-to-end latency.', '', 'Subject to regulatory requirements, the 5G system shall enable an MNO to provide end-to-end integrity protection, confidentiality, and protection against replay attacks between a UE and third-party application server, such that the 3GPP network is not able to intercept or modify the data transferred between a UE and third-party application server.', '', 'Subject to regulatory requirements and based on operator policy, the 5G system shall provide a mechanism to support data integrity verification service to assure the integrity of the data exchanged between the 5G network and a third-party service provider.', '', 'NOTE: \tThis requirement could apply&lt;span style="color:000000"&gt; to &lt;/span&gt;mechanisms supported over the interface between 5G core network and an external application, &lt;span style="color:000000"&gt;with &lt;/span&gt;no&lt;span style="color:000000"&gt; impact on RAN and UE&lt;/span&gt;.', '', 'Subject to regulatory requirements and based on operator policy, the 5G system shall provide a mechanism to support confidentiality to prevent exposure of data exchanged between the 5G network and a third party service provider.', '', 'NOTE: \tThis requirement could apply&lt;span style="color:000000"&gt; to &lt;/span&gt;mechanisms supported over the interface between 5G core network and an external application, &lt;span style="color:000000"&gt;with &lt;/span&gt;no&lt;span style="color:000000"&gt; impact on RAN and UE&lt;/span&gt;.', '']</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall ensure end-to-end latency is maintained at ≤10 ms, achieve a reliability of 99.9999%, support user equipment (UE) speeds of ≤100 km/h, and maintain a user experienced data rate of ≤1 Mb/s. Additionally, the system shall accommodate varying payload sizes as defined by small (≤256 octets), medium (≤512 octets), and large (513 - 1500 octets) categories. It shall also consider service area dimensions, including maximum estimates and support for non-line-of-sight (NLOS) conditions between UEs. Furthermore, the system shall account for area traffic density and overall UE density, ensuring performance along rail tracks even under bad weather conditions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;5.9.3	Service Flows&lt;/h3&gt;</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>22856-j00.docx</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0.1629682496785526</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>['', 'The following service flows need to be provided for each of the users:', '', '1.\tEach of the users, e.g., Bob, decide to join the immersive mobile metaverse service activity and give consent to the deployment of their avatars.', '', '2.\tSensors at each user sample the current representation of each of the users where sampling is done as required by the sensing modalities. The sampled representation of each of the users is distributed to the metaverse edge computing servers of the other users in the metaverse activity.', '', '3. \tEach of the edge computing servers applies the incoming data stream representing each of the far located users to the corresponding digital representation (e.g. avatar) predictive models – taking into account the current communication parameters/performance, e.g., latency – to create a combined, synchronized, and current digital representation of the remote users that is provided as input to rendering devices in the local environment.', '', 'The service flows for the other users (i.e., Yong in China and Lukas in Germany) are the mirrored equivalent. For instance, even if not shown in Figure 5.9.1-1, the local edge computing server associated to Lukas will run the digital representation (e.g. avatar) predictive models of Yong and Bob and consume the data streams coming from those users. ', '']</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall:
-1. Enable each user, such as Bob, to autonomously decide to participate in the immersive mobile metaverse service and provide explicit consent for the deployment of their avatars.
-2. Facilitate the collection of user data by sensors at each user's location, ensuring that the sampling of user representations aligns with the specific requirements of the sensing modalities. This data should be efficiently distributed to the metaverse edge computing servers associated with other users actively engaged in the metaverse activity.
-3. Ensure that each edge computing server processes the incoming data streams from remote users, applying the respective digital representation predictive models (e.g., avatars) while considering the current communication parameters and performance metrics, such as latency. This processing should result in a synchronized and up-to-date digital representation of the remote users, which is then delivered to the rendering devices within the local environment.
-4. Guarantee that the service flows for all users, including Yong in China and Lukas in Germany, are functionally equivalent and mirrored. This means that the local edge computing server associated with any given user will execute the predictive models for the digital representations of all other users in the metaverse activity, regardless of geographical location, and will utilize the data streams from these users for processing.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;5.25.1	Description&lt;/h3&gt;</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>22856-j00.docx</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0.1593037906372267</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>['', 'The metaverse enables immersive virtual media, 3D avatar and holographic communications for realizing use cases such as interactive gaming, virtualized shared workspaces, and immersive conference rooms for remote collaboration, etc. The goal is to create a virtual world we can work in, interact with, and even escape to. Many mobile metaverse use cases are applicable to indoor and/or localized areas such as home, offices, stadiums, shopping malls, movie theatres, theme parks, hospitals, universities, concert halls, etc. Even though metaverse services go beyond virtual reality media presenting virtual worlds that seem to be distant, the scenarios that this use case focusses on are tied to a single physical location which is mostly indoors and serving a localized area. Such physical locations may prefer non-3GPP (trusted, untrusted or wireline) access. ', '', 'Some mobile metaverse services require more bandwidth and lower latencies which can be challenging to meet. Major improvements to satisfy these requirements of uninterrupted, lag-free, immersive mobile metaverse service experience using non-3GPP access have been made such as:', '', '-\tincorporation of 1200 MHz of new spectrum in the 6 GHz band with Wi-Fi 6E enabling bigger channel sizes up to 160 MHz', '', '-\tsupport up to 1024 QAM with Wi-Fi 6 and 6E and Wi-Fi 7 aiming to support up to 4096 QAM', '', '-\tdoubling maximum channel bandwidth available to each device to 320MHz in the 6GHz band with Wi-Fi 7', '', '-\tincorporation of High Band Simultaneous (HBS) Multi-Link Operation (MLO) in 802.11be that aggregates two simultaneous 160 MHz channels (four streams) in 5 GHz and 6 GHz bands reducing latency to &amp;lt; 2msec', '', 'In case of converged or hybrid network architecture, a single mobile metaverse user can access mobile metaverse services via 5GS using both 3GPP and non-3GPP accesses simultaneously. In such scenario, the metaverse traffic would need to be synchronized as it may be subject to varying latencies when routed over both 3GPP and non-3GPP access. Alternatively, a single mobile metaverse service can be accessed by multiple users across multiple access networks from a network operator.', '']</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall incorporate 1200 MHz of new spectrum in the 6 GHz band with Wi-Fi 6E to enable larger channel sizes up to 160 MHz, thereby supporting enhanced mobile metaverse services that require increased bandwidth and lower latencies.
-The system shall support up to 1024 QAM with Wi-Fi 6 and 6E and Wi-Fi 7, aiming to facilitate higher data rates and improved performance for immersive mobile metaverse experiences.
-The system shall double the maximum channel bandwidth available to each device to 320 MHz in the 6 GHz band with Wi-Fi 7, ensuring robust connectivity and data throughput for demanding metaverse applications.
-The system shall integrate High Band Simultaneous (HBS) Multi-Link Operation (MLO) in 802.11be, aggregating two simultaneous 160 MHz channels (four streams) in both 5 GHz and 6 GHz bands, to reduce latency to less than 2 milliseconds, thereby enhancing real-time metaverse interactions.
-In a converged or hybrid network architecture, the system shall enable a single mobile metaverse user to access services via 5G using both 3GPP and non-3GPP accesses simultaneously, with the capability to synchronize metaverse traffic to accommodate varying latencies across different access networks.
-Alternatively, the system shall allow a single mobile metaverse service to be accessed by multiple users across multiple access networks from a network operator, ensuring seamless and efficient metaverse service delivery.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;A.6.1	Overview&lt;/h2&gt;</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>22104-j00.docx</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0.1939857850124849</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>['', 'The traditional value chain for the medical device industry, which historically has been driven by innovation and research and development, is currently witnessing a shift in the landscape. As governments and health insurers worldwide implement measures to control costs, public hospitals are operating on tighter budgets, while private facilities are receiving lower reimbursements. In the developed world, decisions that used to be the sole preserve of doctors are now also made by regulators, hospital administrators, and other non-clinicians. This broader set of influencers comes with different objectives, e.g. the prioritization of cost effectiveness or even just costs. ', '', 'This shift in focus from volume-based healthcare to value-based healthcare has led medical devices companies to move to business models based on providing clinical value with cost efficiency.', '', 'Technological progress and better infrastructures, in particular high-quality wireless networks, have fed this business model transformation, allowing coordinated therapies, services, and health analytics and enabling efficient outcome measurement solutions. ', '', 'On this matter, 5G enables shifting care location from hospitals to homes and others lower cost facilities which mechanically translates into more savings. Additionally, another example showing that 5G can enable cost savings required by the medical industry can be found inside hospitals where wireless transmission of low latency data streams improves operating room planning, enable streamlining equipment usage and simplifies operating theater implementation.', '']</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall facilitate the transition of medical device companies to value-based healthcare business models by providing clinical value with cost efficiency. It shall leverage technological advancements, including high-quality wireless networks, to enable coordinated therapies, services, health analytics, and efficient outcome measurement solutions. The system shall support the shift from volume-based to value-based healthcare, ensuring that decisions are made considering cost-effectiveness and overall costs. Additionally, the system shall utilize 5G technology to enable the relocation of care from high-cost hospital settings to more affordable home and community-based facilities, resulting in significant cost savings. Furthermore, the system shall enhance hospital operations by using 5G for low latency data transmission, which will improve operating room planning, streamline equipment usage, and simplify the implementation of operating theaters.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;5.23.2	Pre-conditions&lt;/h3&gt;</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>22856-j00.docx</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0.1740668523939153</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>['', 'There are about 12,000 players sign up for a popular game and appear simultaneously in a specific setting, such as Eve Online in 2021. Due to the limitations of the existing server processing, it is not possible to support such a large number of high concurrency, so the network and application server need to cooperate to support the distribution of visitors to other servers while ensuring low latency requirement by XR applications.', '']</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall cooperate with the network and application server to distribute visitors across multiple servers efficiently. It shall ensure low latency requirements are met for XR applications, despite the high concurrency of approximately 12,000 players simultaneously engaging in the game setting, such as Eve Online in 2021.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;5.19.1	Description&lt;/h3&gt;</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>22856-j00.docx</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0.1678743688964306</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>['', 'With the proliferation of APIs in existing mobile applications already creating an extensive market for application exposure, API integration in emerging Metaverse applications and features is likely to emerge as a major functionality for enhancing experiences across extended reality functions that builds upon already-existing API development. Given the importance of consistent, reliable network access and the low-latency connections necessary to generate and maintain immersive experiences in Metaverse immersive experiences, one could reasonably expect the development of APIs supporting network exposure for configuring and optimizing network features for a diverse array of emerging functions in extended reality interactions. As 5G begins to support VR, AR, and MR interactions through the cellular network, questions surrounding the efficiency and trustworthiness of network exposure to application developers abound. ', '', 'In particular, the exposure of network characteristics through and the development of network-focused applications raises important questions around the privacy of user data with respect to the use of sensitive data around their internet usage, which could potentially reveal personally identifiable information about their location, environment, behaviour, or specific activities through such exposure. This concern extends beyond industry best practices and into emerging requirements from regulations such as the GDPR [52], CCPA [53], and other emerging national and international privacy regulation frameworks which specify the right of individuals to privacy across the lifecycle of data that could reveal personally identifiable information across a broad specification of contexts. It is thus incumbent on this body to proactively standardize the privacy features of the emerging 5GS in the context of APIs to ensure that such network exposure in application contexts does not expose providers or users to undue risks or liability. ', '']</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall proactively standardize privacy features for emerging 5G APIs in the context of application exposure to ensure protection against undue risks or liability for providers and users.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>&lt;h4&gt;5.1.5.2	Requirements&lt;/h4&gt;</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>22281.docx</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0.157742595808085</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>['', '[R-5.1.5.2-001] A robot may be equipped with an MCVideo UE and provide functions of an MCVideo UE, such as remote control of video parameters.', '', '[R-5.1.5.2-002] The MCVideo service shall provide a mechanism to control the video settings of a robot.', '', '[R-5.1.5.2-003] The MCVideo service shall support aerial unmanned vehicles at an altitude of up to 150 meter above the floor.', '', '[R-5.1.5.2-004] The MCVideo service, in coordination with the MCData Service, shall be able to give different priorities to the communication for controlling the MCVideo UEs, the communication for controlling/driving the robot, the communication for controlling the video transmission from the robot and the video transmitted by the robot, depending also on who it is transmitted to (e.g. pilot, a dispatcher or a group).', '', '[R-5.1.5.2-005] The MCVideo service shall provide a minimum of four levels of latencies for controlling video:', '', '-\tWhen the MCVideo UE is in an aerial unmanned vehicle, during take-off and landing, the video control latency shall remain under 100\xa0ms.', '', '-\tWhen the MCVideo UE is in an aerial unmanned vehicle, while flying, the video control latency shall remain under 300\xa0ms.', '', '-\tWhen the MCVideo UE is in an aquatic or submarine unmanned vehicle, the video control latency shall remain under 500\xa0ms.', '', '-\tWhen the MCVideo UE is in a terrestrial unmanned vehicle moving at less than 120km/h, the video control latency shall remain under 400\xa0ms.', '', 'NOTE: \tAt this stage of the work, the latency is an end-to-end latency. The split between network latency and robot latency is left for stage 2.', '', '[R-5.1.5.2-006] The MCVideo service shall provide a latency of the video transmission less than 500\xa0ms when the video is used by the pilot.', '', '[R-5.1.5.2-007] Void.', '']</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall be equipped with an MCVideo UE to provide functions of an MCVideo UE, such as remote control of video parameters.
-The system shall provide an MCVideo service that offers a mechanism to control the video settings of a robot.
-The system shall support aerial unmanned vehicles at an altitude of up to 150 meters above the ground for video control.
-The system shall prioritize communication for controlling the MCVideo UE, robot control, and video transmission based on the context of use, such as pilot, dispatcher, or group.
-The system shall ensure a minimum of four levels of latencies for controlling video: under 100ms during aerial vehicle take-off and landing, under 300ms while flying, under 500ms in aquatic or submarine vehicles, and under 400ms for terrestrial vehicles moving at less than 120km/h.
-The system shall provide a video transmission latency of less than 500ms when the video is utilized by the pilot.</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;5.2.2	Decentralized UAS traffic management&lt;/h3&gt;</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>22125.docx</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0.154902656285102</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>['', '[R-5.2.2-001] The 3GPP system shall enable a UAV to broadcast the following data for identifying UAV(s) in a short-range area for collision avoidance: e.g. UAV identities if needed based on different regulation requirements, UAV type, current location and time, flight route information, current speed, operating status.', '', '[R-5.2.2-002] The 3GPP system shall be able to support a UAV to transmit a message via network connection for identifying itself as an UAV to the other UAV(s).', '', '[R-5.2.2-003] The 3GPP system shall enable UAV to preserve the privacy of the owner of the UAV, UAV pilot, and the UAV operator in its broadcast of identity information.', '', '[R-5.2.2-004] The 3GPP system shall enable a UAV to receive local broadcast communication transport service from other UAV in short range.', '', '[R-5.2.2-005] A UAV shall be able to use a direct UAV to UAV local broadcast communication transport service in the coverage or out of coverage of a 3GPP network.', '', '[R-5.2.2-006] A UAV shall be able to use a direct UAV to UAV local broadcast communication transport service when the sending and receiving UAVs are served by the same or different PLMNs.', '', '[R-5.2.2-007] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service at relative speeds of up to 320kmph.', '', '[R-5.2.2-008] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service with variable message payloads of 50-1500 bytes, not including security-related message component(s).', '', '[R-5.2.2-009] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service which supports a range of up to 600m.', '', '[R-5.2.2-010] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service which can transmit messages at a frequency of at least 10 messages per second.', '', '[R-5.2.2-011] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service which can transmit messages with an end-to-end latency of at most 100ms.', '']</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall enable a UAV to broadcast identity information, including UAV identities, types, current location, time, flight route, current speed, and operating status, for collision avoidance in a short-range area.
-The system shall support a UAV's ability to transmit an identification message via network connection to other UAVs.
-The system shall ensure the privacy of UAV owners, pilots, and operators by preserving the confidentiality of broadcasted identity information.
-The system shall enable a UAV to receive local broadcast communication services from other UAVs within a short range.
-The system shall allow a UAV to use direct UAV-to-UAV local broadcast communication services, both within and outside the coverage of a 3GPP network.
-The system shall support direct UAV-to-UAV local broadcast communication services at high relative speeds, up to 320 km/h.
-The system shall support direct UAV-to-UAV local broadcast communication services with variable message payloads ranging from 50 to 1500 bytes, excluding security-related components.
-The system shall support direct UAV-to-UAV local broadcast communication services with a range of up to 600 meters.
-The system shall support direct UAV-to-UAV local broadcast communication services capable of transmitting messages at a minimum frequency of 10 messages per second.
-The system shall support direct UAV-to-UAV local broadcast communication services with an end-to-end latency of no more than 100 milliseconds.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;5.2.2	Decentralized UAS traffic management&lt;/h3&gt;</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>22125[1].docx</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>0.154902656285102</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>['', '[R-5.2.2-001] The 3GPP system shall enable a UAV to broadcast the following data for identifying UAV(s) in a short-range area for collision avoidance: e.g. UAV identities if needed based on different regulation requirements, UAV type, current location and time, flight route information, current speed, operating status.', '', '[R-5.2.2-002] The 3GPP system shall be able to support a UAV to transmit a message via network connection for identifying itself as an UAV to the other UAV(s).', '', '[R-5.2.2-003] The 3GPP system shall enable UAV to preserve the privacy of the owner of the UAV, UAV pilot, and the UAV operator in its broadcast of identity information.', '', '[R-5.2.2-004] The 3GPP system shall enable a UAV to receive local broadcast communication transport service from other UAV in short range.', '', '[R-5.2.2-005] A UAV shall be able to use a direct UAV to UAV local broadcast communication transport service in the coverage or out of coverage of a 3GPP network.', '', '[R-5.2.2-006] A UAV shall be able to use a direct UAV to UAV local broadcast communication transport service when the sending and receiving UAVs are served by the same or different PLMNs.', '', '[R-5.2.2-007] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service at relative speeds of up to 320kmph.', '', '[R-5.2.2-008] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service with variable message payloads of 50-1500 bytes, not including security-related message component(s).', '', '[R-5.2.2-009] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service which supports a range of up to 600m.', '', '[R-5.2.2-010] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service which can transmit messages at a frequency of at least 10 messages per second.', '', '[R-5.2.2-011] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service which can transmit messages with an end-to-end latency of at most 100ms.', '']</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall enable a UAV to broadcast identity information, including UAV identities, types, current location, time, flight route, current speed, and operating status, for collision avoidance in a short-range area.
-The system shall support a UAV's ability to transmit an identification message via network connection to other UAVs.
-The system shall ensure the privacy of UAV owners, pilots, and operators by preserving the confidentiality of broadcasted identity information.
-The system shall enable a UAV to receive local broadcast communication services from other UAVs within a short range.
-The system shall allow a UAV to use direct UAV-to-UAV local broadcast communication services, both within and outside the coverage of a 3GPP network.
-The system shall support direct UAV-to-UAV local broadcast communication services at high relative speeds, up to 320 km/h.
-The system shall support direct UAV-to-UAV local broadcast communication services with variable message payloads ranging from 50 to 1500 bytes, excluding security-related components.
-The system shall support direct UAV-to-UAV local broadcast communication services with a range of up to 600 meters.
-The system shall support direct UAV-to-UAV local broadcast communication services capable of transmitting messages at a minimum frequency of 10 messages per second.
-The system shall support direct UAV-to-UAV local broadcast communication services with an end-to-end latency of no more than 100 milliseconds.</t>
+          <t xml:space="preserve"> The system shall support data integrity protection and confidentiality methods tailored for Ultra Reliable and Low Latency Communications (URLLC), ensuring high data rates and energy efficiency for constrained devices. It shall provide mechanisms for message integrity verification, sender authenticity confirmation, and encryption within the specified end-to-end latency requirements. Furthermore, the system shall enable Mobile Network Operators (MNOs) to offer end-to-end integrity protection, confidentiality, and replay attack prevention between User Equipment (UE) and third-party application servers without impacting the Radio Access Network (RAN) and UE, subject to regulatory requirements and operator policy. Additionally, the system shall support data integrity verification services and confidentiality mechanisms over the interface between the 5G core network and external applications, again without impacting RAN and UE, in compliance with regulatory standards and operator guidelines.</t>
         </is>
       </c>
     </row>
